--- a/data/nzd0218/nzd0218.xlsx
+++ b/data/nzd0218/nzd0218.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA334"/>
+  <dimension ref="A1:AA339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27289,11 +27289,15 @@
       <c r="G334" t="n">
         <v>358.16</v>
       </c>
-      <c r="H334" t="inlineStr"/>
+      <c r="H334" t="n">
+        <v>384.16</v>
+      </c>
       <c r="I334" t="n">
         <v>388.59</v>
       </c>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>396.79</v>
+      </c>
       <c r="K334" t="n">
         <v>388.77</v>
       </c>
@@ -27345,6 +27349,439 @@
       <c r="AA334" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-07 21:53:45+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>376.6914285714286</v>
+      </c>
+      <c r="C335" t="n">
+        <v>364.4414285714286</v>
+      </c>
+      <c r="D335" t="n">
+        <v>364.96</v>
+      </c>
+      <c r="E335" t="n">
+        <v>355.23</v>
+      </c>
+      <c r="F335" t="n">
+        <v>349.3066666666667</v>
+      </c>
+      <c r="G335" t="n">
+        <v>351.1766666666667</v>
+      </c>
+      <c r="H335" t="n">
+        <v>360.8966666666667</v>
+      </c>
+      <c r="I335" t="n">
+        <v>370.8766666666667</v>
+      </c>
+      <c r="J335" t="n">
+        <v>374.6366666666667</v>
+      </c>
+      <c r="K335" t="n">
+        <v>370.79</v>
+      </c>
+      <c r="L335" t="n">
+        <v>356.7066666666667</v>
+      </c>
+      <c r="M335" t="n">
+        <v>348.72</v>
+      </c>
+      <c r="N335" t="n">
+        <v>351.5766666666667</v>
+      </c>
+      <c r="O335" t="n">
+        <v>357.7366666666667</v>
+      </c>
+      <c r="P335" t="n">
+        <v>350.3266666666667</v>
+      </c>
+      <c r="Q335" t="n">
+        <v>345.8666666666667</v>
+      </c>
+      <c r="R335" t="n">
+        <v>347.2</v>
+      </c>
+      <c r="S335" t="n">
+        <v>345.8266666666667</v>
+      </c>
+      <c r="T335" t="n">
+        <v>350.3566666666667</v>
+      </c>
+      <c r="U335" t="n">
+        <v>355.9766666666667</v>
+      </c>
+      <c r="V335" t="n">
+        <v>360.1314285714286</v>
+      </c>
+      <c r="W335" t="n">
+        <v>369.3266666666667</v>
+      </c>
+      <c r="X335" t="n">
+        <v>373.73</v>
+      </c>
+      <c r="Y335" t="n">
+        <v>368.0966666666667</v>
+      </c>
+      <c r="Z335" t="inlineStr"/>
+      <c r="AA335" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-23 21:53:43+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>355.1557142857143</v>
+      </c>
+      <c r="C336" t="n">
+        <v>359.1357142857143</v>
+      </c>
+      <c r="D336" t="n">
+        <v>349.79</v>
+      </c>
+      <c r="E336" t="n">
+        <v>346.88</v>
+      </c>
+      <c r="F336" t="n">
+        <v>346.8766666666667</v>
+      </c>
+      <c r="G336" t="n">
+        <v>346.9366666666667</v>
+      </c>
+      <c r="H336" t="n">
+        <v>350.6466666666667</v>
+      </c>
+      <c r="I336" t="n">
+        <v>357.2266666666667</v>
+      </c>
+      <c r="J336" t="n">
+        <v>363.6366666666667</v>
+      </c>
+      <c r="K336" t="n">
+        <v>355.24</v>
+      </c>
+      <c r="L336" t="n">
+        <v>346.1766666666667</v>
+      </c>
+      <c r="M336" t="n">
+        <v>340.36</v>
+      </c>
+      <c r="N336" t="n">
+        <v>343.0266666666667</v>
+      </c>
+      <c r="O336" t="n">
+        <v>340.9566666666667</v>
+      </c>
+      <c r="P336" t="n">
+        <v>339.0566666666667</v>
+      </c>
+      <c r="Q336" t="n">
+        <v>334.8366666666667</v>
+      </c>
+      <c r="R336" t="n">
+        <v>333.19</v>
+      </c>
+      <c r="S336" t="n">
+        <v>333.2966666666667</v>
+      </c>
+      <c r="T336" t="n">
+        <v>333.6666666666667</v>
+      </c>
+      <c r="U336" t="n">
+        <v>339.7566666666667</v>
+      </c>
+      <c r="V336" t="n">
+        <v>348.4457142857143</v>
+      </c>
+      <c r="W336" t="n">
+        <v>353.0966666666667</v>
+      </c>
+      <c r="X336" t="n">
+        <v>361.52</v>
+      </c>
+      <c r="Y336" t="n">
+        <v>360.9766666666667</v>
+      </c>
+      <c r="Z336" t="n">
+        <v>352.6457142857143</v>
+      </c>
+      <c r="AA336" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-31 21:53:47+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>346.9371428571428</v>
+      </c>
+      <c r="C337" t="n">
+        <v>342.5271428571428</v>
+      </c>
+      <c r="D337" t="n">
+        <v>338.15</v>
+      </c>
+      <c r="E337" t="n">
+        <v>333.24</v>
+      </c>
+      <c r="F337" t="n">
+        <v>332.6866666666667</v>
+      </c>
+      <c r="G337" t="n">
+        <v>334.7366666666667</v>
+      </c>
+      <c r="H337" t="n">
+        <v>333.3866666666667</v>
+      </c>
+      <c r="I337" t="n">
+        <v>339.8366666666667</v>
+      </c>
+      <c r="J337" t="n">
+        <v>339.2766666666667</v>
+      </c>
+      <c r="K337" t="n">
+        <v>334.76</v>
+      </c>
+      <c r="L337" t="n">
+        <v>331.0866666666667</v>
+      </c>
+      <c r="M337" t="n">
+        <v>328.13</v>
+      </c>
+      <c r="N337" t="n">
+        <v>323.1866666666667</v>
+      </c>
+      <c r="O337" t="n">
+        <v>321.2366666666667</v>
+      </c>
+      <c r="P337" t="n">
+        <v>319.9366666666667</v>
+      </c>
+      <c r="Q337" t="n">
+        <v>318.5666666666667</v>
+      </c>
+      <c r="R337" t="n">
+        <v>320.95</v>
+      </c>
+      <c r="S337" t="n">
+        <v>312.9966666666667</v>
+      </c>
+      <c r="T337" t="n">
+        <v>324.4966666666667</v>
+      </c>
+      <c r="U337" t="n">
+        <v>324.6666666666667</v>
+      </c>
+      <c r="V337" t="n">
+        <v>331.7471428571428</v>
+      </c>
+      <c r="W337" t="n">
+        <v>340.7466666666667</v>
+      </c>
+      <c r="X337" t="n">
+        <v>343.16</v>
+      </c>
+      <c r="Y337" t="n">
+        <v>342.6866666666667</v>
+      </c>
+      <c r="Z337" t="n">
+        <v>339.2071428571429</v>
+      </c>
+      <c r="AA337" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-09 21:53:42+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>371.3928571428572</v>
+      </c>
+      <c r="C338" t="n">
+        <v>379.5328571428572</v>
+      </c>
+      <c r="D338" t="n">
+        <v>369.46</v>
+      </c>
+      <c r="E338" t="n">
+        <v>350.73</v>
+      </c>
+      <c r="F338" t="n">
+        <v>355.9633333333333</v>
+      </c>
+      <c r="G338" t="n">
+        <v>348.8033333333333</v>
+      </c>
+      <c r="H338" t="n">
+        <v>354.0533333333333</v>
+      </c>
+      <c r="I338" t="n">
+        <v>352.9633333333333</v>
+      </c>
+      <c r="J338" t="n">
+        <v>356.7133333333333</v>
+      </c>
+      <c r="K338" t="n">
+        <v>332.36</v>
+      </c>
+      <c r="L338" t="n">
+        <v>327.1233333333333</v>
+      </c>
+      <c r="M338" t="n">
+        <v>328.58</v>
+      </c>
+      <c r="N338" t="n">
+        <v>326.3933333333333</v>
+      </c>
+      <c r="O338" t="n">
+        <v>332.8733333333333</v>
+      </c>
+      <c r="P338" t="n">
+        <v>330.9933333333333</v>
+      </c>
+      <c r="Q338" t="n">
+        <v>321.5833333333333</v>
+      </c>
+      <c r="R338" t="n">
+        <v>313.69</v>
+      </c>
+      <c r="S338" t="n">
+        <v>323.4333333333333</v>
+      </c>
+      <c r="T338" t="n">
+        <v>322.4333333333333</v>
+      </c>
+      <c r="U338" t="n">
+        <v>326.6733333333333</v>
+      </c>
+      <c r="V338" t="n">
+        <v>330.0628571428572</v>
+      </c>
+      <c r="W338" t="n">
+        <v>327.5833333333333</v>
+      </c>
+      <c r="X338" t="n">
+        <v>324.72</v>
+      </c>
+      <c r="Y338" t="n">
+        <v>328.4533333333333</v>
+      </c>
+      <c r="Z338" t="n">
+        <v>333.2628571428572</v>
+      </c>
+      <c r="AA338" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-25 21:53:31+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>374.4857142857143</v>
+      </c>
+      <c r="C339" t="n">
+        <v>386.1457142857143</v>
+      </c>
+      <c r="D339" t="n">
+        <v>369.54</v>
+      </c>
+      <c r="E339" t="n">
+        <v>362.4</v>
+      </c>
+      <c r="F339" t="n">
+        <v>345.3666666666667</v>
+      </c>
+      <c r="G339" t="n">
+        <v>343.7566666666667</v>
+      </c>
+      <c r="H339" t="n">
+        <v>354.4566666666667</v>
+      </c>
+      <c r="I339" t="n">
+        <v>363.1366666666667</v>
+      </c>
+      <c r="J339" t="n">
+        <v>368.7266666666667</v>
+      </c>
+      <c r="K339" t="n">
+        <v>346.77</v>
+      </c>
+      <c r="L339" t="n">
+        <v>323.2766666666667</v>
+      </c>
+      <c r="M339" t="n">
+        <v>326.23</v>
+      </c>
+      <c r="N339" t="n">
+        <v>323.1466666666667</v>
+      </c>
+      <c r="O339" t="n">
+        <v>330.4866666666667</v>
+      </c>
+      <c r="P339" t="n">
+        <v>342.0866666666667</v>
+      </c>
+      <c r="Q339" t="n">
+        <v>332.0266666666667</v>
+      </c>
+      <c r="R339" t="n">
+        <v>319</v>
+      </c>
+      <c r="S339" t="n">
+        <v>321.1466666666667</v>
+      </c>
+      <c r="T339" t="n">
+        <v>316.0966666666667</v>
+      </c>
+      <c r="U339" t="n">
+        <v>327.4966666666667</v>
+      </c>
+      <c r="V339" t="n">
+        <v>332.7157142857143</v>
+      </c>
+      <c r="W339" t="n">
+        <v>336.6566666666667</v>
+      </c>
+      <c r="X339" t="n">
+        <v>342.47</v>
+      </c>
+      <c r="Y339" t="n">
+        <v>345.8266666666667</v>
+      </c>
+      <c r="Z339" t="n">
+        <v>351.7457142857143</v>
+      </c>
+      <c r="AA339" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -27359,7 +27796,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B342"/>
+  <dimension ref="A1:B347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30787,6 +31224,56 @@
       </c>
       <c r="B342" t="n">
         <v>-0.48</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2024-12-07 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2024-12-23 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2024-12-31 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2025-02-09 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2025-02-25 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>-0.55</v>
       </c>
     </row>
   </sheetData>
@@ -30955,28 +31442,28 @@
         <v>0.0405</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2267527401726619</v>
+        <v>-0.1641092797033587</v>
       </c>
       <c r="J2" t="n">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="K2" t="n">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01010406919531937</v>
+        <v>0.00537736666660138</v>
       </c>
       <c r="M2" t="n">
-        <v>13.26174092781335</v>
+        <v>13.34928050358163</v>
       </c>
       <c r="N2" t="n">
-        <v>271.7911890006013</v>
+        <v>274.992329558592</v>
       </c>
       <c r="O2" t="n">
-        <v>16.48609077375838</v>
+        <v>16.58289267765404</v>
       </c>
       <c r="P2" t="n">
-        <v>352.0371157188863</v>
+        <v>351.4575245928714</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -31032,28 +31519,28 @@
         <v>0.0374</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2298357672954622</v>
+        <v>-0.1471638968635945</v>
       </c>
       <c r="J3" t="n">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="K3" t="n">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="L3" t="n">
-        <v>0.008834902541054901</v>
+        <v>0.003637669865774296</v>
       </c>
       <c r="M3" t="n">
-        <v>14.3321486683296</v>
+        <v>14.49195031181663</v>
       </c>
       <c r="N3" t="n">
-        <v>322.2501346506209</v>
+        <v>330.1350003420235</v>
       </c>
       <c r="O3" t="n">
-        <v>17.95132682145308</v>
+        <v>18.16961750676176</v>
       </c>
       <c r="P3" t="n">
-        <v>347.8509557494882</v>
+        <v>347.0909451974282</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -31109,28 +31596,28 @@
         <v>0.0304</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2115380783381212</v>
+        <v>-0.1530042185297401</v>
       </c>
       <c r="J4" t="n">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="K4" t="n">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007088887449742232</v>
+        <v>0.003790209476689177</v>
       </c>
       <c r="M4" t="n">
-        <v>14.88179058607037</v>
+        <v>14.91288379474312</v>
       </c>
       <c r="N4" t="n">
-        <v>347.3215283403773</v>
+        <v>348.7858377361684</v>
       </c>
       <c r="O4" t="n">
-        <v>18.63656428477034</v>
+        <v>18.67580889108068</v>
       </c>
       <c r="P4" t="n">
-        <v>346.5986543344972</v>
+        <v>346.0635677701191</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -31186,28 +31673,28 @@
         <v>0.0309</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2422993679819961</v>
+        <v>-0.1955299767140046</v>
       </c>
       <c r="J5" t="n">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="K5" t="n">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="L5" t="n">
-        <v>0.008667546594256947</v>
+        <v>0.005826612095593764</v>
       </c>
       <c r="M5" t="n">
-        <v>15.22948003250247</v>
+        <v>15.18602832038385</v>
       </c>
       <c r="N5" t="n">
-        <v>379.2710914338446</v>
+        <v>377.1667983777486</v>
       </c>
       <c r="O5" t="n">
-        <v>19.47488360514241</v>
+        <v>19.42078264071118</v>
       </c>
       <c r="P5" t="n">
-        <v>342.5511766103399</v>
+        <v>342.1298048833693</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -31263,28 +31750,28 @@
         <v>0.0345</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2914312972685134</v>
+        <v>-0.2609584375631706</v>
       </c>
       <c r="J6" t="n">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="K6" t="n">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01530910637412952</v>
+        <v>0.01270141734526764</v>
       </c>
       <c r="M6" t="n">
-        <v>13.53218909534804</v>
+        <v>13.47293127816349</v>
       </c>
       <c r="N6" t="n">
-        <v>302.9206892612045</v>
+        <v>300.0357487986235</v>
       </c>
       <c r="O6" t="n">
-        <v>17.40461689498521</v>
+        <v>17.32154002387269</v>
       </c>
       <c r="P6" t="n">
-        <v>344.4495316437702</v>
+        <v>344.1692512473934</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -31340,28 +31827,28 @@
         <v>0.0327</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3099242036950109</v>
+        <v>-0.28700763781578</v>
       </c>
       <c r="J7" t="n">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="K7" t="n">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01612796882098211</v>
+        <v>0.01433679850514524</v>
       </c>
       <c r="M7" t="n">
-        <v>13.9397514083828</v>
+        <v>13.84423291783952</v>
       </c>
       <c r="N7" t="n">
-        <v>317.228143268787</v>
+        <v>313.2469976032283</v>
       </c>
       <c r="O7" t="n">
-        <v>17.81089956371623</v>
+        <v>17.6987852013416</v>
       </c>
       <c r="P7" t="n">
-        <v>346.0761546422766</v>
+        <v>345.8614908280106</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -31417,28 +31904,28 @@
         <v>0.0319</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2206635895764728</v>
+        <v>-0.14984323836015</v>
       </c>
       <c r="J8" t="n">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="K8" t="n">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="L8" t="n">
-        <v>0.007734880213696615</v>
+        <v>0.003634832584069159</v>
       </c>
       <c r="M8" t="n">
-        <v>14.44633685901886</v>
+        <v>14.53989168211458</v>
       </c>
       <c r="N8" t="n">
-        <v>339.5985650178188</v>
+        <v>343.3226002797628</v>
       </c>
       <c r="O8" t="n">
-        <v>18.428200265295</v>
+        <v>18.52896651947331</v>
       </c>
       <c r="P8" t="n">
-        <v>344.0363842289936</v>
+        <v>343.3788901737959</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -31494,28 +31981,28 @@
         <v>0.0324</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1395467099785196</v>
+        <v>-0.1073680848385475</v>
       </c>
       <c r="J9" t="n">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="K9" t="n">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003569324229544479</v>
+        <v>0.002173524819929495</v>
       </c>
       <c r="M9" t="n">
-        <v>13.59697762976856</v>
+        <v>13.58480299839453</v>
       </c>
       <c r="N9" t="n">
-        <v>295.9505390483118</v>
+        <v>294.2953032268823</v>
       </c>
       <c r="O9" t="n">
-        <v>17.20321304432145</v>
+        <v>17.15503725518782</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6729193012812</v>
+        <v>350.3719526878854</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -31571,28 +32058,28 @@
         <v>0.0323</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2463556358984808</v>
+        <v>-0.1622429712770339</v>
       </c>
       <c r="J10" t="n">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="K10" t="n">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0110897034353391</v>
+        <v>0.004833670265647405</v>
       </c>
       <c r="M10" t="n">
-        <v>13.60932728615705</v>
+        <v>13.78888907911713</v>
       </c>
       <c r="N10" t="n">
-        <v>293.235666333648</v>
+        <v>301.6677315238665</v>
       </c>
       <c r="O10" t="n">
-        <v>17.12412527207297</v>
+        <v>17.36858461486907</v>
       </c>
       <c r="P10" t="n">
-        <v>352.061132851538</v>
+        <v>351.2851595344657</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -31648,28 +32135,28 @@
         <v>0.0286</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.08512200966963113</v>
+        <v>-0.07403848539088725</v>
       </c>
       <c r="J11" t="n">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="K11" t="n">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001369734289453417</v>
+        <v>0.001064768332439514</v>
       </c>
       <c r="M11" t="n">
-        <v>13.53715087885305</v>
+        <v>13.51577906706401</v>
       </c>
       <c r="N11" t="n">
-        <v>287.9126368739281</v>
+        <v>286.596374254603</v>
       </c>
       <c r="O11" t="n">
-        <v>16.96798859246222</v>
+        <v>16.92915751756723</v>
       </c>
       <c r="P11" t="n">
-        <v>346.7918822464211</v>
+        <v>346.6903069530152</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -31725,28 +32212,28 @@
         <v>0.0354</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.05526694438994078</v>
+        <v>-0.06434441772276908</v>
       </c>
       <c r="J12" t="n">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="K12" t="n">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0006572409009356628</v>
+        <v>0.000916013862387266</v>
       </c>
       <c r="M12" t="n">
-        <v>12.6274065831145</v>
+        <v>12.6192908080517</v>
       </c>
       <c r="N12" t="n">
-        <v>255.8801698862513</v>
+        <v>254.3338989558911</v>
       </c>
       <c r="O12" t="n">
-        <v>15.99625487063304</v>
+        <v>15.94784935205657</v>
       </c>
       <c r="P12" t="n">
-        <v>340.8848457147495</v>
+        <v>340.9699780508111</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -31802,28 +32289,28 @@
         <v>0.0423</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.006868401691050938</v>
+        <v>-0.008929896250502696</v>
       </c>
       <c r="J13" t="n">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="K13" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="L13" t="n">
-        <v>1.114936369861486e-05</v>
+        <v>1.947919687439459e-05</v>
       </c>
       <c r="M13" t="n">
-        <v>11.78911251826031</v>
+        <v>11.72885398430084</v>
       </c>
       <c r="N13" t="n">
-        <v>228.529948745796</v>
+        <v>225.9942977268293</v>
       </c>
       <c r="O13" t="n">
-        <v>15.11720704183799</v>
+        <v>15.03310672239206</v>
       </c>
       <c r="P13" t="n">
-        <v>335.1397501793467</v>
+        <v>335.1599341392777</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -31879,28 +32366,28 @@
         <v>0.035</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.01804737628746435</v>
+        <v>-0.01900819831470031</v>
       </c>
       <c r="J14" t="n">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="K14" t="n">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="L14" t="n">
-        <v>8.689859184041193e-05</v>
+        <v>9.907803696351802e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>10.99242873267796</v>
+        <v>10.99442424635992</v>
       </c>
       <c r="N14" t="n">
-        <v>197.6087740335121</v>
+        <v>196.617256223065</v>
       </c>
       <c r="O14" t="n">
-        <v>14.05733879628403</v>
+        <v>14.02202753609709</v>
       </c>
       <c r="P14" t="n">
-        <v>334.1447912542843</v>
+        <v>334.1549616681922</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -31956,28 +32443,28 @@
         <v>0.0319</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1395718195888953</v>
+        <v>0.1446456009144838</v>
       </c>
       <c r="J15" t="n">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="K15" t="n">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="L15" t="n">
-        <v>0.004074124170876936</v>
+        <v>0.004506979934765121</v>
       </c>
       <c r="M15" t="n">
-        <v>12.65673003588252</v>
+        <v>12.61080479051933</v>
       </c>
       <c r="N15" t="n">
-        <v>253.3782775465732</v>
+        <v>251.721700853643</v>
       </c>
       <c r="O15" t="n">
-        <v>15.91786033192191</v>
+        <v>15.86573984576966</v>
       </c>
       <c r="P15" t="n">
-        <v>331.5734223322351</v>
+        <v>331.5269330551234</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -32033,28 +32520,28 @@
         <v>0.0319</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2753846997740019</v>
+        <v>0.2767499979230681</v>
       </c>
       <c r="J16" t="n">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="K16" t="n">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01528251959369498</v>
+        <v>0.01592720470136799</v>
       </c>
       <c r="M16" t="n">
-        <v>12.78304032579637</v>
+        <v>12.71935814534694</v>
       </c>
       <c r="N16" t="n">
-        <v>263.7681499531136</v>
+        <v>261.1806246901094</v>
       </c>
       <c r="O16" t="n">
-        <v>16.2409405501379</v>
+        <v>16.16108364838538</v>
       </c>
       <c r="P16" t="n">
-        <v>329.0529617774852</v>
+        <v>329.040454144607</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -32110,28 +32597,28 @@
         <v>0.0313</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4571409960001363</v>
+        <v>0.4438969564965772</v>
       </c>
       <c r="J17" t="n">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="K17" t="n">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="L17" t="n">
-        <v>0.03845078487269449</v>
+        <v>0.03750601845470258</v>
       </c>
       <c r="M17" t="n">
-        <v>13.24614060173043</v>
+        <v>13.16866984320411</v>
       </c>
       <c r="N17" t="n">
-        <v>282.4521571441113</v>
+        <v>279.5412038927593</v>
       </c>
       <c r="O17" t="n">
-        <v>16.80631301458209</v>
+        <v>16.71948575443513</v>
       </c>
       <c r="P17" t="n">
-        <v>322.7890890263962</v>
+        <v>322.913068284308</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -32187,28 +32674,28 @@
         <v>0.0293</v>
       </c>
       <c r="I18" t="n">
-        <v>0.607469127311692</v>
+        <v>0.5816557422832118</v>
       </c>
       <c r="J18" t="n">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="K18" t="n">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L18" t="n">
-        <v>0.06155007955508318</v>
+        <v>0.05831309977525234</v>
       </c>
       <c r="M18" t="n">
-        <v>14.08314741549901</v>
+        <v>14.06141073489954</v>
       </c>
       <c r="N18" t="n">
-        <v>304.5862896748169</v>
+        <v>302.7702827555143</v>
       </c>
       <c r="O18" t="n">
-        <v>17.45240068514406</v>
+        <v>17.40029547897145</v>
       </c>
       <c r="P18" t="n">
-        <v>318.7506838652463</v>
+        <v>318.9904892121318</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -32264,28 +32751,28 @@
         <v>0.0312</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6149988186466099</v>
+        <v>0.597640732721747</v>
       </c>
       <c r="J19" t="n">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="K19" t="n">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0656187044433677</v>
+        <v>0.06403991557910849</v>
       </c>
       <c r="M19" t="n">
-        <v>13.84560357405855</v>
+        <v>13.79826326057456</v>
       </c>
       <c r="N19" t="n">
-        <v>293.008636038501</v>
+        <v>290.6134778538546</v>
       </c>
       <c r="O19" t="n">
-        <v>17.11749502814302</v>
+        <v>17.04738917998456</v>
       </c>
       <c r="P19" t="n">
-        <v>316.7049517059858</v>
+        <v>316.8660737519304</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -32341,28 +32828,28 @@
         <v>0.0333</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7096380673638076</v>
+        <v>0.6917782911086759</v>
       </c>
       <c r="J20" t="n">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="K20" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="L20" t="n">
-        <v>0.08377697728338074</v>
+        <v>0.08219940292606776</v>
       </c>
       <c r="M20" t="n">
-        <v>13.83565924585737</v>
+        <v>13.78834475485343</v>
       </c>
       <c r="N20" t="n">
-        <v>296.0438754501947</v>
+        <v>293.905600628865</v>
       </c>
       <c r="O20" t="n">
-        <v>17.20592559120824</v>
+        <v>17.14367523691653</v>
       </c>
       <c r="P20" t="n">
-        <v>316.5164591642673</v>
+        <v>316.6838492109115</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -32418,28 +32905,28 @@
         <v>0.0342</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6419137059151619</v>
+        <v>0.6235676615740945</v>
       </c>
       <c r="J21" t="n">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="K21" t="n">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="L21" t="n">
-        <v>0.07426582839786078</v>
+        <v>0.07234037469928212</v>
       </c>
       <c r="M21" t="n">
-        <v>13.62579932714898</v>
+        <v>13.57632294869914</v>
       </c>
       <c r="N21" t="n">
-        <v>281.0263327901649</v>
+        <v>278.9245671146509</v>
       </c>
       <c r="O21" t="n">
-        <v>16.76384003712052</v>
+        <v>16.7010349114853</v>
       </c>
       <c r="P21" t="n">
-        <v>323.6999606817895</v>
+        <v>323.8730830455154</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -32495,28 +32982,28 @@
         <v>0.0368</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7246308421794494</v>
+        <v>0.6903843213022616</v>
       </c>
       <c r="J22" t="n">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="K22" t="n">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="L22" t="n">
-        <v>0.09578001324387897</v>
+        <v>0.08969260517457167</v>
       </c>
       <c r="M22" t="n">
-        <v>13.36854785809361</v>
+        <v>13.35732118435598</v>
       </c>
       <c r="N22" t="n">
-        <v>273.1497784661756</v>
+        <v>272.3003337682456</v>
       </c>
       <c r="O22" t="n">
-        <v>16.52724352292831</v>
+        <v>16.50152519521288</v>
       </c>
       <c r="P22" t="n">
-        <v>331.7861527475407</v>
+        <v>332.1096676452578</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -32572,28 +33059,28 @@
         <v>0.0331</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5806197568905754</v>
+        <v>0.5440437493155744</v>
       </c>
       <c r="J23" t="n">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="K23" t="n">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="L23" t="n">
-        <v>0.06046031143962916</v>
+        <v>0.05457601906372722</v>
       </c>
       <c r="M23" t="n">
-        <v>13.50418788599941</v>
+        <v>13.53866627129842</v>
       </c>
       <c r="N23" t="n">
-        <v>286.3228144179993</v>
+        <v>286.6289708056988</v>
       </c>
       <c r="O23" t="n">
-        <v>16.9210760419661</v>
+        <v>16.93012022419507</v>
       </c>
       <c r="P23" t="n">
-        <v>340.599508293259</v>
+        <v>340.9456406539809</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -32649,28 +33136,28 @@
         <v>0.0269</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7235629399971012</v>
+        <v>0.6670695945388647</v>
       </c>
       <c r="J24" t="n">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="K24" t="n">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="L24" t="n">
-        <v>0.06840802355987086</v>
+        <v>0.05980791981327072</v>
       </c>
       <c r="M24" t="n">
-        <v>15.94412506585874</v>
+        <v>15.99168706256909</v>
       </c>
       <c r="N24" t="n">
-        <v>380.840272804639</v>
+        <v>383.210114994769</v>
       </c>
       <c r="O24" t="n">
-        <v>19.51512933097393</v>
+        <v>19.57575324207906</v>
       </c>
       <c r="P24" t="n">
-        <v>346.3351911538397</v>
+        <v>346.8581594707791</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -32726,28 +33213,28 @@
         <v>0.0311</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7418946253588885</v>
+        <v>0.6906253130313076</v>
       </c>
       <c r="J25" t="n">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="K25" t="n">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="L25" t="n">
-        <v>0.08438828907919227</v>
+        <v>0.07525656021279337</v>
       </c>
       <c r="M25" t="n">
-        <v>14.78086416496536</v>
+        <v>14.77903588903091</v>
       </c>
       <c r="N25" t="n">
-        <v>325.9000567632148</v>
+        <v>327.2106076681351</v>
       </c>
       <c r="O25" t="n">
-        <v>18.0527022011447</v>
+        <v>18.08896369801585</v>
       </c>
       <c r="P25" t="n">
-        <v>345.0499157242601</v>
+        <v>345.5263678958542</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -32803,28 +33290,28 @@
         <v>0.0419</v>
       </c>
       <c r="I26" t="n">
-        <v>0.6325806982904816</v>
+        <v>0.5915463197638797</v>
       </c>
       <c r="J26" t="n">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="K26" t="n">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L26" t="n">
-        <v>0.06448817202764445</v>
+        <v>0.05791460682383021</v>
       </c>
       <c r="M26" t="n">
-        <v>14.58071984733618</v>
+        <v>14.53644253862045</v>
       </c>
       <c r="N26" t="n">
-        <v>315.0530998375737</v>
+        <v>314.6102097916282</v>
       </c>
       <c r="O26" t="n">
-        <v>17.7497352047171</v>
+        <v>17.73725485501148</v>
       </c>
       <c r="P26" t="n">
-        <v>343.0655316089797</v>
+        <v>343.4473604970447</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -32861,7 +33348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA334"/>
+  <dimension ref="A1:AA339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74142,13 +74629,21 @@
           <t>-37.7113983078179,178.5316957466187</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr"/>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>-37.712088647406425,178.53136037099787</t>
+        </is>
+      </c>
       <c r="I334" t="inlineStr">
         <is>
           <t>-37.71265643060377,178.5308347208645</t>
         </is>
       </c>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>-37.713241796206766,178.53039435325402</t>
+        </is>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>-37.71380840024376,178.52988443126844</t>
@@ -74232,6 +74727,687 @@
       <c r="AA334" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-07 21:53:45+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>-37.7087520847888,178.53471243582595</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>-37.70923500351711,178.53403203285973</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>-37.70978716462099,178.5334668041206</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>-37.710283740776426,178.53280913060942</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>-37.71080095702253,178.53218579352924</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>-37.71136043480657,178.531632754473</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>-37.71196248206292,178.531150525799</t>
+        </is>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>-37.71256343403193,178.5306720859925</t>
+        </is>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>-37.713140012342215,178.53017896679404</t>
+        </is>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>-37.71373469934241,178.529703417669</t>
+        </is>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>-37.714296158558724,178.5291208108701</t>
+        </is>
+      </c>
+      <c r="M335" t="inlineStr">
+        <is>
+          <t>-37.714882602805226,178.528599581017</t>
+        </is>
+      </c>
+      <c r="N335" t="inlineStr">
+        <is>
+          <t>-37.715513489871945,178.52818751734347</t>
+        </is>
+      </c>
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>-37.716157822026354,178.52780814696715</t>
+        </is>
+      </c>
+      <c r="P335" t="inlineStr">
+        <is>
+          <t>-37.71676226624876,178.52732096135747</t>
+        </is>
+      </c>
+      <c r="Q335" t="inlineStr">
+        <is>
+          <t>-37.71738556552407,178.52688069257044</t>
+        </is>
+      </c>
+      <c r="R335" t="inlineStr">
+        <is>
+          <t>-37.718029213061264,178.5265010807592</t>
+        </is>
+      </c>
+      <c r="S335" t="inlineStr">
+        <is>
+          <t>-37.718663067724144,178.52609343531105</t>
+        </is>
+      </c>
+      <c r="T335" t="inlineStr">
+        <is>
+          <t>-37.71931746619515,178.52574781623454</t>
+        </is>
+      </c>
+      <c r="U335" t="inlineStr">
+        <is>
+          <t>-37.71996801389647,178.52539051887265</t>
+        </is>
+      </c>
+      <c r="V335" t="inlineStr">
+        <is>
+          <t>-37.72061121845321,178.52501027059878</t>
+        </is>
+      </c>
+      <c r="W335" t="inlineStr">
+        <is>
+          <t>-37.721274192211325,178.52468119427186</t>
+        </is>
+      </c>
+      <c r="X335" t="inlineStr">
+        <is>
+          <t>-37.72190605509709,178.52430718548948</t>
+        </is>
+      </c>
+      <c r="Y335" t="inlineStr">
+        <is>
+          <t>-37.72255608353528,178.52397712299336</t>
+        </is>
+      </c>
+      <c r="Z335" t="inlineStr"/>
+      <c r="AA335" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-23 21:53:43+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>-37.70863529239158,178.53451818100186</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>-37.70920622942518,178.53398417442457</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>-37.7097048937981,178.53332996751217</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>-37.71023845629993,178.5327338115022</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>-37.71078777835355,178.53216387420622</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>-37.71133743981358,178.53159450819845</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>-37.7119068925242,178.53105806664365</t>
+        </is>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>-37.71249177014433,178.53054675886278</t>
+        </is>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>-37.7130894724916,178.53007201916654</t>
+        </is>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>-37.71367095888158,178.529546868358</t>
+        </is>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>-37.71425299506369,178.52901479963054</t>
+        </is>
+      </c>
+      <c r="M336" t="inlineStr">
+        <is>
+          <t>-37.71484833411828,178.52851541577007</t>
+        </is>
+      </c>
+      <c r="N336" t="inlineStr">
+        <is>
+          <t>-37.71547844219156,178.52810143857306</t>
+        </is>
+      </c>
+      <c r="O336" t="inlineStr">
+        <is>
+          <t>-37.7160916547519,178.52763756162577</t>
+        </is>
+      </c>
+      <c r="P336" t="inlineStr">
+        <is>
+          <t>-37.716720555343485,178.5272047749398</t>
+        </is>
+      </c>
+      <c r="Q336" t="inlineStr">
+        <is>
+          <t>-37.71734568094274,178.52676645305192</t>
+        </is>
+      </c>
+      <c r="R336" t="inlineStr">
+        <is>
+          <t>-37.71797855251015,178.52635597571432</t>
+        </is>
+      </c>
+      <c r="S336" t="inlineStr">
+        <is>
+          <t>-37.718617758653714,178.52596365794543</t>
+        </is>
+      </c>
+      <c r="T336" t="inlineStr">
+        <is>
+          <t>-37.71925519934337,178.5255760305334</t>
+        </is>
+      </c>
+      <c r="U336" t="inlineStr">
+        <is>
+          <t>-37.71990508445515,178.52522499085978</t>
+        </is>
+      </c>
+      <c r="V336" t="inlineStr">
+        <is>
+          <t>-37.72056547342492,178.52489126153546</t>
+        </is>
+      </c>
+      <c r="W336" t="inlineStr">
+        <is>
+          <t>-37.72121065785098,178.5245159041212</t>
+        </is>
+      </c>
+      <c r="X336" t="inlineStr">
+        <is>
+          <t>-37.72186746668686,178.52417786439327</t>
+        </is>
+      </c>
+      <c r="Y336" t="inlineStr">
+        <is>
+          <t>-37.7225395383123,178.52389930559397</t>
+        </is>
+      </c>
+      <c r="Z336" t="inlineStr">
+        <is>
+          <t>-37.72320048252332,178.5235474798177</t>
+        </is>
+      </c>
+      <c r="AA336" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-31 21:53:47+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>-37.70859072137092,178.53444404862154</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>-37.70911615722981,178.53383436255103</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>-37.709641766950824,178.53322497245094</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>-37.71016448249615,178.53261077545278</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>-37.71071082134024,178.53203587633567</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>-37.711271274895005,178.53148446008453</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>-37.71181328497434,178.53090237475172</t>
+        </is>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>-37.712400470654224,178.53038709335783</t>
+        </is>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>-37.71297754930625,178.52983517927646</t>
+        </is>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>-37.71358700967845,178.52934068675404</t>
+        </is>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>-37.71419113950041,178.5288628805902</t>
+        </is>
+      </c>
+      <c r="M337" t="inlineStr">
+        <is>
+          <t>-37.71479820169662,178.5283922889903</t>
+        </is>
+      </c>
+      <c r="N337" t="inlineStr">
+        <is>
+          <t>-37.7153971149079,178.52790169584694</t>
+        </is>
+      </c>
+      <c r="O337" t="inlineStr">
+        <is>
+          <t>-37.71601389405478,178.5274370886288</t>
+        </is>
+      </c>
+      <c r="P337" t="inlineStr">
+        <is>
+          <t>-37.71664979085851,178.52700766036833</t>
+        </is>
+      </c>
+      <c r="Q337" t="inlineStr">
+        <is>
+          <t>-37.71728684825218,178.52659794219883</t>
+        </is>
+      </c>
+      <c r="R337" t="inlineStr">
+        <is>
+          <t>-37.71793429216852,178.5262292031465</t>
+        </is>
+      </c>
+      <c r="S337" t="inlineStr">
+        <is>
+          <t>-37.71854435256538,178.52575340441985</t>
+        </is>
+      </c>
+      <c r="T337" t="inlineStr">
+        <is>
+          <t>-37.719220987900414,178.52548164629133</t>
+        </is>
+      </c>
+      <c r="U337" t="inlineStr">
+        <is>
+          <t>-37.719846538894096,178.52507099493275</t>
+        </is>
+      </c>
+      <c r="V337" t="inlineStr">
+        <is>
+          <t>-37.7205001047798,178.5247212010203</t>
+        </is>
+      </c>
+      <c r="W337" t="inlineStr">
+        <is>
+          <t>-37.721162312063534,178.5243901289818</t>
+        </is>
+      </c>
+      <c r="X337" t="inlineStr">
+        <is>
+          <t>-37.721809441565064,178.523983406361</t>
+        </is>
+      </c>
+      <c r="Y337" t="inlineStr">
+        <is>
+          <t>-37.72249703635946,178.52369940681692</t>
+        </is>
+      </c>
+      <c r="Z337" t="inlineStr">
+        <is>
+          <t>-37.72316999700571,178.52340035575742</t>
+        </is>
+      </c>
+      <c r="AA337" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-09 21:53:42+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>-37.70872334963243,178.5346646419967</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>-37.70931684763381,178.53416816028138</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>-37.70981156924629,178.53350739512922</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>-37.71025933597568,178.53276853946264</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>-37.7108370582356,178.53224583868212</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>-37.71134756339719,178.5316113461781</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>-37.711925368146076,178.53108879614305</t>
+        </is>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>-37.71246938717949,178.53050761522377</t>
+        </is>
+      </c>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>-37.713057662959905,178.53000470704887</t>
+        </is>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>-37.71357717185502,178.5293165248758</t>
+        </is>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>-37.71417489332684,178.5288229796488</t>
+        </is>
+      </c>
+      <c r="M338" t="inlineStr">
+        <is>
+          <t>-37.71480004630992,178.5283968194087</t>
+        </is>
+      </c>
+      <c r="N338" t="inlineStr">
+        <is>
+          <t>-37.71541025956486,178.52793397950586</t>
+        </is>
+      </c>
+      <c r="O338" t="inlineStr">
+        <is>
+          <t>-37.71605978027233,178.52755538662643</t>
+        </is>
+      </c>
+      <c r="P338" t="inlineStr">
+        <is>
+          <t>-37.71669071241525,178.52712164725688</t>
+        </is>
+      </c>
+      <c r="Q338" t="inlineStr">
+        <is>
+          <t>-37.717297756607444,178.52662918625379</t>
+        </is>
+      </c>
+      <c r="R338" t="inlineStr">
+        <is>
+          <t>-37.717908039640506,178.5261540096788</t>
+        </is>
+      </c>
+      <c r="S338" t="inlineStr">
+        <is>
+          <t>-37.71858209226565,178.52586150023265</t>
+        </is>
+      </c>
+      <c r="T338" t="inlineStr">
+        <is>
+          <t>-37.719213290003424,178.5254604089901</t>
+        </is>
+      </c>
+      <c r="U338" t="inlineStr">
+        <is>
+          <t>-37.719854324289635,178.52509147328254</t>
+        </is>
+      </c>
+      <c r="V338" t="inlineStr">
+        <is>
+          <t>-37.720493511417814,178.52470404804166</t>
+        </is>
+      </c>
+      <c r="W338" t="inlineStr">
+        <is>
+          <t>-37.721110782206985,178.52425607084228</t>
+        </is>
+      </c>
+      <c r="X338" t="inlineStr">
+        <is>
+          <t>-37.72175116326145,178.52378810128965</t>
+        </is>
+      </c>
+      <c r="Y338" t="inlineStr">
+        <is>
+          <t>-37.72246396096273,178.5235438451157</t>
+        </is>
+      </c>
+      <c r="Z338" t="inlineStr">
+        <is>
+          <t>-37.72315651227927,178.52333527837732</t>
+        </is>
+      </c>
+      <c r="AA338" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-25 21:53:31+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>-37.70874012278521,178.53469253998108</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>-37.70935271054649,178.53422780954395</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>-37.70981200310614,178.53350811674738</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>-37.710322625725475,178.53287380589043</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>-37.71077958913709,178.53215025356073</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>-37.7113201935594,178.5315658235077</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>-37.71192755557231,178.53109243437245</t>
+        </is>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>-37.71252279826396,178.53060102134947</t>
+        </is>
+      </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>-37.713112858672424,178.53012150673337</t>
+        </is>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>-37.71363623970397,178.5294615969095</t>
+        </is>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>-37.714159125369456,178.52878425326708</t>
+        </is>
+      </c>
+      <c r="M339" t="inlineStr">
+        <is>
+          <t>-37.714790413327215,178.52837316055925</t>
+        </is>
+      </c>
+      <c r="N339" t="inlineStr">
+        <is>
+          <t>-37.71539695094122,178.52790129314025</t>
+        </is>
+      </c>
+      <c r="O339" t="inlineStr">
+        <is>
+          <t>-37.716050369073685,178.52753112383502</t>
+        </is>
+      </c>
+      <c r="P339" t="inlineStr">
+        <is>
+          <t>-37.71673176955663,178.52723601227015</t>
+        </is>
+      </c>
+      <c r="Q339" t="inlineStr">
+        <is>
+          <t>-37.71733551993758,178.52673734943912</t>
+        </is>
+      </c>
+      <c r="R339" t="inlineStr">
+        <is>
+          <t>-37.71792724087483,178.52620900654918</t>
+        </is>
+      </c>
+      <c r="S339" t="inlineStr">
+        <is>
+          <t>-37.718573823531905,178.52583781650398</t>
+        </is>
+      </c>
+      <c r="T339" t="inlineStr">
+        <is>
+          <t>-37.71918964910127,178.5253951875137</t>
+        </is>
+      </c>
+      <c r="U339" t="inlineStr">
+        <is>
+          <t>-37.71985751862854,178.5250998755302</t>
+        </is>
+      </c>
+      <c r="V339" t="inlineStr">
+        <is>
+          <t>-37.72050389638111,178.52473106507546</t>
+        </is>
+      </c>
+      <c r="W339" t="inlineStr">
+        <is>
+          <t>-37.72114630115878,178.52434847554798</t>
+        </is>
+      </c>
+      <c r="X339" t="inlineStr">
+        <is>
+          <t>-37.72180726087563,178.52397609830297</t>
+        </is>
+      </c>
+      <c r="Y339" t="inlineStr">
+        <is>
+          <t>-37.722504333057046,178.52373372512815</t>
+        </is>
+      </c>
+      <c r="Z339" t="inlineStr">
+        <is>
+          <t>-37.72319844087147,178.52353762670964</t>
+        </is>
+      </c>
+      <c r="AA339" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0218/nzd0218.xlsx
+++ b/data/nzd0218/nzd0218.xlsx
@@ -31287,7 +31287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31378,35 +31378,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -31465,27 +31470,28 @@
       <c r="P2" t="n">
         <v>351.4575245928714</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (178.53131471823562 -37.70670915984228, 178.53958427534508 -37.7116809565072)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>178.5313147182356</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-37.70670915984228</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>178.5395842753451</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-37.7116809565072</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>178.5354494967904</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-37.70919505817474</v>
       </c>
     </row>
@@ -31542,27 +31548,28 @@
       <c r="P3" t="n">
         <v>347.0909451974282</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (178.53074479401536 -37.7072585026156, 178.53901437373634 -37.71223031117482)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>178.5307447940154</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-37.7072585026156</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>178.5390143737363</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-37.71223031117482</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>178.5348795838759</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-37.70974440689521</v>
       </c>
     </row>
@@ -31619,27 +31626,28 @@
       <c r="P4" t="n">
         <v>346.0635677701191</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (178.53017486979522 -37.70780784131671, 178.53844447212717 -37.71277966177045)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>178.5301748697952</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-37.70780784131671</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>178.5384444721272</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-37.71277966177045</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>178.5343096709612</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-37.71029375154357</v>
       </c>
     </row>
@@ -31696,27 +31704,28 @@
       <c r="P5" t="n">
         <v>342.1298048833693</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (178.5296049455753 -37.70835717594559, 178.53787457051757 -37.71332900829406)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>178.5296049455753</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-37.70835717594559</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>178.5378745705176</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-37.71332900829406</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>178.5337397580464</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-37.71084309211982</v>
       </c>
     </row>
@@ -31773,27 +31782,28 @@
       <c r="P6" t="n">
         <v>344.1692512473934</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (178.5290350213556 -37.70890650650218, 178.5373046689075 -37.713878350745695)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>178.5290350213556</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-37.70890650650218</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>178.5373046689075</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-37.71387835074569</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>178.5331698451316</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-37.71139242862394</v>
       </c>
     </row>
@@ -31850,27 +31860,28 @@
       <c r="P7" t="n">
         <v>345.8614908280106</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (178.52846509713615 -37.70945583298649, 178.53673476729696 -37.7144276891253)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>178.5284650971361</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-37.70945583298649</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>178.536734767297</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-37.7144276891253</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>178.5325999322166</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-37.7119417610559</v>
       </c>
     </row>
@@ -31927,27 +31938,28 @@
       <c r="P8" t="n">
         <v>343.3788901737959</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (178.5278951729169 -37.71000515539847, 178.53616486568592 -37.714977023432844)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>178.5278951729169</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-37.71000515539847</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>178.5361648656859</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-37.71497702343284</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>178.5320300193014</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-37.71249108941566</v>
       </c>
     </row>
@@ -32004,27 +32016,28 @@
       <c r="P9" t="n">
         <v>350.3719526878854</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (178.52726697474344 -37.710616239266045, 178.53568457899596 -37.715429415017134)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>178.5272669747434</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-37.71061623926605</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>178.535684578996</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-37.71542941501713</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>178.5314757768697</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-37.71302282714159</v>
       </c>
     </row>
@@ -32081,27 +32094,28 @@
       <c r="P10" t="n">
         <v>351.2851595344657</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (178.5265366353249 -37.711418670735185, 178.53545127121728 -37.71563130954205)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>178.5265366353249</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-37.71141867073518</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>178.5354512712173</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-37.71563130954205</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>178.5309939532711</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-37.71352499013862</v>
       </c>
     </row>
@@ -32158,27 +32172,28 @@
       <c r="P11" t="n">
         <v>346.6903069530152</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (178.52597056510967 -37.712214744229634, 178.5352022047554 -37.715973368950316)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>178.5259705651097</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-37.71221474422963</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>178.5352022047554</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-37.71597336895032</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>178.5305863849325</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-37.71409405658997</v>
       </c>
     </row>
@@ -32235,27 +32250,28 @@
       <c r="P12" t="n">
         <v>340.9699780508111</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (178.52552971477817 -37.71283392433475, 178.53476139670758 -37.71659255731665)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>178.5255297147782</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-37.71283392433475</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>178.5347613967076</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-37.71659255731665</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>178.5301455557429</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-37.7147132408257</v>
       </c>
     </row>
@@ -32312,27 +32328,28 @@
       <c r="P13" t="n">
         <v>335.1599341392777</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (178.52508886444667 -37.713453099265436, 178.53432058865994 -37.71721174050904)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>178.5250888644467</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-37.71345309926544</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>178.5343205886599</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-37.71721174050904</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>178.5297047265533</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-37.71533241988724</v>
       </c>
     </row>
@@ -32389,27 +32406,28 @@
       <c r="P14" t="n">
         <v>334.1549616681922</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (178.52464801411506 -37.71407226902172, 178.53387978061235 -37.71783091852736)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>178.5246480141151</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-37.71407226902172</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>178.5338797806124</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-37.71783091852736</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>178.5292638973637</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-37.71595159377454</v>
       </c>
     </row>
@@ -32466,27 +32484,28 @@
       <c r="P15" t="n">
         <v>331.5269330551234</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (178.52417145999962 -37.714747127704584, 178.53349354617387 -37.71836287730853)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>178.5241714599996</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-37.71474712770458</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>178.5334935461739</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-37.71836287730853</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>178.5288325030867</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-37.71655500250655</v>
       </c>
     </row>
@@ -32543,27 +32562,28 @@
       <c r="P16" t="n">
         <v>329.040454144607</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (178.52370937575992 -37.715465628789254, 178.5331632165884 -37.71885941761953)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>178.5237093757599</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-37.71546562878925</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>178.5331632165884</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-37.71885941761953</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>178.5284362961742</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-37.71716252320439</v>
       </c>
     </row>
@@ -32620,27 +32640,28 @@
       <c r="P17" t="n">
         <v>322.913068284308</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (178.5232985481385 -37.71613485083153, 178.53279631359618 -37.71945067444369)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>178.5232985481385</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-37.71613485083153</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>178.5327963135962</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-37.71945067444369</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>178.5280474308673</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-37.71779276263761</v>
       </c>
     </row>
@@ -32697,27 +32718,28 @@
       <c r="P18" t="n">
         <v>318.9904892121318</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (178.52290509753303 -37.71677367058161, 178.53240291093596 -37.720089501004814)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>178.522905097533</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-37.71677367058161</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>178.532402910936</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-37.72008950100481</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>178.5276540042345</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-37.71843158579321</v>
       </c>
     </row>
@@ -32774,27 +32796,28 @@
       <c r="P19" t="n">
         <v>316.8660737519304</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (178.52251164692734 -37.71741248482318, 178.53200950827622 -37.72072832205764)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>178.5225116469273</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-37.71741248482318</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>178.5320095082762</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-37.72072832205764</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>178.5272605776018</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-37.71907040344041</v>
       </c>
     </row>
@@ -32851,27 +32874,28 @@
       <c r="P20" t="n">
         <v>316.6838492109115</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (178.5221417443915 -37.71801030209523, 178.53158019110347 -37.72143129663171)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>178.5221417443915</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-37.71801030209523</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>178.5315801911035</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-37.72143129663171</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>178.5268609677475</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-37.71972079936347</v>
       </c>
     </row>
@@ -32928,27 +32952,28 @@
       <c r="P21" t="n">
         <v>323.8730830455154</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (178.52175777268167 -37.71858685682225, 178.53111570711837 -37.722144363091495)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>178.5217577726817</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-37.71858685682225</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>178.5311157071184</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-37.72214436309149</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>178.5264367399</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-37.72036560995687</v>
       </c>
     </row>
@@ -33005,27 +33030,28 @@
       <c r="P22" t="n">
         <v>332.1096676452578</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (178.52134270060927 -37.719201383025734, 178.53068127081065 -37.72279083885028)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>178.5213427006093</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-37.71920138302573</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>178.5306812708106</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-37.72279083885028</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>178.5260119857099</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-37.720996110938</v>
       </c>
     </row>
@@ -33082,27 +33108,28 @@
       <c r="P23" t="n">
         <v>340.9456406539809</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
         <is>
           <t>LINESTRING (178.52091994916012 -37.7198283536013, 178.5302585639062 -37.72341781714208)</t>
         </is>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>178.5209199491601</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>-37.7198283536013</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>178.5302585639062</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>-37.72341781714208</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>178.5255892565332</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>-37.72162308537169</v>
       </c>
     </row>
@@ -33159,27 +33186,28 @@
       <c r="P24" t="n">
         <v>346.8581594707791</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
         <is>
           <t>LINESTRING (178.52034891271958 -37.72072485156535, 178.53006180485892 -37.72362299735511)</t>
         </is>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>178.5203489127196</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>-37.72072485156535</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>178.5300618048589</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>-37.72362299735511</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>178.5252053587893</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>-37.72217392446023</v>
       </c>
     </row>
@@ -33236,27 +33264,28 @@
       <c r="P25" t="n">
         <v>345.5263678958542</v>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
         <is>
           <t>LINESTRING (178.51995408144694 -37.72170064123839, 178.52997776052592 -37.723831732623566)</t>
         </is>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>178.5199540814469</v>
       </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
         <v>-37.72170064123839</v>
       </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
         <v>178.5299777605259</v>
       </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
         <v>-37.72383173262357</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>178.5249659209864</v>
       </c>
-      <c r="W25" t="n">
+      <c r="X25" t="n">
         <v>-37.72276618693098</v>
       </c>
     </row>
@@ -33313,27 +33342,28 @@
       <c r="P26" t="n">
         <v>343.4473604970447</v>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
         <is>
           <t>LINESTRING (178.51968678491286 -37.72240043828485, 178.52972744093393 -37.72448083562979)</t>
         </is>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>178.5196867849129</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>-37.72240043828485</v>
       </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
         <v>178.5297274409339</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>-37.72448083562979</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>178.5247071129234</v>
       </c>
-      <c r="W26" t="n">
+      <c r="X26" t="n">
         <v>-37.72344063695732</v>
       </c>
     </row>

--- a/data/nzd0218/nzd0218.xlsx
+++ b/data/nzd0218/nzd0218.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA339"/>
+  <dimension ref="A1:AA343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27785,6 +27785,352 @@
         </is>
       </c>
     </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:53:44+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>336.2028571428572</v>
+      </c>
+      <c r="C340" t="n">
+        <v>329.8828571428572</v>
+      </c>
+      <c r="D340" t="n">
+        <v>335.37</v>
+      </c>
+      <c r="E340" t="n">
+        <v>330.24</v>
+      </c>
+      <c r="F340" t="n">
+        <v>315.3</v>
+      </c>
+      <c r="G340" t="n">
+        <v>315.43</v>
+      </c>
+      <c r="H340" t="n">
+        <v>307.59</v>
+      </c>
+      <c r="I340" t="n">
+        <v>316.29</v>
+      </c>
+      <c r="J340" t="n">
+        <v>314.37</v>
+      </c>
+      <c r="K340" t="n">
+        <v>321.37</v>
+      </c>
+      <c r="L340" t="n">
+        <v>313.83</v>
+      </c>
+      <c r="M340" t="n">
+        <v>309.56</v>
+      </c>
+      <c r="N340" t="n">
+        <v>310.78</v>
+      </c>
+      <c r="O340" t="n">
+        <v>313.85</v>
+      </c>
+      <c r="P340" t="n">
+        <v>310.83</v>
+      </c>
+      <c r="Q340" t="n">
+        <v>308.24</v>
+      </c>
+      <c r="R340" t="n">
+        <v>306.4</v>
+      </c>
+      <c r="S340" t="n">
+        <v>303.87</v>
+      </c>
+      <c r="T340" t="n">
+        <v>312.43</v>
+      </c>
+      <c r="U340" t="n">
+        <v>315.48</v>
+      </c>
+      <c r="V340" t="n">
+        <v>323.8128571428572</v>
+      </c>
+      <c r="W340" t="n">
+        <v>312.31</v>
+      </c>
+      <c r="X340" t="inlineStr"/>
+      <c r="Y340" t="n">
+        <v>330.48</v>
+      </c>
+      <c r="Z340" t="n">
+        <v>330.2928571428571</v>
+      </c>
+      <c r="AA340" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-21 21:53:32+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>358.2271428571428</v>
+      </c>
+      <c r="C341" t="n">
+        <v>354.2771428571428</v>
+      </c>
+      <c r="D341" t="n">
+        <v>354.52</v>
+      </c>
+      <c r="E341" t="n">
+        <v>342.4</v>
+      </c>
+      <c r="F341" t="n">
+        <v>343.04</v>
+      </c>
+      <c r="G341" t="n">
+        <v>345.36</v>
+      </c>
+      <c r="H341" t="n">
+        <v>343.44</v>
+      </c>
+      <c r="I341" t="n">
+        <v>344.54</v>
+      </c>
+      <c r="J341" t="n">
+        <v>341.08</v>
+      </c>
+      <c r="K341" t="n">
+        <v>331.55</v>
+      </c>
+      <c r="L341" t="n">
+        <v>331.81</v>
+      </c>
+      <c r="M341" t="n">
+        <v>328.42</v>
+      </c>
+      <c r="N341" t="n">
+        <v>331.98</v>
+      </c>
+      <c r="O341" t="n">
+        <v>328.44</v>
+      </c>
+      <c r="P341" t="n">
+        <v>317.48</v>
+      </c>
+      <c r="Q341" t="n">
+        <v>317.93</v>
+      </c>
+      <c r="R341" t="n">
+        <v>313.37</v>
+      </c>
+      <c r="S341" t="n">
+        <v>317.02</v>
+      </c>
+      <c r="T341" t="n">
+        <v>314.29</v>
+      </c>
+      <c r="U341" t="n">
+        <v>315.35</v>
+      </c>
+      <c r="V341" t="n">
+        <v>328.3471428571428</v>
+      </c>
+      <c r="W341" t="n">
+        <v>333.61</v>
+      </c>
+      <c r="X341" t="n">
+        <v>344.89</v>
+      </c>
+      <c r="Y341" t="n">
+        <v>341.49</v>
+      </c>
+      <c r="Z341" t="n">
+        <v>340.2271428571428</v>
+      </c>
+      <c r="AA341" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-29 21:53:19+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>364.0871428571429</v>
+      </c>
+      <c r="C342" t="n">
+        <v>360.5371428571429</v>
+      </c>
+      <c r="D342" t="n">
+        <v>362.9500000000001</v>
+      </c>
+      <c r="E342" t="n">
+        <v>353.16</v>
+      </c>
+      <c r="F342" t="n">
+        <v>347.6433333333333</v>
+      </c>
+      <c r="G342" t="n">
+        <v>353.5333333333333</v>
+      </c>
+      <c r="H342" t="n">
+        <v>364.9833333333333</v>
+      </c>
+      <c r="I342" t="n">
+        <v>359.7533333333333</v>
+      </c>
+      <c r="J342" t="n">
+        <v>350.2333333333333</v>
+      </c>
+      <c r="K342" t="n">
+        <v>336.87</v>
+      </c>
+      <c r="L342" t="n">
+        <v>335.5133333333333</v>
+      </c>
+      <c r="M342" t="n">
+        <v>337.84</v>
+      </c>
+      <c r="N342" t="n">
+        <v>338.0233333333333</v>
+      </c>
+      <c r="O342" t="n">
+        <v>335.1833333333333</v>
+      </c>
+      <c r="P342" t="n">
+        <v>318.5233333333333</v>
+      </c>
+      <c r="Q342" t="n">
+        <v>319.5033333333333</v>
+      </c>
+      <c r="R342" t="n">
+        <v>317.15</v>
+      </c>
+      <c r="S342" t="n">
+        <v>324.4933333333333</v>
+      </c>
+      <c r="T342" t="n">
+        <v>326.7733333333333</v>
+      </c>
+      <c r="U342" t="n">
+        <v>322.9233333333333</v>
+      </c>
+      <c r="V342" t="n">
+        <v>333.1271428571428</v>
+      </c>
+      <c r="W342" t="n">
+        <v>336.5533333333333</v>
+      </c>
+      <c r="X342" t="n">
+        <v>344.21</v>
+      </c>
+      <c r="Y342" t="n">
+        <v>349.0333333333333</v>
+      </c>
+      <c r="Z342" t="n">
+        <v>359.0671428571428</v>
+      </c>
+      <c r="AA342" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-06 21:53:31+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>363.6414285714285</v>
+      </c>
+      <c r="C343" t="n">
+        <v>355.5014285714286</v>
+      </c>
+      <c r="D343" t="n">
+        <v>350.13</v>
+      </c>
+      <c r="E343" t="n">
+        <v>349.84</v>
+      </c>
+      <c r="F343" t="n">
+        <v>349.37</v>
+      </c>
+      <c r="G343" t="n">
+        <v>346.15</v>
+      </c>
+      <c r="H343" t="n">
+        <v>353.46</v>
+      </c>
+      <c r="I343" t="n">
+        <v>360.78</v>
+      </c>
+      <c r="J343" t="n">
+        <v>347.84</v>
+      </c>
+      <c r="K343" t="n">
+        <v>332.37</v>
+      </c>
+      <c r="L343" t="n">
+        <v>323</v>
+      </c>
+      <c r="M343" t="n">
+        <v>331.69</v>
+      </c>
+      <c r="N343" t="n">
+        <v>333.02</v>
+      </c>
+      <c r="O343" t="n">
+        <v>328.99</v>
+      </c>
+      <c r="P343" t="n">
+        <v>322.62</v>
+      </c>
+      <c r="Q343" t="n">
+        <v>314.59</v>
+      </c>
+      <c r="R343" t="n">
+        <v>310.35</v>
+      </c>
+      <c r="S343" t="n">
+        <v>315.38</v>
+      </c>
+      <c r="T343" t="n">
+        <v>318.01</v>
+      </c>
+      <c r="U343" t="n">
+        <v>316.9</v>
+      </c>
+      <c r="V343" t="n">
+        <v>325.1614285714285</v>
+      </c>
+      <c r="W343" t="n">
+        <v>327.59</v>
+      </c>
+      <c r="X343" t="n">
+        <v>353.79</v>
+      </c>
+      <c r="Y343" t="n">
+        <v>363.53</v>
+      </c>
+      <c r="Z343" t="n">
+        <v>354.1014285714285</v>
+      </c>
+      <c r="AA343" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27796,7 +28142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B347"/>
+  <dimension ref="A1:B351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31274,6 +31620,46 @@
       </c>
       <c r="B347" t="n">
         <v>-0.55</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2025-03-21 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>2025-03-29 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>2025-04-06 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>-0.33</v>
       </c>
     </row>
   </sheetData>
@@ -31447,28 +31833,28 @@
         <v>0.0405</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1641092797033587</v>
+        <v>-0.1423983240379057</v>
       </c>
       <c r="J2" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K2" t="n">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00537736666660138</v>
+        <v>0.004140716241635145</v>
       </c>
       <c r="M2" t="n">
-        <v>13.34928050358163</v>
+        <v>13.35766894169339</v>
       </c>
       <c r="N2" t="n">
-        <v>274.992329558592</v>
+        <v>273.9709209343809</v>
       </c>
       <c r="O2" t="n">
-        <v>16.58289267765404</v>
+        <v>16.55206696864114</v>
       </c>
       <c r="P2" t="n">
-        <v>351.4575245928714</v>
+        <v>351.2546753397681</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31525,28 +31911,28 @@
         <v>0.0374</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1471638968635945</v>
+        <v>-0.1293644169143773</v>
       </c>
       <c r="J3" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K3" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003637669865774296</v>
+        <v>0.002880070550873692</v>
       </c>
       <c r="M3" t="n">
-        <v>14.49195031181663</v>
+        <v>14.47813398774606</v>
       </c>
       <c r="N3" t="n">
-        <v>330.1350003420235</v>
+        <v>328.2313748351725</v>
       </c>
       <c r="O3" t="n">
-        <v>18.16961750676176</v>
+        <v>18.11715691920707</v>
       </c>
       <c r="P3" t="n">
-        <v>347.0909451974282</v>
+        <v>346.9257970080704</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31603,28 +31989,28 @@
         <v>0.0304</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1530042185297401</v>
+        <v>-0.1301917255871599</v>
       </c>
       <c r="J4" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K4" t="n">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003790209476689177</v>
+        <v>0.002814232477420631</v>
       </c>
       <c r="M4" t="n">
-        <v>14.91288379474312</v>
+        <v>14.86154325133869</v>
       </c>
       <c r="N4" t="n">
-        <v>348.7858377361684</v>
+        <v>346.3888908910669</v>
       </c>
       <c r="O4" t="n">
-        <v>18.67580889108068</v>
+        <v>18.61152575398016</v>
       </c>
       <c r="P4" t="n">
-        <v>346.0635677701191</v>
+        <v>345.853184356689</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31681,28 +32067,28 @@
         <v>0.0309</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1955299767140046</v>
+        <v>-0.1769723047205596</v>
       </c>
       <c r="J5" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K5" t="n">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005826612095593764</v>
+        <v>0.004909879158938923</v>
       </c>
       <c r="M5" t="n">
-        <v>15.18602832038385</v>
+        <v>15.10186938400285</v>
       </c>
       <c r="N5" t="n">
-        <v>377.1667983777486</v>
+        <v>373.5674773808433</v>
       </c>
       <c r="O5" t="n">
-        <v>19.42078264071118</v>
+        <v>19.327893764734</v>
       </c>
       <c r="P5" t="n">
-        <v>342.1298048833693</v>
+        <v>341.9609485713706</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31759,28 +32145,28 @@
         <v>0.0345</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2609584375631706</v>
+        <v>-0.2572875200338992</v>
       </c>
       <c r="J6" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K6" t="n">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01270141734526764</v>
+        <v>0.01261784956700496</v>
       </c>
       <c r="M6" t="n">
-        <v>13.47293127816349</v>
+        <v>13.45759427671633</v>
       </c>
       <c r="N6" t="n">
-        <v>300.0357487986235</v>
+        <v>298.5760667116688</v>
       </c>
       <c r="O6" t="n">
-        <v>17.32154002387269</v>
+        <v>17.27935377008263</v>
       </c>
       <c r="P6" t="n">
-        <v>344.1692512473934</v>
+        <v>344.1346976242871</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31837,28 +32223,28 @@
         <v>0.0327</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.28700763781578</v>
+        <v>-0.2827270490120923</v>
       </c>
       <c r="J7" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K7" t="n">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01433679850514524</v>
+        <v>0.01420303494824215</v>
       </c>
       <c r="M7" t="n">
-        <v>13.84423291783952</v>
+        <v>13.834491971556</v>
       </c>
       <c r="N7" t="n">
-        <v>313.2469976032283</v>
+        <v>311.9723956545785</v>
       </c>
       <c r="O7" t="n">
-        <v>17.6987852013416</v>
+        <v>17.66274032121229</v>
       </c>
       <c r="P7" t="n">
-        <v>345.8614908280106</v>
+        <v>345.8205381424608</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31915,28 +32301,28 @@
         <v>0.0319</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.14984323836015</v>
+        <v>-0.1423409525759318</v>
       </c>
       <c r="J8" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K8" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003634832584069159</v>
+        <v>0.003319198948563917</v>
       </c>
       <c r="M8" t="n">
-        <v>14.53989168211458</v>
+        <v>14.59674887060033</v>
       </c>
       <c r="N8" t="n">
-        <v>343.3226002797628</v>
+        <v>344.9890115113017</v>
       </c>
       <c r="O8" t="n">
-        <v>18.52896651947331</v>
+        <v>18.573879818479</v>
       </c>
       <c r="P8" t="n">
-        <v>343.3788901737959</v>
+        <v>343.3075605846666</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31993,28 +32379,28 @@
         <v>0.0324</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1073680848385475</v>
+        <v>-0.1131428287441139</v>
       </c>
       <c r="J9" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K9" t="n">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002173524819929495</v>
+        <v>0.002448902774488837</v>
       </c>
       <c r="M9" t="n">
-        <v>13.58480299839453</v>
+        <v>13.60175447278007</v>
       </c>
       <c r="N9" t="n">
-        <v>294.2953032268823</v>
+        <v>294.7372733226656</v>
       </c>
       <c r="O9" t="n">
-        <v>17.15503725518782</v>
+        <v>17.16791406440123</v>
       </c>
       <c r="P9" t="n">
-        <v>350.3719526878854</v>
+        <v>350.4258001610701</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32071,28 +32457,28 @@
         <v>0.0323</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1622429712770339</v>
+        <v>-0.1852350521932348</v>
       </c>
       <c r="J10" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K10" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004833670265647405</v>
+        <v>0.006406916887222613</v>
       </c>
       <c r="M10" t="n">
-        <v>13.78888907911713</v>
+        <v>13.7489622915798</v>
       </c>
       <c r="N10" t="n">
-        <v>301.6677315238665</v>
+        <v>301.3372612217098</v>
       </c>
       <c r="O10" t="n">
-        <v>17.36858461486907</v>
+        <v>17.3590685585866</v>
       </c>
       <c r="P10" t="n">
-        <v>351.2851595344657</v>
+        <v>351.4995492609484</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32149,28 +32535,28 @@
         <v>0.0286</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.07403848539088725</v>
+        <v>-0.1113455803421856</v>
       </c>
       <c r="J11" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K11" t="n">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001064768332439514</v>
+        <v>0.002452917690114131</v>
       </c>
       <c r="M11" t="n">
-        <v>13.51577906706401</v>
+        <v>13.51573102871908</v>
       </c>
       <c r="N11" t="n">
-        <v>286.596374254603</v>
+        <v>285.8047705302006</v>
       </c>
       <c r="O11" t="n">
-        <v>16.92915751756723</v>
+        <v>16.90576145963857</v>
       </c>
       <c r="P11" t="n">
-        <v>346.6903069530152</v>
+        <v>347.0386746021354</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32227,28 +32613,28 @@
         <v>0.0354</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.06434441772276908</v>
+        <v>-0.09923393041363426</v>
       </c>
       <c r="J12" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K12" t="n">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="L12" t="n">
-        <v>0.000916013862387266</v>
+        <v>0.002214621567922848</v>
       </c>
       <c r="M12" t="n">
-        <v>12.6192908080517</v>
+        <v>12.61914569179381</v>
       </c>
       <c r="N12" t="n">
-        <v>254.3338989558911</v>
+        <v>254.1310196331387</v>
       </c>
       <c r="O12" t="n">
-        <v>15.94784935205657</v>
+        <v>15.94148737204715</v>
       </c>
       <c r="P12" t="n">
-        <v>340.9699780508111</v>
+        <v>341.2944866394454</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -32305,28 +32691,28 @@
         <v>0.0423</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.008929896250502696</v>
+        <v>-0.02991801988258224</v>
       </c>
       <c r="J13" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K13" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="L13" t="n">
-        <v>1.947919687439459e-05</v>
+        <v>0.0002229789801211357</v>
       </c>
       <c r="M13" t="n">
-        <v>11.72885398430084</v>
+        <v>11.69138902295778</v>
       </c>
       <c r="N13" t="n">
-        <v>225.9942977268293</v>
+        <v>225.3040447206602</v>
       </c>
       <c r="O13" t="n">
-        <v>15.03310672239206</v>
+        <v>15.01013140251144</v>
       </c>
       <c r="P13" t="n">
-        <v>335.1599341392777</v>
+        <v>335.3577748026654</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -32383,28 +32769,28 @@
         <v>0.035</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.01900819831470031</v>
+        <v>-0.03255461705892689</v>
       </c>
       <c r="J14" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K14" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L14" t="n">
-        <v>9.907803696351802e-05</v>
+        <v>0.0002967817236737558</v>
       </c>
       <c r="M14" t="n">
-        <v>10.99442424635992</v>
+        <v>10.94879157815295</v>
       </c>
       <c r="N14" t="n">
-        <v>196.617256223065</v>
+        <v>195.83489878908</v>
       </c>
       <c r="O14" t="n">
-        <v>14.02202753609709</v>
+        <v>13.99410228593031</v>
       </c>
       <c r="P14" t="n">
-        <v>334.1549616681922</v>
+        <v>334.2837509533606</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -32461,28 +32847,28 @@
         <v>0.0319</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1446456009144838</v>
+        <v>0.1217490185453987</v>
       </c>
       <c r="J15" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K15" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="L15" t="n">
-        <v>0.004506979934765121</v>
+        <v>0.003275082145361985</v>
       </c>
       <c r="M15" t="n">
-        <v>12.61080479051933</v>
+        <v>12.55584454755661</v>
       </c>
       <c r="N15" t="n">
-        <v>251.721700853643</v>
+        <v>250.166410330039</v>
       </c>
       <c r="O15" t="n">
-        <v>15.86573984576966</v>
+        <v>15.81664978211375</v>
       </c>
       <c r="P15" t="n">
-        <v>331.5269330551234</v>
+        <v>331.7420563799462</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -32539,28 +32925,28 @@
         <v>0.0319</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2767499979230681</v>
+        <v>0.227822164589581</v>
       </c>
       <c r="J16" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K16" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01592720470136799</v>
+        <v>0.01098240721218346</v>
       </c>
       <c r="M16" t="n">
-        <v>12.71935814534694</v>
+        <v>12.78132530669058</v>
       </c>
       <c r="N16" t="n">
-        <v>261.1806246901094</v>
+        <v>262.4066493903533</v>
       </c>
       <c r="O16" t="n">
-        <v>16.16108364838538</v>
+        <v>16.19897062749215</v>
       </c>
       <c r="P16" t="n">
-        <v>329.040454144607</v>
+        <v>329.500115470062</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -32617,28 +33003,28 @@
         <v>0.0313</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4438969564965772</v>
+        <v>0.3928002998693547</v>
       </c>
       <c r="J17" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K17" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="L17" t="n">
-        <v>0.03750601845470258</v>
+        <v>0.02998104243053923</v>
       </c>
       <c r="M17" t="n">
-        <v>13.16866984320411</v>
+        <v>13.24820633784671</v>
       </c>
       <c r="N17" t="n">
-        <v>279.5412038927593</v>
+        <v>280.7774248684229</v>
       </c>
       <c r="O17" t="n">
-        <v>16.71948575443513</v>
+        <v>16.75641443950414</v>
       </c>
       <c r="P17" t="n">
-        <v>322.913068284308</v>
+        <v>323.3933038251577</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -32695,28 +33081,28 @@
         <v>0.0293</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5816557422832118</v>
+        <v>0.522349482047661</v>
       </c>
       <c r="J18" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K18" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="L18" t="n">
-        <v>0.05831309977525234</v>
+        <v>0.04801936123211747</v>
       </c>
       <c r="M18" t="n">
-        <v>14.06141073489954</v>
+        <v>14.18316325487405</v>
       </c>
       <c r="N18" t="n">
-        <v>302.7702827555143</v>
+        <v>305.1647360758334</v>
       </c>
       <c r="O18" t="n">
-        <v>17.40029547897145</v>
+        <v>17.46896494002531</v>
       </c>
       <c r="P18" t="n">
-        <v>318.9904892121318</v>
+        <v>319.5433079462005</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -32773,28 +33159,28 @@
         <v>0.0312</v>
       </c>
       <c r="I19" t="n">
-        <v>0.597640732721747</v>
+        <v>0.5523314040491776</v>
       </c>
       <c r="J19" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K19" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="L19" t="n">
-        <v>0.06403991557910849</v>
+        <v>0.0560406815282104</v>
       </c>
       <c r="M19" t="n">
-        <v>13.79826326057456</v>
+        <v>13.85092480594629</v>
       </c>
       <c r="N19" t="n">
-        <v>290.6134778538546</v>
+        <v>291.1476211957646</v>
       </c>
       <c r="O19" t="n">
-        <v>17.04738917998456</v>
+        <v>17.06304841450567</v>
       </c>
       <c r="P19" t="n">
-        <v>316.8660737519304</v>
+        <v>317.2879853842264</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -32851,28 +33237,28 @@
         <v>0.0333</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6917782911086759</v>
+        <v>0.6479051186401915</v>
       </c>
       <c r="J20" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K20" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="L20" t="n">
-        <v>0.08219940292606776</v>
+        <v>0.07404216071565284</v>
       </c>
       <c r="M20" t="n">
-        <v>13.78834475485343</v>
+        <v>13.79863490306645</v>
       </c>
       <c r="N20" t="n">
-        <v>293.905600628865</v>
+        <v>293.8810520805313</v>
       </c>
       <c r="O20" t="n">
-        <v>17.14367523691653</v>
+        <v>17.14295925680661</v>
       </c>
       <c r="P20" t="n">
-        <v>316.6838492109115</v>
+        <v>317.0953439361185</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -32929,28 +33315,28 @@
         <v>0.0342</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6235676615740945</v>
+        <v>0.5624888688972223</v>
       </c>
       <c r="J21" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K21" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L21" t="n">
-        <v>0.07234037469928212</v>
+        <v>0.06004112232105741</v>
       </c>
       <c r="M21" t="n">
-        <v>13.57632294869914</v>
+        <v>13.65485962037381</v>
       </c>
       <c r="N21" t="n">
-        <v>278.9245671146509</v>
+        <v>281.7888570422064</v>
       </c>
       <c r="O21" t="n">
-        <v>16.7010349114853</v>
+        <v>16.78656775645952</v>
       </c>
       <c r="P21" t="n">
-        <v>323.8730830455154</v>
+        <v>324.450792268607</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -33007,28 +33393,28 @@
         <v>0.0368</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6903843213022616</v>
+        <v>0.6292786338790567</v>
       </c>
       <c r="J22" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K22" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L22" t="n">
-        <v>0.08969260517457167</v>
+        <v>0.07602185864880695</v>
       </c>
       <c r="M22" t="n">
-        <v>13.35732118435598</v>
+        <v>13.45580505379144</v>
       </c>
       <c r="N22" t="n">
-        <v>272.3003337682456</v>
+        <v>275.3604879227142</v>
       </c>
       <c r="O22" t="n">
-        <v>16.50152519521288</v>
+        <v>16.59398951195023</v>
       </c>
       <c r="P22" t="n">
-        <v>332.1096676452578</v>
+        <v>332.6899743027776</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -33085,28 +33471,28 @@
         <v>0.0331</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5440437493155744</v>
+        <v>0.4662128334778133</v>
       </c>
       <c r="J23" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K23" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L23" t="n">
-        <v>0.05457601906372722</v>
+        <v>0.04031070051627261</v>
       </c>
       <c r="M23" t="n">
-        <v>13.53866627129842</v>
+        <v>13.73148801504143</v>
       </c>
       <c r="N23" t="n">
-        <v>286.6289708056988</v>
+        <v>294.2683715217757</v>
       </c>
       <c r="O23" t="n">
-        <v>16.93012022419507</v>
+        <v>17.15425228687557</v>
       </c>
       <c r="P23" t="n">
-        <v>340.9456406539809</v>
+        <v>341.6849944266373</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -33163,28 +33549,28 @@
         <v>0.0269</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6670695945388647</v>
+        <v>0.6324660028917011</v>
       </c>
       <c r="J24" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K24" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="L24" t="n">
-        <v>0.05980791981327072</v>
+        <v>0.05499293559553287</v>
       </c>
       <c r="M24" t="n">
-        <v>15.99168706256909</v>
+        <v>15.98735735571841</v>
       </c>
       <c r="N24" t="n">
-        <v>383.210114994769</v>
+        <v>382.1189153646069</v>
       </c>
       <c r="O24" t="n">
-        <v>19.57575324207906</v>
+        <v>19.54786216865177</v>
       </c>
       <c r="P24" t="n">
-        <v>346.8581594707791</v>
+        <v>347.1803373718291</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -33241,28 +33627,28 @@
         <v>0.0311</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6906253130313076</v>
+        <v>0.6446353884735008</v>
       </c>
       <c r="J25" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K25" t="n">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L25" t="n">
-        <v>0.07525656021279337</v>
+        <v>0.06704127317472808</v>
       </c>
       <c r="M25" t="n">
-        <v>14.77903588903091</v>
+        <v>14.79008347595548</v>
       </c>
       <c r="N25" t="n">
-        <v>327.2106076681351</v>
+        <v>328.5229027715419</v>
       </c>
       <c r="O25" t="n">
-        <v>18.08896369801585</v>
+        <v>18.12520076499959</v>
       </c>
       <c r="P25" t="n">
-        <v>345.5263678958542</v>
+        <v>345.9559263767755</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -33319,28 +33705,28 @@
         <v>0.0419</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5915463197638797</v>
+        <v>0.5578564158391069</v>
       </c>
       <c r="J26" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K26" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="L26" t="n">
-        <v>0.05791460682383021</v>
+        <v>0.05277108705184419</v>
       </c>
       <c r="M26" t="n">
-        <v>14.53644253862045</v>
+        <v>14.47860633564141</v>
       </c>
       <c r="N26" t="n">
-        <v>314.6102097916282</v>
+        <v>314.1866649386674</v>
       </c>
       <c r="O26" t="n">
-        <v>17.73725485501148</v>
+        <v>17.72531142007574</v>
       </c>
       <c r="P26" t="n">
-        <v>343.4473604970447</v>
+        <v>343.7627779320924</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -33378,7 +33764,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA339"/>
+  <dimension ref="A1:AA343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75441,6 +75827,550 @@
         </is>
       </c>
     </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-05 21:53:44+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>-37.70853250702749,178.534347224364</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>-37.70904758414169,178.53372030938326</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>-37.70962669024789,178.53319989633667</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>-37.71014821257797,178.53258371477017</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>-37.710616527537866,178.53187904396773</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>-37.71116656776403,178.53131030783192</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>-37.71167337938723,178.53066967953077</t>
+        </is>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>-37.712276847562535,178.53017090130143</t>
+        </is>
+      </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>-37.71286311388079,178.5295930251258</t>
+        </is>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>-37.71353212275177,178.5292058836846</t>
+        </is>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>-37.71412040226693,178.52868914885576</t>
+        </is>
+      </c>
+      <c r="M340" t="inlineStr">
+        <is>
+          <t>-37.71472208048602,178.52820533390653</t>
+        </is>
+      </c>
+      <c r="N340" t="inlineStr">
+        <is>
+          <t>-37.715346257837155,178.52777678973266</t>
+        </is>
+      </c>
+      <c r="O340" t="inlineStr">
+        <is>
+          <t>-37.715984766556794,178.5273619960716</t>
+        </is>
+      </c>
+      <c r="P340" t="inlineStr">
+        <is>
+          <t>-37.716616086307965,178.52691377677093</t>
+        </is>
+      </c>
+      <c r="Q340" t="inlineStr">
+        <is>
+          <t>-37.71724950665359,178.52649098747534</t>
+        </is>
+      </c>
+      <c r="R340" t="inlineStr">
+        <is>
+          <t>-37.71788167857816,178.52607850554318</t>
+        </is>
+      </c>
+      <c r="S340" t="inlineStr">
+        <is>
+          <t>-37.71851134982579,178.52565887676806</t>
+        </is>
+      </c>
+      <c r="T340" t="inlineStr">
+        <is>
+          <t>-37.7191759694449,178.5253574475921</t>
+        </is>
+      </c>
+      <c r="U340" t="inlineStr">
+        <is>
+          <t>-37.71981089673422,178.52497724360137</t>
+        </is>
+      </c>
+      <c r="V340" t="inlineStr">
+        <is>
+          <t>-37.72046904493176,178.52464039727613</t>
+        </is>
+      </c>
+      <c r="W340" t="inlineStr">
+        <is>
+          <t>-37.72105099222596,178.52410052423738</t>
+        </is>
+      </c>
+      <c r="X340" t="inlineStr"/>
+      <c r="Y340" t="inlineStr">
+        <is>
+          <t>-37.7224686705407,178.52356599534622</t>
+        </is>
+      </c>
+      <c r="Z340" t="inlineStr">
+        <is>
+          <t>-37.723149774762916,178.52330276315433</t>
+        </is>
+      </c>
+      <c r="AA340" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-21 21:53:32+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>-37.70865194937309,178.53454588563352</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>-37.70917988027062,178.53394034932492</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>-37.709730545827895,178.5333726330808</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>-37.710214159935056,178.53269340080854</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>-37.71076697087067,178.53212926634677</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>-37.71132888899885,178.53158028612268</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>-37.71186780805671,178.5309930596696</t>
+        </is>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>-37.71242516371705,178.53043027676424</t>
+        </is>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>-37.71298583482589,178.529852712146</t>
+        </is>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>-37.713573851588386,178.52930837024323</t>
+        </is>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>-37.714194104527934,178.52887016276546</t>
+        </is>
+      </c>
+      <c r="M341" t="inlineStr">
+        <is>
+          <t>-37.71479939044742,178.52839520859325</t>
+        </is>
+      </c>
+      <c r="N341" t="inlineStr">
+        <is>
+          <t>-37.715433160211994,178.52799022424273</t>
+        </is>
+      </c>
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>-37.71604229857213,178.5275103174793</t>
+        </is>
+      </c>
+      <c r="P341" t="inlineStr">
+        <is>
+          <t>-37.71664069853358,178.52698233378257</t>
+        </is>
+      </c>
+      <c r="Q341" t="inlineStr">
+        <is>
+          <t>-37.71728454604565,178.52659134815073</t>
+        </is>
+      </c>
+      <c r="R341" t="inlineStr">
+        <is>
+          <t>-37.717906882503065,178.5261506953673</t>
+        </is>
+      </c>
+      <c r="S341" t="inlineStr">
+        <is>
+          <t>-37.718558901226665,178.52579507532653</t>
+        </is>
+      </c>
+      <c r="T341" t="inlineStr">
+        <is>
+          <t>-37.71918290876315,178.52537659202346</t>
+        </is>
+      </c>
+      <c r="U341" t="inlineStr">
+        <is>
+          <t>-37.71981039236344,178.52497591693216</t>
+        </is>
+      </c>
+      <c r="V341" t="inlineStr">
+        <is>
+          <t>-37.72048679502165,178.52468657499335</t>
+        </is>
+      </c>
+      <c r="W341" t="inlineStr">
+        <is>
+          <t>-37.7211343745248,178.5243174476546</t>
+        </is>
+      </c>
+      <c r="X341" t="inlineStr">
+        <is>
+          <t>-37.72181490908862,178.5240017294647</t>
+        </is>
+      </c>
+      <c r="Y341" t="inlineStr">
+        <is>
+          <t>-37.7224942555558,178.52368632797155</t>
+        </is>
+      </c>
+      <c r="Z341" t="inlineStr">
+        <is>
+          <t>-37.723172310891506,178.52341152260615</t>
+        </is>
+      </c>
+      <c r="AA341" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-29 21:53:19+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>-37.708683729323354,178.5345987435272</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>-37.70921382969235,178.53399681554248</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>-37.70977626388312,178.53344867347846</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>-37.71027251457009,178.53279045867868</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>-37.71079193623316,178.53217078976684</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>-37.7113732158224,178.53165401243592</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>-37.71198464554336,178.53118738922674</t>
+        </is>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>-37.712505035412754,178.53056995737114</t>
+        </is>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>-37.71302789030171,178.52994170528976</t>
+        </is>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>-37.71359565876035,178.52936192907694</t>
+        </is>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>-37.71420928491456,178.52890744616892</t>
+        </is>
+      </c>
+      <c r="M342" t="inlineStr">
+        <is>
+          <t>-37.71483800430961,178.52849004539883</t>
+        </is>
+      </c>
+      <c r="N342" t="inlineStr">
+        <is>
+          <t>-37.71545793277587,178.528051066587</t>
+        </is>
+      </c>
+      <c r="O342" t="inlineStr">
+        <is>
+          <t>-37.71606888915067,178.52757887003193</t>
+        </is>
+      </c>
+      <c r="P342" t="inlineStr">
+        <is>
+          <t>-37.71664455999659,178.52699308984882</t>
+        </is>
+      </c>
+      <c r="Q342" t="inlineStr">
+        <is>
+          <t>-37.717290235267335,178.52660764339066</t>
+        </is>
+      </c>
+      <c r="R342" t="inlineStr">
+        <is>
+          <t>-37.71792055118244,178.52618984567803</t>
+        </is>
+      </c>
+      <c r="S342" t="inlineStr">
+        <is>
+          <t>-37.71858592529206,178.52587247898893</t>
+        </is>
+      </c>
+      <c r="T342" t="inlineStr">
+        <is>
+          <t>-37.71922948169789,178.5255050793763</t>
+        </is>
+      </c>
+      <c r="U342" t="inlineStr">
+        <is>
+          <t>-37.71983977516689,178.5250532039444</t>
+        </is>
+      </c>
+      <c r="V342" t="inlineStr">
+        <is>
+          <t>-37.72050550697255,178.5247352551169</t>
+        </is>
+      </c>
+      <c r="W342" t="inlineStr">
+        <is>
+          <t>-37.72114589664508,178.52434742317948</t>
+        </is>
+      </c>
+      <c r="X342" t="inlineStr">
+        <is>
+          <t>-37.72181276000459,178.5239945273196</t>
+        </is>
+      </c>
+      <c r="Y342" t="inlineStr">
+        <is>
+          <t>-37.72251178466298,178.52376877207172</t>
+        </is>
+      </c>
+      <c r="Z342" t="inlineStr">
+        <is>
+          <t>-37.723215049522004,178.52361778097458</t>
+        </is>
+      </c>
+      <c r="AA342" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-06 21:53:31+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>-37.70868131212674,178.53459472313003</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>-37.709186519856495,178.5339513925771</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>-37.70970673770782,178.53333303438083</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>-37.71025450924649,178.53276051143894</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>-37.71080130049944,178.53218636481483</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>-37.711333173445375,178.53158741219406</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>-37.71192215027913,178.5310834440374</t>
+        </is>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>-37.71251042552033,178.5305793836803</t>
+        </is>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>-37.71301689401198,178.52991843613367</t>
+        </is>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>-37.71357721284597,178.52931662555028</t>
+        </is>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>-37.71415799127839,178.52878146792133</t>
+        </is>
+      </c>
+      <c r="M343" t="inlineStr">
+        <is>
+          <t>-37.71481279463211,178.5284281296395</t>
+        </is>
+      </c>
+      <c r="N343" t="inlineStr">
+        <is>
+          <t>-37.715437423336326,178.52800069462694</t>
+        </is>
+      </c>
+      <c r="O343" t="inlineStr">
+        <is>
+          <t>-37.71604446735553,178.5275159087634</t>
+        </is>
+      </c>
+      <c r="P343" t="inlineStr">
+        <is>
+          <t>-37.716659722088544,178.52703532374193</t>
+        </is>
+      </c>
+      <c r="Q343" t="inlineStr">
+        <is>
+          <t>-37.71727246849485,178.5265567552972</t>
+        </is>
+      </c>
+      <c r="R343" t="inlineStr">
+        <is>
+          <t>-37.71789596201357,178.5261194165571</t>
+        </is>
+      </c>
+      <c r="S343" t="inlineStr">
+        <is>
+          <t>-37.71855297087123,178.52577808933793</t>
+        </is>
+      </c>
+      <c r="T343" t="inlineStr">
+        <is>
+          <t>-37.719196787389414,178.52541488089605</t>
+        </is>
+      </c>
+      <c r="U343" t="inlineStr">
+        <is>
+          <t>-37.71981640601394,178.52499173491202</t>
+        </is>
+      </c>
+      <c r="V343" t="inlineStr">
+        <is>
+          <t>-37.72047432410362,178.52465413128945</t>
+        </is>
+      </c>
+      <c r="W343" t="inlineStr">
+        <is>
+          <t>-37.72111080830471,178.52425613873694</t>
+        </is>
+      </c>
+      <c r="X343" t="inlineStr">
+        <is>
+          <t>-37.721843036762266,178.52409599286847</t>
+        </is>
+      </c>
+      <c r="Y343" t="inlineStr">
+        <is>
+          <t>-37.722545471671,178.52392721201758</t>
+        </is>
+      </c>
+      <c r="Z343" t="inlineStr">
+        <is>
+          <t>-37.72320378481234,178.5235634168299</t>
+        </is>
+      </c>
+      <c r="AA343" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0218/nzd0218.xlsx
+++ b/data/nzd0218/nzd0218.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA343"/>
+  <dimension ref="A1:AA344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28131,6 +28131,93 @@
         </is>
       </c>
     </row>
+    <row r="344">
+      <c r="A344" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:53:05+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>355.0314285714285</v>
+      </c>
+      <c r="C344" t="n">
+        <v>348.2514285714286</v>
+      </c>
+      <c r="D344" t="n">
+        <v>355.26</v>
+      </c>
+      <c r="E344" t="n">
+        <v>349.87</v>
+      </c>
+      <c r="F344" t="n">
+        <v>348.0966666666667</v>
+      </c>
+      <c r="G344" t="n">
+        <v>343.8766666666667</v>
+      </c>
+      <c r="H344" t="n">
+        <v>339.7866666666667</v>
+      </c>
+      <c r="I344" t="n">
+        <v>347.3266666666667</v>
+      </c>
+      <c r="J344" t="n">
+        <v>353.6766666666667</v>
+      </c>
+      <c r="K344" t="n">
+        <v>351.77</v>
+      </c>
+      <c r="L344" t="n">
+        <v>349.4666666666667</v>
+      </c>
+      <c r="M344" t="n">
+        <v>340.79</v>
+      </c>
+      <c r="N344" t="n">
+        <v>330.8366666666667</v>
+      </c>
+      <c r="O344" t="n">
+        <v>318.4466666666667</v>
+      </c>
+      <c r="P344" t="n">
+        <v>323.3166666666667</v>
+      </c>
+      <c r="Q344" t="n">
+        <v>327.5466666666667</v>
+      </c>
+      <c r="R344" t="n">
+        <v>319.58</v>
+      </c>
+      <c r="S344" t="n">
+        <v>308.6966666666667</v>
+      </c>
+      <c r="T344" t="n">
+        <v>310.4866666666667</v>
+      </c>
+      <c r="U344" t="n">
+        <v>326.1766666666667</v>
+      </c>
+      <c r="V344" t="n">
+        <v>343.4214285714286</v>
+      </c>
+      <c r="W344" t="n">
+        <v>353.4466666666667</v>
+      </c>
+      <c r="X344" t="n">
+        <v>356.13</v>
+      </c>
+      <c r="Y344" t="n">
+        <v>360.7166666666667</v>
+      </c>
+      <c r="Z344" t="n">
+        <v>361.4114285714285</v>
+      </c>
+      <c r="AA344" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28142,7 +28229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B351"/>
+  <dimension ref="A1:B352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31660,6 +31747,16 @@
       </c>
       <c r="B351" t="n">
         <v>-0.33</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>
@@ -31833,28 +31930,28 @@
         <v>0.0405</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1423983240379057</v>
+        <v>-0.1375286414309156</v>
       </c>
       <c r="J2" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K2" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004140716241635145</v>
+        <v>0.003890108141134552</v>
       </c>
       <c r="M2" t="n">
-        <v>13.35766894169339</v>
+        <v>13.33911071572979</v>
       </c>
       <c r="N2" t="n">
-        <v>273.9709209343809</v>
+        <v>273.2664296830093</v>
       </c>
       <c r="O2" t="n">
-        <v>16.55206696864114</v>
+        <v>16.53077220467965</v>
       </c>
       <c r="P2" t="n">
-        <v>351.2546753397681</v>
+        <v>351.2089562968422</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31911,28 +32008,28 @@
         <v>0.0374</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1293644169143773</v>
+        <v>-0.1262906781873396</v>
       </c>
       <c r="J3" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K3" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002880070550873692</v>
+        <v>0.002765643812428276</v>
       </c>
       <c r="M3" t="n">
-        <v>14.47813398774606</v>
+        <v>14.44611068102114</v>
       </c>
       <c r="N3" t="n">
-        <v>328.2313748351725</v>
+        <v>327.232202126852</v>
       </c>
       <c r="O3" t="n">
-        <v>18.11715691920707</v>
+        <v>18.0895605841284</v>
       </c>
       <c r="P3" t="n">
-        <v>346.9257970080704</v>
+        <v>346.8971497576804</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31989,28 +32086,28 @@
         <v>0.0304</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1301917255871599</v>
+        <v>-0.1217317304717904</v>
       </c>
       <c r="J4" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K4" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002814232477420631</v>
+        <v>0.0024761997470506</v>
       </c>
       <c r="M4" t="n">
-        <v>14.86154325133869</v>
+        <v>14.84962793381907</v>
       </c>
       <c r="N4" t="n">
-        <v>346.3888908910669</v>
+        <v>345.767166066015</v>
       </c>
       <c r="O4" t="n">
-        <v>18.61152575398016</v>
+        <v>18.59481556956172</v>
       </c>
       <c r="P4" t="n">
-        <v>345.853184356689</v>
+        <v>345.7747100784767</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32067,28 +32164,28 @@
         <v>0.0309</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1769723047205596</v>
+        <v>-0.1684698375004322</v>
       </c>
       <c r="J5" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K5" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004909879158938923</v>
+        <v>0.004480114472825369</v>
       </c>
       <c r="M5" t="n">
-        <v>15.10186938400285</v>
+        <v>15.08598111053509</v>
       </c>
       <c r="N5" t="n">
-        <v>373.5674773808433</v>
+        <v>372.7962595576134</v>
       </c>
       <c r="O5" t="n">
-        <v>19.327893764734</v>
+        <v>19.30793255523784</v>
       </c>
       <c r="P5" t="n">
-        <v>341.9609485713706</v>
+        <v>341.8831710441432</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32145,28 +32242,28 @@
         <v>0.0345</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2572875200338992</v>
+        <v>-0.2503046314839658</v>
       </c>
       <c r="J6" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K6" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01261784956700496</v>
+        <v>0.0120245138056182</v>
       </c>
       <c r="M6" t="n">
-        <v>13.45759427671633</v>
+        <v>13.4448245869397</v>
       </c>
       <c r="N6" t="n">
-        <v>298.5760667116688</v>
+        <v>297.9446064217196</v>
       </c>
       <c r="O6" t="n">
-        <v>17.27935377008263</v>
+        <v>17.26107199514907</v>
       </c>
       <c r="P6" t="n">
-        <v>344.1346976242871</v>
+        <v>344.069468447586</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32223,28 +32320,28 @@
         <v>0.0327</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2827270490120923</v>
+        <v>-0.2792521470140267</v>
       </c>
       <c r="J7" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K7" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01420303494824215</v>
+        <v>0.01395765208616861</v>
       </c>
       <c r="M7" t="n">
-        <v>13.834491971556</v>
+        <v>13.80596682646133</v>
       </c>
       <c r="N7" t="n">
-        <v>311.9723956545785</v>
+        <v>311.0452442166676</v>
       </c>
       <c r="O7" t="n">
-        <v>17.66274032121229</v>
+        <v>17.63647482397397</v>
       </c>
       <c r="P7" t="n">
-        <v>345.8205381424608</v>
+        <v>345.7874556841518</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32301,28 +32398,28 @@
         <v>0.0319</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1423409525759318</v>
+        <v>-0.1422441521168084</v>
       </c>
       <c r="J8" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K8" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003319198948563917</v>
+        <v>0.003339144751769885</v>
       </c>
       <c r="M8" t="n">
-        <v>14.59674887060033</v>
+        <v>14.54906438687832</v>
       </c>
       <c r="N8" t="n">
-        <v>344.9890115113017</v>
+        <v>343.8505060186254</v>
       </c>
       <c r="O8" t="n">
-        <v>18.573879818479</v>
+        <v>18.54320646540467</v>
       </c>
       <c r="P8" t="n">
-        <v>343.3075605846666</v>
+        <v>343.3066433847509</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32379,28 +32476,28 @@
         <v>0.0324</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1131428287441139</v>
+        <v>-0.1132612963272767</v>
       </c>
       <c r="J9" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K9" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002448902774488837</v>
+        <v>0.002472034693590142</v>
       </c>
       <c r="M9" t="n">
-        <v>13.60175447278007</v>
+        <v>13.55758942164976</v>
       </c>
       <c r="N9" t="n">
-        <v>294.7372733226656</v>
+        <v>293.7678510495659</v>
       </c>
       <c r="O9" t="n">
-        <v>17.16791406440123</v>
+        <v>17.13965726172977</v>
       </c>
       <c r="P9" t="n">
-        <v>350.4258001610701</v>
+        <v>350.4269265829162</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32457,28 +32554,28 @@
         <v>0.0323</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1852350521932348</v>
+        <v>-0.1806356044125007</v>
       </c>
       <c r="J10" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K10" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L10" t="n">
-        <v>0.006406916887222613</v>
+        <v>0.006137425074204117</v>
       </c>
       <c r="M10" t="n">
-        <v>13.7489622915798</v>
+        <v>13.72588030644463</v>
       </c>
       <c r="N10" t="n">
-        <v>301.3372612217098</v>
+        <v>300.4977753313473</v>
       </c>
       <c r="O10" t="n">
-        <v>17.3590685585866</v>
+        <v>17.33487165603908</v>
       </c>
       <c r="P10" t="n">
-        <v>351.4995492609484</v>
+        <v>351.4562595335388</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32535,28 +32632,28 @@
         <v>0.0286</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1113455803421856</v>
+        <v>-0.1063550073050272</v>
       </c>
       <c r="J11" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K11" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002452917690114131</v>
+        <v>0.002253798360440928</v>
       </c>
       <c r="M11" t="n">
-        <v>13.51573102871908</v>
+        <v>13.49725039875608</v>
       </c>
       <c r="N11" t="n">
-        <v>285.8047705302006</v>
+        <v>285.0526687230831</v>
       </c>
       <c r="O11" t="n">
-        <v>16.90576145963857</v>
+        <v>16.88350285702239</v>
       </c>
       <c r="P11" t="n">
-        <v>347.0386746021354</v>
+        <v>346.991722929593</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32613,28 +32710,28 @@
         <v>0.0354</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.09923393041363426</v>
+        <v>-0.09216451292552218</v>
       </c>
       <c r="J12" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K12" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002214621567922848</v>
+        <v>0.001922410522938622</v>
       </c>
       <c r="M12" t="n">
-        <v>12.61914569179381</v>
+        <v>12.61425744665802</v>
       </c>
       <c r="N12" t="n">
-        <v>254.1310196331387</v>
+        <v>253.6620085510246</v>
       </c>
       <c r="O12" t="n">
-        <v>15.94148737204715</v>
+        <v>15.92677018579174</v>
       </c>
       <c r="P12" t="n">
-        <v>341.2944866394454</v>
+        <v>341.2282274897594</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -32691,28 +32788,28 @@
         <v>0.0423</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.02991801988258224</v>
+        <v>-0.02585275056279289</v>
       </c>
       <c r="J13" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K13" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0002229789801211357</v>
+        <v>0.0001676577514971855</v>
       </c>
       <c r="M13" t="n">
-        <v>11.69138902295778</v>
+        <v>11.67458406680162</v>
       </c>
       <c r="N13" t="n">
-        <v>225.3040447206602</v>
+        <v>224.6901727280152</v>
       </c>
       <c r="O13" t="n">
-        <v>15.01013140251144</v>
+        <v>14.98966886652321</v>
       </c>
       <c r="P13" t="n">
-        <v>335.3577748026654</v>
+        <v>335.3191176787277</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -32769,28 +32866,28 @@
         <v>0.035</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.03255461705892689</v>
+        <v>-0.0342603414661405</v>
       </c>
       <c r="J14" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K14" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0002967817236737558</v>
+        <v>0.0003311075651106776</v>
       </c>
       <c r="M14" t="n">
-        <v>10.94879157815295</v>
+        <v>10.92231230851128</v>
       </c>
       <c r="N14" t="n">
-        <v>195.83489878908</v>
+        <v>195.2326501822371</v>
       </c>
       <c r="O14" t="n">
-        <v>13.99410228593031</v>
+        <v>13.97256777339932</v>
       </c>
       <c r="P14" t="n">
-        <v>334.2837509533606</v>
+        <v>334.3001190194431</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -32847,28 +32944,28 @@
         <v>0.0319</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1217490185453987</v>
+        <v>0.1107882144639966</v>
       </c>
       <c r="J15" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K15" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L15" t="n">
-        <v>0.003275082145361985</v>
+        <v>0.002724884042156872</v>
       </c>
       <c r="M15" t="n">
-        <v>12.55584454755661</v>
+        <v>12.56834341215324</v>
       </c>
       <c r="N15" t="n">
-        <v>250.166410330039</v>
+        <v>250.2215173400394</v>
       </c>
       <c r="O15" t="n">
-        <v>15.81664978211375</v>
+        <v>15.81839174315895</v>
       </c>
       <c r="P15" t="n">
-        <v>331.7420563799462</v>
+        <v>331.8458456955674</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -32925,28 +33022,28 @@
         <v>0.0319</v>
       </c>
       <c r="I16" t="n">
-        <v>0.227822164589581</v>
+        <v>0.219941942401006</v>
       </c>
       <c r="J16" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K16" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01098240721218346</v>
+        <v>0.01030125819191052</v>
       </c>
       <c r="M16" t="n">
-        <v>12.78132530669058</v>
+        <v>12.77738000204413</v>
       </c>
       <c r="N16" t="n">
-        <v>262.4066493903533</v>
+        <v>262.0216008220797</v>
       </c>
       <c r="O16" t="n">
-        <v>16.19897062749215</v>
+        <v>16.18708129410857</v>
       </c>
       <c r="P16" t="n">
-        <v>329.500115470062</v>
+        <v>329.5746839978819</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -33003,28 +33100,28 @@
         <v>0.0313</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3928002998693547</v>
+        <v>0.3888212747088121</v>
       </c>
       <c r="J17" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K17" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02998104243053923</v>
+        <v>0.0296000361372506</v>
       </c>
       <c r="M17" t="n">
-        <v>13.24820633784671</v>
+        <v>13.22430829709489</v>
       </c>
       <c r="N17" t="n">
-        <v>280.7774248684229</v>
+        <v>279.9618437168609</v>
       </c>
       <c r="O17" t="n">
-        <v>16.75641443950414</v>
+        <v>16.73206035480571</v>
       </c>
       <c r="P17" t="n">
-        <v>323.3933038251577</v>
+        <v>323.4309691921959</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -33081,28 +33178,28 @@
         <v>0.0293</v>
       </c>
       <c r="I18" t="n">
-        <v>0.522349482047661</v>
+        <v>0.5133130709481328</v>
       </c>
       <c r="J18" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K18" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L18" t="n">
-        <v>0.04801936123211747</v>
+        <v>0.04670637526766186</v>
       </c>
       <c r="M18" t="n">
-        <v>14.18316325487405</v>
+        <v>14.18475069529399</v>
       </c>
       <c r="N18" t="n">
-        <v>305.1647360758334</v>
+        <v>304.7420403453999</v>
       </c>
       <c r="O18" t="n">
-        <v>17.46896494002531</v>
+        <v>17.45686227090653</v>
       </c>
       <c r="P18" t="n">
-        <v>319.5433079462005</v>
+        <v>319.6281327333414</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -33159,28 +33256,28 @@
         <v>0.0312</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5523314040491776</v>
+        <v>0.5370697277262934</v>
       </c>
       <c r="J19" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K19" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0560406815282104</v>
+        <v>0.05323845549742012</v>
       </c>
       <c r="M19" t="n">
-        <v>13.85092480594629</v>
+        <v>13.88526531495437</v>
       </c>
       <c r="N19" t="n">
-        <v>291.1476211957646</v>
+        <v>291.895477460284</v>
       </c>
       <c r="O19" t="n">
-        <v>17.06304841450567</v>
+        <v>17.08494885740908</v>
       </c>
       <c r="P19" t="n">
-        <v>317.2879853842264</v>
+        <v>317.4311572859364</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -33237,28 +33334,28 @@
         <v>0.0333</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6479051186401915</v>
+        <v>0.6324046300269081</v>
       </c>
       <c r="J20" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K20" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L20" t="n">
-        <v>0.07404216071565284</v>
+        <v>0.0708973413033025</v>
       </c>
       <c r="M20" t="n">
-        <v>13.79863490306645</v>
+        <v>13.82346231458163</v>
       </c>
       <c r="N20" t="n">
-        <v>293.8810520805313</v>
+        <v>294.6798687028393</v>
       </c>
       <c r="O20" t="n">
-        <v>17.14295925680661</v>
+        <v>17.16624212525383</v>
       </c>
       <c r="P20" t="n">
-        <v>317.0953439361185</v>
+        <v>317.2417639053921</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -33315,28 +33412,28 @@
         <v>0.0342</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5624888688972223</v>
+        <v>0.553679319978771</v>
       </c>
       <c r="J21" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K21" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L21" t="n">
-        <v>0.06004112232105741</v>
+        <v>0.05859657114984296</v>
       </c>
       <c r="M21" t="n">
-        <v>13.65485962037381</v>
+        <v>13.64542759168681</v>
       </c>
       <c r="N21" t="n">
-        <v>281.7888570422064</v>
+        <v>281.361833463405</v>
       </c>
       <c r="O21" t="n">
-        <v>16.78656775645952</v>
+        <v>16.77384372955123</v>
       </c>
       <c r="P21" t="n">
-        <v>324.450792268607</v>
+        <v>324.534729006719</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -33393,28 +33490,28 @@
         <v>0.0368</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6292786338790567</v>
+        <v>0.6254896753363428</v>
       </c>
       <c r="J22" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K22" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L22" t="n">
-        <v>0.07602185864880695</v>
+        <v>0.07568269373861436</v>
       </c>
       <c r="M22" t="n">
-        <v>13.45580505379144</v>
+        <v>13.42580247396758</v>
       </c>
       <c r="N22" t="n">
-        <v>275.3604879227142</v>
+        <v>274.4740417035251</v>
       </c>
       <c r="O22" t="n">
-        <v>16.59398951195023</v>
+        <v>16.56725812268056</v>
       </c>
       <c r="P22" t="n">
-        <v>332.6899743027776</v>
+        <v>332.7262283667584</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -33471,28 +33568,28 @@
         <v>0.0331</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4662128334778133</v>
+        <v>0.4660296141471583</v>
       </c>
       <c r="J23" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K23" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L23" t="n">
-        <v>0.04031070051627261</v>
+        <v>0.04058753479269972</v>
       </c>
       <c r="M23" t="n">
-        <v>13.73148801504143</v>
+        <v>13.68174113401072</v>
       </c>
       <c r="N23" t="n">
-        <v>294.2683715217757</v>
+        <v>293.1827514860769</v>
       </c>
       <c r="O23" t="n">
-        <v>17.15425228687557</v>
+        <v>17.12258016439336</v>
       </c>
       <c r="P23" t="n">
-        <v>341.6849944266373</v>
+        <v>341.6867483484854</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -33549,28 +33646,28 @@
         <v>0.0269</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6324660028917011</v>
+        <v>0.6272728988684354</v>
       </c>
       <c r="J24" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K24" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L24" t="n">
-        <v>0.05499293559553287</v>
+        <v>0.05454162134943075</v>
       </c>
       <c r="M24" t="n">
-        <v>15.98735735571841</v>
+        <v>15.95679489429056</v>
       </c>
       <c r="N24" t="n">
-        <v>382.1189153646069</v>
+        <v>381.0010619378203</v>
       </c>
       <c r="O24" t="n">
-        <v>19.54786216865177</v>
+        <v>19.51924849828549</v>
       </c>
       <c r="P24" t="n">
-        <v>347.1803373718291</v>
+        <v>347.2289800405104</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -33627,28 +33724,28 @@
         <v>0.0311</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6446353884735008</v>
+        <v>0.643381014023339</v>
       </c>
       <c r="J25" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K25" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L25" t="n">
-        <v>0.06704127317472808</v>
+        <v>0.06727761217231099</v>
       </c>
       <c r="M25" t="n">
-        <v>14.79008347595548</v>
+        <v>14.74549696766977</v>
       </c>
       <c r="N25" t="n">
-        <v>328.5229027715419</v>
+        <v>327.4170865495194</v>
       </c>
       <c r="O25" t="n">
-        <v>18.12520076499959</v>
+        <v>18.09467011441544</v>
       </c>
       <c r="P25" t="n">
-        <v>345.9559263767755</v>
+        <v>345.9677377398656</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -33705,28 +33802,28 @@
         <v>0.0419</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5578564158391069</v>
+        <v>0.5600349749843857</v>
       </c>
       <c r="J26" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K26" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L26" t="n">
-        <v>0.05277108705184419</v>
+        <v>0.05354226036398146</v>
       </c>
       <c r="M26" t="n">
-        <v>14.47860633564141</v>
+        <v>14.44328355568047</v>
       </c>
       <c r="N26" t="n">
-        <v>314.1866649386674</v>
+        <v>313.1812758280994</v>
       </c>
       <c r="O26" t="n">
-        <v>17.72531142007574</v>
+        <v>17.69692842919639</v>
       </c>
       <c r="P26" t="n">
-        <v>343.7627779320924</v>
+        <v>343.7422152024944</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -33764,7 +33861,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA343"/>
+  <dimension ref="A1:AA344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76371,6 +76468,143 @@
         </is>
       </c>
     </row>
+    <row r="344">
+      <c r="A344" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:53:05+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>-37.70863461836472,178.53451705993098</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>-37.70914720140465,178.5338859964502</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>-37.70973455904024,178.53337930803497</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>-37.71025467194524,178.53276078204644</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>-37.710794394805234,178.53217487896825</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>-37.711320844361595,178.5315669059486</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>-37.71184799463826,178.53096010518843</t>
+        </is>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>-37.71243979404192,178.53045586241012</t>
+        </is>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>-37.71304371085987,178.52997518307038</t>
+        </is>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>-37.71365673509454,178.5295119342373</t>
+        </is>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>-37.714266481105305,178.52904792183836</t>
+        </is>
+      </c>
+      <c r="M344" t="inlineStr">
+        <is>
+          <t>-37.71485009674376,178.528519744842</t>
+        </is>
+      </c>
+      <c r="N344" t="inlineStr">
+        <is>
+          <t>-37.715428473506805,178.5279787135332</t>
+        </is>
+      </c>
+      <c r="O344" t="inlineStr">
+        <is>
+          <t>-37.716002892384175,178.52740872559423</t>
+        </is>
+      </c>
+      <c r="P344" t="inlineStr">
+        <is>
+          <t>-37.7166623005061,178.5270425059108</t>
+        </is>
+      </c>
+      <c r="Q344" t="inlineStr">
+        <is>
+          <t>-37.71731932016929,178.52669094938815</t>
+        </is>
+      </c>
+      <c r="R344" t="inlineStr">
+        <is>
+          <t>-37.71792933818309,178.52621501374188</t>
+        </is>
+      </c>
+      <c r="S344" t="inlineStr">
+        <is>
+          <t>-37.71852880343983,178.5257088680075</t>
+        </is>
+      </c>
+      <c r="T344" t="inlineStr">
+        <is>
+          <t>-37.71916871922165,178.52533744543885</t>
+        </is>
+      </c>
+      <c r="U344" t="inlineStr">
+        <is>
+          <t>-37.71985239733994,178.52508640472053</t>
+        </is>
+      </c>
+      <c r="V344" t="inlineStr">
+        <is>
+          <t>-37.72054580525894,178.52484009349948</t>
+        </is>
+      </c>
+      <c r="W344" t="inlineStr">
+        <is>
+          <t>-37.721212027972356,178.52451946860106</t>
+        </is>
+      </c>
+      <c r="X344" t="inlineStr">
+        <is>
+          <t>-37.72185043211462,178.52412077674023</t>
+        </is>
+      </c>
+      <c r="Y344" t="inlineStr">
+        <is>
+          <t>-37.722538934131784,178.5238964639479</t>
+        </is>
+      </c>
+      <c r="Z344" t="inlineStr">
+        <is>
+          <t>-37.72322036751869,178.5236434459855</t>
+        </is>
+      </c>
+      <c r="AA344" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0218/nzd0218.xlsx
+++ b/data/nzd0218/nzd0218.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA344"/>
+  <dimension ref="A1:AA346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28218,6 +28218,180 @@
         </is>
       </c>
     </row>
+    <row r="345">
+      <c r="A345" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:53:08+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>340.4457142857143</v>
+      </c>
+      <c r="C345" t="n">
+        <v>330.6857142857143</v>
+      </c>
+      <c r="D345" t="n">
+        <v>332.52</v>
+      </c>
+      <c r="E345" t="n">
+        <v>333.55</v>
+      </c>
+      <c r="F345" t="n">
+        <v>333.3233333333333</v>
+      </c>
+      <c r="G345" t="n">
+        <v>331.6433333333333</v>
+      </c>
+      <c r="H345" t="n">
+        <v>324.9333333333333</v>
+      </c>
+      <c r="I345" t="n">
+        <v>341.9133333333333</v>
+      </c>
+      <c r="J345" t="n">
+        <v>336.4733333333333</v>
+      </c>
+      <c r="K345" t="n">
+        <v>343.21</v>
+      </c>
+      <c r="L345" t="n">
+        <v>335.0933333333333</v>
+      </c>
+      <c r="M345" t="n">
+        <v>326.04</v>
+      </c>
+      <c r="N345" t="n">
+        <v>320.8133333333333</v>
+      </c>
+      <c r="O345" t="n">
+        <v>311.2533333333333</v>
+      </c>
+      <c r="P345" t="n">
+        <v>311.0533333333333</v>
+      </c>
+      <c r="Q345" t="n">
+        <v>304.5833333333333</v>
+      </c>
+      <c r="R345" t="n">
+        <v>307.59</v>
+      </c>
+      <c r="S345" t="n">
+        <v>300.9333333333333</v>
+      </c>
+      <c r="T345" t="n">
+        <v>300.9133333333333</v>
+      </c>
+      <c r="U345" t="n">
+        <v>311.0533333333333</v>
+      </c>
+      <c r="V345" t="n">
+        <v>329.5757142857143</v>
+      </c>
+      <c r="W345" t="n">
+        <v>326.2333333333333</v>
+      </c>
+      <c r="X345" t="n">
+        <v>333.04</v>
+      </c>
+      <c r="Y345" t="n">
+        <v>343.2333333333333</v>
+      </c>
+      <c r="Z345" t="n">
+        <v>341.9657142857143</v>
+      </c>
+      <c r="AA345" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:53:09+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>345.2385714285714</v>
+      </c>
+      <c r="C346" t="n">
+        <v>335.7785714285715</v>
+      </c>
+      <c r="D346" t="n">
+        <v>327.4</v>
+      </c>
+      <c r="E346" t="n">
+        <v>321.02</v>
+      </c>
+      <c r="F346" t="n">
+        <v>322.5633333333333</v>
+      </c>
+      <c r="G346" t="n">
+        <v>326.5433333333333</v>
+      </c>
+      <c r="H346" t="n">
+        <v>324.4433333333333</v>
+      </c>
+      <c r="I346" t="n">
+        <v>335.0833333333333</v>
+      </c>
+      <c r="J346" t="n">
+        <v>336.2733333333333</v>
+      </c>
+      <c r="K346" t="n">
+        <v>328.67</v>
+      </c>
+      <c r="L346" t="n">
+        <v>326.4833333333333</v>
+      </c>
+      <c r="M346" t="n">
+        <v>322.65</v>
+      </c>
+      <c r="N346" t="n">
+        <v>310.9733333333333</v>
+      </c>
+      <c r="O346" t="n">
+        <v>304.7433333333333</v>
+      </c>
+      <c r="P346" t="n">
+        <v>298.7633333333333</v>
+      </c>
+      <c r="Q346" t="n">
+        <v>297.8733333333333</v>
+      </c>
+      <c r="R346" t="n">
+        <v>288.16</v>
+      </c>
+      <c r="S346" t="n">
+        <v>286.2333333333333</v>
+      </c>
+      <c r="T346" t="n">
+        <v>289.3133333333333</v>
+      </c>
+      <c r="U346" t="n">
+        <v>303.3333333333333</v>
+      </c>
+      <c r="V346" t="n">
+        <v>328.0885714285715</v>
+      </c>
+      <c r="W346" t="n">
+        <v>339.3433333333333</v>
+      </c>
+      <c r="X346" t="n">
+        <v>344.83</v>
+      </c>
+      <c r="Y346" t="n">
+        <v>345.6333333333333</v>
+      </c>
+      <c r="Z346" t="n">
+        <v>344.3985714285715</v>
+      </c>
+      <c r="AA346" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28229,7 +28403,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B352"/>
+  <dimension ref="A1:B354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31757,6 +31931,26 @@
       </c>
       <c r="B352" t="n">
         <v>0.44</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>-0.44</v>
       </c>
     </row>
   </sheetData>
@@ -31930,28 +32124,28 @@
         <v>0.0405</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1375286414309156</v>
+        <v>-0.1437171888787324</v>
       </c>
       <c r="J2" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K2" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003890108141134552</v>
+        <v>0.004307328454317805</v>
       </c>
       <c r="M2" t="n">
-        <v>13.33911071572979</v>
+        <v>13.28343375646562</v>
       </c>
       <c r="N2" t="n">
-        <v>273.2664296830093</v>
+        <v>271.7020057672456</v>
       </c>
       <c r="O2" t="n">
-        <v>16.53077220467965</v>
+        <v>16.48338574951292</v>
       </c>
       <c r="P2" t="n">
-        <v>351.2089562968422</v>
+        <v>351.2671874146106</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32008,28 +32202,28 @@
         <v>0.0374</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1262906781873396</v>
+        <v>-0.1397789491032011</v>
       </c>
       <c r="J3" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K3" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002765643812428276</v>
+        <v>0.003429625701286909</v>
       </c>
       <c r="M3" t="n">
-        <v>14.44611068102114</v>
+        <v>14.41924168373276</v>
       </c>
       <c r="N3" t="n">
-        <v>327.232202126852</v>
+        <v>325.8416180834383</v>
       </c>
       <c r="O3" t="n">
-        <v>18.0895605841284</v>
+        <v>18.05108357089508</v>
       </c>
       <c r="P3" t="n">
-        <v>346.8971497576804</v>
+        <v>347.0231598970618</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32086,28 +32280,28 @@
         <v>0.0304</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1217317304717904</v>
+        <v>-0.138247984385776</v>
       </c>
       <c r="J4" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K4" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0024761997470506</v>
+        <v>0.003229585777547839</v>
       </c>
       <c r="M4" t="n">
-        <v>14.84962793381907</v>
+        <v>14.84270465620748</v>
       </c>
       <c r="N4" t="n">
-        <v>345.767166066015</v>
+        <v>344.5527958993911</v>
       </c>
       <c r="O4" t="n">
-        <v>18.59481556956172</v>
+        <v>18.56213338760906</v>
       </c>
       <c r="P4" t="n">
-        <v>345.7747100784767</v>
+        <v>345.9283282364843</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32164,28 +32358,28 @@
         <v>0.0309</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1684698375004322</v>
+        <v>-0.1822016373816304</v>
       </c>
       <c r="J5" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K5" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004480114472825369</v>
+        <v>0.005303921550914525</v>
       </c>
       <c r="M5" t="n">
-        <v>15.08598111053509</v>
+        <v>15.06154059839002</v>
       </c>
       <c r="N5" t="n">
-        <v>372.7962595576134</v>
+        <v>371.1869474269007</v>
       </c>
       <c r="O5" t="n">
-        <v>19.30793255523784</v>
+        <v>19.26621258646599</v>
       </c>
       <c r="P5" t="n">
-        <v>341.8831710441432</v>
+        <v>342.0091616805041</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32242,28 +32436,28 @@
         <v>0.0345</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2503046314839658</v>
+        <v>-0.2628329774373991</v>
       </c>
       <c r="J6" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K6" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0120245138056182</v>
+        <v>0.01340176278808758</v>
       </c>
       <c r="M6" t="n">
-        <v>13.4448245869397</v>
+        <v>13.42391559100068</v>
       </c>
       <c r="N6" t="n">
-        <v>297.9446064217196</v>
+        <v>296.755885450066</v>
       </c>
       <c r="O6" t="n">
-        <v>17.26107199514907</v>
+        <v>17.22660400224217</v>
       </c>
       <c r="P6" t="n">
-        <v>344.069468447586</v>
+        <v>344.1868420088877</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32320,28 +32514,28 @@
         <v>0.0327</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2792521470140267</v>
+        <v>-0.2913839907383415</v>
       </c>
       <c r="J7" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K7" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01395765208616861</v>
+        <v>0.01536688358431659</v>
       </c>
       <c r="M7" t="n">
-        <v>13.80596682646133</v>
+        <v>13.779304124972</v>
       </c>
       <c r="N7" t="n">
-        <v>311.0452442166676</v>
+        <v>309.638978491527</v>
       </c>
       <c r="O7" t="n">
-        <v>17.63647482397397</v>
+        <v>17.5965615530855</v>
       </c>
       <c r="P7" t="n">
-        <v>345.7874556841518</v>
+        <v>345.9032676650501</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32398,28 +32592,28 @@
         <v>0.0319</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1422441521168084</v>
+        <v>-0.1613986996553745</v>
       </c>
       <c r="J8" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K8" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003339144751769885</v>
+        <v>0.004339535469077949</v>
       </c>
       <c r="M8" t="n">
-        <v>14.54906438687832</v>
+        <v>14.55092903473482</v>
       </c>
       <c r="N8" t="n">
-        <v>343.8505060186254</v>
+        <v>343.029798183963</v>
       </c>
       <c r="O8" t="n">
-        <v>18.54320646540467</v>
+        <v>18.52106363533053</v>
       </c>
       <c r="P8" t="n">
-        <v>343.3066433847509</v>
+        <v>343.4886079095762</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32476,28 +32670,28 @@
         <v>0.0324</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1132612963272767</v>
+        <v>-0.1247747622280582</v>
       </c>
       <c r="J9" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K9" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002472034693590142</v>
+        <v>0.003036083912419385</v>
       </c>
       <c r="M9" t="n">
-        <v>13.55758942164976</v>
+        <v>13.52448607471194</v>
       </c>
       <c r="N9" t="n">
-        <v>293.7678510495659</v>
+        <v>292.4426360208276</v>
       </c>
       <c r="O9" t="n">
-        <v>17.13965726172977</v>
+        <v>17.1009542429897</v>
       </c>
       <c r="P9" t="n">
-        <v>350.4269265829162</v>
+        <v>350.5367050057563</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32554,28 +32748,28 @@
         <v>0.0323</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1806356044125007</v>
+        <v>-0.19418875544679</v>
       </c>
       <c r="J10" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K10" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L10" t="n">
-        <v>0.006137425074204117</v>
+        <v>0.007175604929322787</v>
       </c>
       <c r="M10" t="n">
-        <v>13.72588030644463</v>
+        <v>13.70433111552789</v>
       </c>
       <c r="N10" t="n">
-        <v>300.4977753313473</v>
+        <v>299.2194630807522</v>
       </c>
       <c r="O10" t="n">
-        <v>17.33487165603908</v>
+        <v>17.29796124058417</v>
       </c>
       <c r="P10" t="n">
-        <v>351.4562595335388</v>
+        <v>351.5841469458646</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32632,28 +32826,28 @@
         <v>0.0286</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1063550073050272</v>
+        <v>-0.1170878791004038</v>
       </c>
       <c r="J11" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K11" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002253798360440928</v>
+        <v>0.002763419141201706</v>
       </c>
       <c r="M11" t="n">
-        <v>13.49725039875608</v>
+        <v>13.46008664630218</v>
       </c>
       <c r="N11" t="n">
-        <v>285.0526687230831</v>
+        <v>283.97606201627</v>
       </c>
       <c r="O11" t="n">
-        <v>16.88350285702239</v>
+        <v>16.8515893023854</v>
       </c>
       <c r="P11" t="n">
-        <v>346.991722929593</v>
+        <v>347.0930023958787</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32710,28 +32904,28 @@
         <v>0.0354</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.09216451292552218</v>
+        <v>-0.1026127005118342</v>
       </c>
       <c r="J12" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K12" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001922410522938622</v>
+        <v>0.002412257184062794</v>
       </c>
       <c r="M12" t="n">
-        <v>12.61425744665802</v>
+        <v>12.58075548444112</v>
       </c>
       <c r="N12" t="n">
-        <v>253.6620085510246</v>
+        <v>252.5219661576008</v>
       </c>
       <c r="O12" t="n">
-        <v>15.92677018579174</v>
+        <v>15.89093975061264</v>
       </c>
       <c r="P12" t="n">
-        <v>341.2282274897594</v>
+        <v>341.3264374410266</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -32788,28 +32982,28 @@
         <v>0.0423</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.02585275056279289</v>
+        <v>-0.0391429741459819</v>
       </c>
       <c r="J13" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K13" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0001676577514971855</v>
+        <v>0.0003887370695222492</v>
       </c>
       <c r="M13" t="n">
-        <v>11.67458406680162</v>
+        <v>11.66061652050591</v>
       </c>
       <c r="N13" t="n">
-        <v>224.6901727280152</v>
+        <v>223.922533071227</v>
       </c>
       <c r="O13" t="n">
-        <v>14.98966886652321</v>
+        <v>14.96404133485426</v>
       </c>
       <c r="P13" t="n">
-        <v>335.3191176787277</v>
+        <v>335.4458283098244</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -32866,28 +33060,28 @@
         <v>0.035</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.0342603414661405</v>
+        <v>-0.05681776889747345</v>
       </c>
       <c r="J14" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K14" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0003311075651106776</v>
+        <v>0.0009139552233439208</v>
       </c>
       <c r="M14" t="n">
-        <v>10.92231230851128</v>
+        <v>10.96613133196068</v>
       </c>
       <c r="N14" t="n">
-        <v>195.2326501822371</v>
+        <v>196.0527146476539</v>
       </c>
       <c r="O14" t="n">
-        <v>13.97256777339932</v>
+        <v>14.00188253941783</v>
       </c>
       <c r="P14" t="n">
-        <v>334.3001190194431</v>
+        <v>334.5171383859411</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -32944,28 +33138,28 @@
         <v>0.0319</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1107882144639966</v>
+        <v>0.07575250687575635</v>
       </c>
       <c r="J15" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K15" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L15" t="n">
-        <v>0.002724884042156872</v>
+        <v>0.001271952948845301</v>
       </c>
       <c r="M15" t="n">
-        <v>12.56834341215324</v>
+        <v>12.66077381576126</v>
       </c>
       <c r="N15" t="n">
-        <v>250.2215173400394</v>
+        <v>253.1795406856695</v>
       </c>
       <c r="O15" t="n">
-        <v>15.81839174315895</v>
+        <v>15.91161653276214</v>
       </c>
       <c r="P15" t="n">
-        <v>331.8458456955674</v>
+        <v>332.1784359068066</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -33022,28 +33216,28 @@
         <v>0.0319</v>
       </c>
       <c r="I16" t="n">
-        <v>0.219941942401006</v>
+        <v>0.1809093421514857</v>
       </c>
       <c r="J16" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K16" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01030125819191052</v>
+        <v>0.006935713753320916</v>
       </c>
       <c r="M16" t="n">
-        <v>12.77738000204413</v>
+        <v>12.88276607332399</v>
       </c>
       <c r="N16" t="n">
-        <v>262.0216008220797</v>
+        <v>266.3921064062735</v>
       </c>
       <c r="O16" t="n">
-        <v>16.18708129410857</v>
+        <v>16.32152279679422</v>
       </c>
       <c r="P16" t="n">
-        <v>329.5746839978819</v>
+        <v>329.9450088269008</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -33100,28 +33294,28 @@
         <v>0.0313</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3888212747088121</v>
+        <v>0.3465682164231401</v>
       </c>
       <c r="J17" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K17" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0296000361372506</v>
+        <v>0.02345090046844245</v>
       </c>
       <c r="M17" t="n">
-        <v>13.22430829709489</v>
+        <v>13.3519156054226</v>
       </c>
       <c r="N17" t="n">
-        <v>279.9618437168609</v>
+        <v>284.9054637236817</v>
       </c>
       <c r="O17" t="n">
-        <v>16.73206035480571</v>
+        <v>16.87914286104842</v>
       </c>
       <c r="P17" t="n">
-        <v>323.4309691921959</v>
+        <v>323.8319709915299</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -33178,28 +33372,28 @@
         <v>0.0293</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5133130709481328</v>
+        <v>0.4669824141131204</v>
       </c>
       <c r="J18" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K18" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L18" t="n">
-        <v>0.04670637526766186</v>
+        <v>0.03850055150667142</v>
       </c>
       <c r="M18" t="n">
-        <v>14.18475069529399</v>
+        <v>14.34113519075189</v>
       </c>
       <c r="N18" t="n">
-        <v>304.7420403453999</v>
+        <v>311.2923716493875</v>
       </c>
       <c r="O18" t="n">
-        <v>17.45686227090653</v>
+        <v>17.64347957885256</v>
       </c>
       <c r="P18" t="n">
-        <v>319.6281327333414</v>
+        <v>320.064193754165</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -33256,28 +33450,28 @@
         <v>0.0312</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5370697277262934</v>
+        <v>0.4874785859405394</v>
       </c>
       <c r="J19" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K19" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L19" t="n">
-        <v>0.05323845549742012</v>
+        <v>0.04354899028772197</v>
       </c>
       <c r="M19" t="n">
-        <v>13.88526531495437</v>
+        <v>14.05526518600698</v>
       </c>
       <c r="N19" t="n">
-        <v>291.895477460284</v>
+        <v>299.5410201879319</v>
       </c>
       <c r="O19" t="n">
-        <v>17.08494885740908</v>
+        <v>17.30725339815454</v>
       </c>
       <c r="P19" t="n">
-        <v>317.4311572859364</v>
+        <v>317.8976063229036</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -33334,28 +33528,28 @@
         <v>0.0333</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6324046300269081</v>
+        <v>0.5820968447397776</v>
       </c>
       <c r="J20" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K20" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0708973413033025</v>
+        <v>0.05974219495861022</v>
       </c>
       <c r="M20" t="n">
-        <v>13.82346231458163</v>
+        <v>13.96146515530537</v>
       </c>
       <c r="N20" t="n">
-        <v>294.6798687028393</v>
+        <v>302.4128927620629</v>
       </c>
       <c r="O20" t="n">
-        <v>17.16624212525383</v>
+        <v>17.39002279360389</v>
       </c>
       <c r="P20" t="n">
-        <v>317.2417639053921</v>
+        <v>317.7182008134863</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -33412,28 +33606,28 @@
         <v>0.0342</v>
       </c>
       <c r="I21" t="n">
-        <v>0.553679319978771</v>
+        <v>0.5107816511953183</v>
       </c>
       <c r="J21" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K21" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L21" t="n">
-        <v>0.05859657114984296</v>
+        <v>0.04985536179812677</v>
       </c>
       <c r="M21" t="n">
-        <v>13.64542759168681</v>
+        <v>13.73966199762388</v>
       </c>
       <c r="N21" t="n">
-        <v>281.361833463405</v>
+        <v>286.3823241265008</v>
       </c>
       <c r="O21" t="n">
-        <v>16.77384372955123</v>
+        <v>16.92283439990183</v>
       </c>
       <c r="P21" t="n">
-        <v>324.534729006719</v>
+        <v>324.9445636847526</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -33490,28 +33684,28 @@
         <v>0.0368</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6254896753363428</v>
+        <v>0.5982891096982211</v>
       </c>
       <c r="J22" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K22" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L22" t="n">
-        <v>0.07568269373861436</v>
+        <v>0.07000225552099792</v>
       </c>
       <c r="M22" t="n">
-        <v>13.42580247396758</v>
+        <v>13.46593841201796</v>
       </c>
       <c r="N22" t="n">
-        <v>274.4740417035251</v>
+        <v>275.3296830538515</v>
       </c>
       <c r="O22" t="n">
-        <v>16.56725812268056</v>
+        <v>16.59306129241532</v>
       </c>
       <c r="P22" t="n">
-        <v>332.7262283667584</v>
+        <v>332.9872043688172</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -33568,28 +33762,28 @@
         <v>0.0331</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4660296141471583</v>
+        <v>0.4367308006088965</v>
       </c>
       <c r="J23" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K23" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L23" t="n">
-        <v>0.04058753479269972</v>
+        <v>0.03595451488425028</v>
       </c>
       <c r="M23" t="n">
-        <v>13.68174113401072</v>
+        <v>13.73120774552888</v>
       </c>
       <c r="N23" t="n">
-        <v>293.1827514860769</v>
+        <v>294.4879448827113</v>
       </c>
       <c r="O23" t="n">
-        <v>17.12258016439336</v>
+        <v>17.1606510623202</v>
       </c>
       <c r="P23" t="n">
-        <v>341.6867483484854</v>
+        <v>341.9679217804802</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -33646,28 +33840,28 @@
         <v>0.0269</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6272728988684354</v>
+        <v>0.5933140472401789</v>
       </c>
       <c r="J24" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K24" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L24" t="n">
-        <v>0.05454162134943075</v>
+        <v>0.04932375911402487</v>
       </c>
       <c r="M24" t="n">
-        <v>15.95679489429056</v>
+        <v>16.00536769194479</v>
       </c>
       <c r="N24" t="n">
-        <v>381.0010619378203</v>
+        <v>382.6240228678161</v>
       </c>
       <c r="O24" t="n">
-        <v>19.51924849828549</v>
+        <v>19.56077766521096</v>
       </c>
       <c r="P24" t="n">
-        <v>347.2289800405104</v>
+        <v>347.5477964186211</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -33724,28 +33918,28 @@
         <v>0.0311</v>
       </c>
       <c r="I25" t="n">
-        <v>0.643381014023339</v>
+        <v>0.6192816287932865</v>
       </c>
       <c r="J25" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K25" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L25" t="n">
-        <v>0.06727761217231099</v>
+        <v>0.06314364022111185</v>
       </c>
       <c r="M25" t="n">
-        <v>14.74549696766977</v>
+        <v>14.75531711765791</v>
       </c>
       <c r="N25" t="n">
-        <v>327.4170865495194</v>
+        <v>327.3931953492516</v>
       </c>
       <c r="O25" t="n">
-        <v>18.09467011441544</v>
+        <v>18.09400993006392</v>
       </c>
       <c r="P25" t="n">
-        <v>345.9677377398656</v>
+        <v>346.1952371489976</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -33802,28 +33996,28 @@
         <v>0.0419</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5600349749843857</v>
+        <v>0.5403315911959</v>
       </c>
       <c r="J26" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K26" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L26" t="n">
-        <v>0.05354226036398146</v>
+        <v>0.05052308297052177</v>
       </c>
       <c r="M26" t="n">
-        <v>14.44328355568047</v>
+        <v>14.42922012359026</v>
       </c>
       <c r="N26" t="n">
-        <v>313.1812758280994</v>
+        <v>312.5844546513694</v>
       </c>
       <c r="O26" t="n">
-        <v>17.69692842919639</v>
+        <v>17.68005810656089</v>
       </c>
       <c r="P26" t="n">
-        <v>343.7422152024944</v>
+        <v>343.9286502979799</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -33861,7 +34055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA344"/>
+  <dimension ref="A1:AA346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44012,7 +44206,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>-37.714794307512335,178.5283827247743</t>
+          <t>-37.71479430751234,178.5283827247743</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -61175,7 +61369,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>-37.71166636511197,178.530658013221</t>
+          <t>-37.71166636511196,178.530658013221</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -69522,7 +69716,7 @@
       </c>
       <c r="V290" t="inlineStr">
         <is>
-          <t>-37.720549619218545,178.52485001576096</t>
+          <t>-37.72054961921855,178.52485001576096</t>
         </is>
       </c>
       <c r="W290" t="inlineStr">
@@ -76605,6 +76799,280 @@
         </is>
       </c>
     </row>
+    <row r="345">
+      <c r="A345" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:53:08+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>-37.70855551696663,178.53438549531316</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>-37.70905193823833,178.5337275512572</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>-37.709611233909314,178.53317418881974</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>-37.71016616372061,178.53261357172394</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>-37.71071427419536,178.5320416192461</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>-37.71125449863442,178.5314565572052</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>-37.711767439243005,178.53082612254732</t>
+        </is>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>-37.71241137340496,178.53040616015966</t>
+        </is>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>-37.712964669222764,178.5298079239358</t>
+        </is>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>-37.713621646971376,178.5294257567479</t>
+        </is>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>-37.71420756328721,178.52890321780743</t>
+        </is>
+      </c>
+      <c r="M345" t="inlineStr">
+        <is>
+          <t>-37.71478963449008,178.52837124771636</t>
+        </is>
+      </c>
+      <c r="N345" t="inlineStr">
+        <is>
+          <t>-37.715387386215774,178.52787780191912</t>
+        </is>
+      </c>
+      <c r="O345" t="inlineStr">
+        <is>
+          <t>-37.71597452722976,178.5273355984753</t>
+        </is>
+      </c>
+      <c r="P345" t="inlineStr">
+        <is>
+          <t>-37.71661691288467,178.5269160791862</t>
+        </is>
+      </c>
+      <c r="Q345" t="inlineStr">
+        <is>
+          <t>-37.717236283989756,178.52645311489346</t>
+        </is>
+      </c>
+      <c r="R345" t="inlineStr">
+        <is>
+          <t>-37.71788598169071,178.52609083063192</t>
+        </is>
+      </c>
+      <c r="S345" t="inlineStr">
+        <is>
+          <t>-37.71850073059209,178.52562846083796</t>
+        </is>
+      </c>
+      <c r="T345" t="inlineStr">
+        <is>
+          <t>-37.71913300280161,178.52523891001232</t>
+        </is>
+      </c>
+      <c r="U345" t="inlineStr">
+        <is>
+          <t>-37.719793722253385,178.52493206882409</t>
+        </is>
+      </c>
+      <c r="V345" t="inlineStr">
+        <is>
+          <t>-37.720491604431345,178.52469908691774</t>
+        </is>
+      </c>
+      <c r="W345" t="inlineStr">
+        <is>
+          <t>-37.721105497418584,178.52424232216967</t>
+        </is>
+      </c>
+      <c r="X345" t="inlineStr">
+        <is>
+          <t>-37.72177745807082,178.52387622154833</t>
+        </is>
+      </c>
+      <c r="Y345" t="inlineStr">
+        <is>
+          <t>-37.72249830669822,178.52370538155435</t>
+        </is>
+      </c>
+      <c r="Z345" t="inlineStr">
+        <is>
+          <t>-37.72317625486512,178.52343055629782</t>
+        </is>
+      </c>
+      <c r="AA345" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:53:09+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>-37.70858150965835,178.53442872733908</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>-37.709079558074095,178.53377348949817</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>-37.70958346671633,178.53312800551734</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>-37.71009820965104,178.53250054834479</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>-37.71065591909248,178.53194456112325</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>-37.71122683948118,178.53141055356244</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>-37.71176478177969,178.53082170256826</t>
+        </is>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>-37.71237551506691,178.53034345090737</t>
+        </is>
+      </c>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>-37.71296375031048,178.529805979441</t>
+        </is>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>-37.713562046190795,178.52927937599964</t>
+        </is>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>-37.714172269889495,178.52881653643692</t>
+        </is>
+      </c>
+      <c r="M346" t="inlineStr">
+        <is>
+          <t>-37.714775738390266,178.52833711857835</t>
+        </is>
+      </c>
+      <c r="N346" t="inlineStr">
+        <is>
+          <t>-37.715347050345024,178.5277787361459</t>
+        </is>
+      </c>
+      <c r="O346" t="inlineStr">
+        <is>
+          <t>-37.71594885659038,178.52726941813847</t>
+        </is>
+      </c>
+      <c r="P346" t="inlineStr">
+        <is>
+          <t>-37.716571426418476,178.52678937768837</t>
+        </is>
+      </c>
+      <c r="Q346" t="inlineStr">
+        <is>
+          <t>-37.717212020306754,178.5263836185651</t>
+        </is>
+      </c>
+      <c r="R346" t="inlineStr">
+        <is>
+          <t>-37.71781572144962,178.5258895900603</t>
+        </is>
+      </c>
+      <c r="S346" t="inlineStr">
+        <is>
+          <t>-37.71844757402648,178.52547620868538</t>
+        </is>
+      </c>
+      <c r="T346" t="inlineStr">
+        <is>
+          <t>-37.719089725124164,178.52511951483498</t>
+        </is>
+      </c>
+      <c r="U346" t="inlineStr">
+        <is>
+          <t>-37.71976377032701,178.52485328514726</t>
+        </is>
+      </c>
+      <c r="V346" t="inlineStr">
+        <is>
+          <t>-37.72048578280848,178.52468394166993</t>
+        </is>
+      </c>
+      <c r="W346" t="inlineStr">
+        <is>
+          <t>-37.721156818511254,178.52437583713345</t>
+        </is>
+      </c>
+      <c r="X346" t="inlineStr">
+        <is>
+          <t>-37.72181471946358,178.52400109398127</t>
+        </is>
+      </c>
+      <c r="Y346" t="inlineStr">
+        <is>
+          <t>-37.72250388379148,178.52373161211094</t>
+        </is>
+      </c>
+      <c r="Z346" t="inlineStr">
+        <is>
+          <t>-37.723181773830156,178.52345719095712</t>
+        </is>
+      </c>
+      <c r="AA346" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0218/nzd0218.xlsx
+++ b/data/nzd0218/nzd0218.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA346"/>
+  <dimension ref="A1:AA348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28392,6 +28392,132 @@
         </is>
       </c>
     </row>
+    <row r="347">
+      <c r="A347" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-03 21:53:26+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr"/>
+      <c r="C347" t="inlineStr"/>
+      <c r="D347" t="inlineStr"/>
+      <c r="E347" t="inlineStr"/>
+      <c r="F347" t="inlineStr"/>
+      <c r="G347" t="inlineStr"/>
+      <c r="H347" t="inlineStr"/>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
+      <c r="L347" t="inlineStr"/>
+      <c r="M347" t="inlineStr"/>
+      <c r="N347" t="inlineStr"/>
+      <c r="O347" t="inlineStr"/>
+      <c r="P347" t="inlineStr"/>
+      <c r="Q347" t="inlineStr"/>
+      <c r="R347" t="inlineStr"/>
+      <c r="S347" t="inlineStr"/>
+      <c r="T347" t="inlineStr"/>
+      <c r="U347" t="inlineStr"/>
+      <c r="V347" t="n">
+        <v>367.9714285714285</v>
+      </c>
+      <c r="W347" t="n">
+        <v>370.34</v>
+      </c>
+      <c r="X347" t="n">
+        <v>342.97</v>
+      </c>
+      <c r="Y347" t="inlineStr"/>
+      <c r="Z347" t="inlineStr"/>
+      <c r="AA347" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-11 21:53:24+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>344.8885714285714</v>
+      </c>
+      <c r="C348" t="n">
+        <v>335.2185714285715</v>
+      </c>
+      <c r="D348" t="n">
+        <v>338.69</v>
+      </c>
+      <c r="E348" t="n">
+        <v>333.65</v>
+      </c>
+      <c r="F348" t="n">
+        <v>330.0733333333333</v>
+      </c>
+      <c r="G348" t="n">
+        <v>332.1533333333333</v>
+      </c>
+      <c r="H348" t="n">
+        <v>331.0133333333333</v>
+      </c>
+      <c r="I348" t="n">
+        <v>336.3333333333333</v>
+      </c>
+      <c r="J348" t="n">
+        <v>332.6333333333333</v>
+      </c>
+      <c r="K348" t="n">
+        <v>330.37</v>
+      </c>
+      <c r="L348" t="n">
+        <v>324.8733333333333</v>
+      </c>
+      <c r="M348" t="n">
+        <v>318.76</v>
+      </c>
+      <c r="N348" t="n">
+        <v>316.2433333333333</v>
+      </c>
+      <c r="O348" t="n">
+        <v>317.4533333333333</v>
+      </c>
+      <c r="P348" t="n">
+        <v>310.4933333333333</v>
+      </c>
+      <c r="Q348" t="n">
+        <v>303.1733333333333</v>
+      </c>
+      <c r="R348" t="n">
+        <v>299.95</v>
+      </c>
+      <c r="S348" t="n">
+        <v>295.5833333333333</v>
+      </c>
+      <c r="T348" t="n">
+        <v>300.4833333333333</v>
+      </c>
+      <c r="U348" t="n">
+        <v>307.1933333333333</v>
+      </c>
+      <c r="V348" t="inlineStr"/>
+      <c r="W348" t="inlineStr"/>
+      <c r="X348" t="n">
+        <v>334.77</v>
+      </c>
+      <c r="Y348" t="n">
+        <v>342.2533333333333</v>
+      </c>
+      <c r="Z348" t="n">
+        <v>340.0985714285715</v>
+      </c>
+      <c r="AA348" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28403,7 +28529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B354"/>
+  <dimension ref="A1:B356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31951,6 +32077,26 @@
       </c>
       <c r="B354" t="n">
         <v>-0.44</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>2025-07-03 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>2025-07-11 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>-0.02</v>
       </c>
     </row>
   </sheetData>
@@ -32124,28 +32270,28 @@
         <v>0.0405</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1437171888787324</v>
+        <v>-0.1454189020057789</v>
       </c>
       <c r="J2" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K2" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004307328454317805</v>
+        <v>0.004441913162287592</v>
       </c>
       <c r="M2" t="n">
-        <v>13.28343375646562</v>
+        <v>13.24916112289535</v>
       </c>
       <c r="N2" t="n">
-        <v>271.7020057672456</v>
+        <v>270.858867771835</v>
       </c>
       <c r="O2" t="n">
-        <v>16.48338574951292</v>
+        <v>16.45779048875744</v>
       </c>
       <c r="P2" t="n">
-        <v>351.2671874146106</v>
+        <v>351.2832758319581</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32202,28 +32348,28 @@
         <v>0.0374</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1397789491032011</v>
+        <v>-0.1450714956294238</v>
       </c>
       <c r="J3" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K3" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003429625701286909</v>
+        <v>0.003718669823638665</v>
       </c>
       <c r="M3" t="n">
-        <v>14.41924168373276</v>
+        <v>14.39862768167118</v>
       </c>
       <c r="N3" t="n">
-        <v>325.8416180834383</v>
+        <v>325.0040365217475</v>
       </c>
       <c r="O3" t="n">
-        <v>18.05108357089508</v>
+        <v>18.0278683299426</v>
       </c>
       <c r="P3" t="n">
-        <v>347.0231598970618</v>
+        <v>347.0728345332943</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32280,28 +32426,28 @@
         <v>0.0304</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.138247984385776</v>
+        <v>-0.1406232739403399</v>
       </c>
       <c r="J4" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K4" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003229585777547839</v>
+        <v>0.003365839572446738</v>
       </c>
       <c r="M4" t="n">
-        <v>14.84270465620748</v>
+        <v>14.80648502782606</v>
       </c>
       <c r="N4" t="n">
-        <v>344.5527958993911</v>
+        <v>343.4519613120394</v>
       </c>
       <c r="O4" t="n">
-        <v>18.56213338760906</v>
+        <v>18.53245696911339</v>
       </c>
       <c r="P4" t="n">
-        <v>345.9283282364843</v>
+        <v>345.9505224919961</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32358,28 +32504,28 @@
         <v>0.0309</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1822016373816304</v>
+        <v>-0.1846290298822584</v>
       </c>
       <c r="J5" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K5" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005303921550914525</v>
+        <v>0.005486877328153339</v>
       </c>
       <c r="M5" t="n">
-        <v>15.06154059839002</v>
+        <v>15.02343378421248</v>
       </c>
       <c r="N5" t="n">
-        <v>371.1869474269007</v>
+        <v>369.9434493954884</v>
       </c>
       <c r="O5" t="n">
-        <v>19.26621258646599</v>
+        <v>19.23391404253145</v>
       </c>
       <c r="P5" t="n">
-        <v>342.0091616805041</v>
+        <v>342.0315335682104</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32436,28 +32582,28 @@
         <v>0.0345</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2628329774373991</v>
+        <v>-0.2675529867504005</v>
       </c>
       <c r="J6" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K6" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01340176278808758</v>
+        <v>0.01397423567403699</v>
       </c>
       <c r="M6" t="n">
-        <v>13.42391559100068</v>
+        <v>13.4052129182395</v>
       </c>
       <c r="N6" t="n">
-        <v>296.755885450066</v>
+        <v>295.9423129373442</v>
       </c>
       <c r="O6" t="n">
-        <v>17.22660400224217</v>
+        <v>17.20297395618979</v>
       </c>
       <c r="P6" t="n">
-        <v>344.1868420088877</v>
+        <v>344.2312594028253</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32514,28 +32660,28 @@
         <v>0.0327</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2913839907383415</v>
+        <v>-0.2953391347327703</v>
       </c>
       <c r="J7" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K7" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01536688358431659</v>
+        <v>0.01588703943638148</v>
       </c>
       <c r="M7" t="n">
-        <v>13.779304124972</v>
+        <v>13.75501309205462</v>
       </c>
       <c r="N7" t="n">
-        <v>309.638978491527</v>
+        <v>308.759755348468</v>
       </c>
       <c r="O7" t="n">
-        <v>17.5965615530855</v>
+        <v>17.57156098212302</v>
       </c>
       <c r="P7" t="n">
-        <v>345.9032676650501</v>
+        <v>345.9411935535587</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32592,28 +32738,28 @@
         <v>0.0319</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1613986996553745</v>
+        <v>-0.1667019735982237</v>
       </c>
       <c r="J8" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K8" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004339535469077949</v>
+        <v>0.004658639189414227</v>
       </c>
       <c r="M8" t="n">
-        <v>14.55092903473482</v>
+        <v>14.53061634204478</v>
       </c>
       <c r="N8" t="n">
-        <v>343.029798183963</v>
+        <v>342.1310054118871</v>
       </c>
       <c r="O8" t="n">
-        <v>18.52106363533053</v>
+        <v>18.49678365045899</v>
       </c>
       <c r="P8" t="n">
-        <v>343.4886079095762</v>
+        <v>343.5392238443067</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32670,28 +32816,28 @@
         <v>0.0324</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1247747622280582</v>
+        <v>-0.1317733897298095</v>
       </c>
       <c r="J9" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K9" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003036083912419385</v>
+        <v>0.003405000125278335</v>
       </c>
       <c r="M9" t="n">
-        <v>13.52448607471194</v>
+        <v>13.51448424169548</v>
       </c>
       <c r="N9" t="n">
-        <v>292.4426360208276</v>
+        <v>291.8777830816938</v>
       </c>
       <c r="O9" t="n">
-        <v>17.1009542429897</v>
+        <v>17.08443101428004</v>
       </c>
       <c r="P9" t="n">
-        <v>350.5367050057563</v>
+        <v>350.6037345710494</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32748,28 +32894,28 @@
         <v>0.0323</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.19418875544679</v>
+        <v>-0.2032224789730763</v>
       </c>
       <c r="J10" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K10" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L10" t="n">
-        <v>0.007175604929322787</v>
+        <v>0.007895198768865908</v>
       </c>
       <c r="M10" t="n">
-        <v>13.70433111552789</v>
+        <v>13.70468324471092</v>
       </c>
       <c r="N10" t="n">
-        <v>299.2194630807522</v>
+        <v>298.8664716214694</v>
       </c>
       <c r="O10" t="n">
-        <v>17.29796124058417</v>
+        <v>17.28775496186447</v>
       </c>
       <c r="P10" t="n">
-        <v>351.5841469458646</v>
+        <v>351.6697821815517</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32826,28 +32972,28 @@
         <v>0.0286</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1170878791004038</v>
+        <v>-0.1259074689464363</v>
       </c>
       <c r="J11" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K11" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002763419141201706</v>
+        <v>0.003210842602119346</v>
       </c>
       <c r="M11" t="n">
-        <v>13.46008664630218</v>
+        <v>13.45772416685177</v>
       </c>
       <c r="N11" t="n">
-        <v>283.97606201627</v>
+        <v>283.654757873173</v>
       </c>
       <c r="O11" t="n">
-        <v>16.8515893023854</v>
+        <v>16.84205325585847</v>
       </c>
       <c r="P11" t="n">
-        <v>347.0930023958787</v>
+        <v>347.1765742997035</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32904,28 +33050,28 @@
         <v>0.0354</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1026127005118342</v>
+        <v>-0.111530408685425</v>
       </c>
       <c r="J12" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K12" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002412257184062794</v>
+        <v>0.002862551480739439</v>
       </c>
       <c r="M12" t="n">
-        <v>12.58075548444112</v>
+        <v>12.58270746686962</v>
       </c>
       <c r="N12" t="n">
-        <v>252.5219661576008</v>
+        <v>252.3089546065075</v>
       </c>
       <c r="O12" t="n">
-        <v>15.89093975061264</v>
+        <v>15.88423604100957</v>
       </c>
       <c r="P12" t="n">
-        <v>341.3264374410266</v>
+        <v>341.4106327589507</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -32982,28 +33128,28 @@
         <v>0.0423</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.0391429741459819</v>
+        <v>-0.0492265930380151</v>
       </c>
       <c r="J13" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K13" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0003887370695222492</v>
+        <v>0.0006170194676360374</v>
       </c>
       <c r="M13" t="n">
-        <v>11.66061652050591</v>
+        <v>11.6694349533978</v>
       </c>
       <c r="N13" t="n">
-        <v>223.922533071227</v>
+        <v>223.9844322875527</v>
       </c>
       <c r="O13" t="n">
-        <v>14.96404133485426</v>
+        <v>14.96610945728892</v>
       </c>
       <c r="P13" t="n">
-        <v>335.4458283098244</v>
+        <v>335.5424011907136</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -33060,28 +33206,28 @@
         <v>0.035</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.05681776889747345</v>
+        <v>-0.06760955371600579</v>
       </c>
       <c r="J14" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K14" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0009139552233439208</v>
+        <v>0.001297308724761415</v>
       </c>
       <c r="M14" t="n">
-        <v>10.96613133196068</v>
+        <v>10.98871252571243</v>
       </c>
       <c r="N14" t="n">
-        <v>196.0527146476539</v>
+        <v>196.3153303102804</v>
       </c>
       <c r="O14" t="n">
-        <v>14.00188253941783</v>
+        <v>14.0112572708619</v>
       </c>
       <c r="P14" t="n">
-        <v>334.5171383859411</v>
+        <v>334.6214079963351</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -33138,28 +33284,28 @@
         <v>0.0319</v>
       </c>
       <c r="I15" t="n">
-        <v>0.07575250687575635</v>
+        <v>0.06483173508145959</v>
       </c>
       <c r="J15" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K15" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001271952948845301</v>
+        <v>0.0009357568332076793</v>
       </c>
       <c r="M15" t="n">
-        <v>12.66077381576126</v>
+        <v>12.67464939394281</v>
       </c>
       <c r="N15" t="n">
-        <v>253.1795406856695</v>
+        <v>253.251482515192</v>
       </c>
       <c r="O15" t="n">
-        <v>15.91161653276214</v>
+        <v>15.91387704222928</v>
       </c>
       <c r="P15" t="n">
-        <v>332.1784359068066</v>
+        <v>332.2825588892248</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -33216,28 +33362,28 @@
         <v>0.0319</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1809093421514857</v>
+        <v>0.1654162920819577</v>
       </c>
       <c r="J16" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K16" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L16" t="n">
-        <v>0.006935713753320916</v>
+        <v>0.005807552944934513</v>
       </c>
       <c r="M16" t="n">
-        <v>12.88276607332399</v>
+        <v>12.91865878008325</v>
       </c>
       <c r="N16" t="n">
-        <v>266.3921064062735</v>
+        <v>267.3900665730144</v>
       </c>
       <c r="O16" t="n">
-        <v>16.32152279679422</v>
+        <v>16.35206612550886</v>
       </c>
       <c r="P16" t="n">
-        <v>329.9450088269008</v>
+        <v>330.0926554727474</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -33294,28 +33440,28 @@
         <v>0.0313</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3465682164231401</v>
+        <v>0.3271886366801167</v>
       </c>
       <c r="J17" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K17" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02345090046844245</v>
+        <v>0.02090295826071187</v>
       </c>
       <c r="M17" t="n">
-        <v>13.3519156054226</v>
+        <v>13.40796823976719</v>
       </c>
       <c r="N17" t="n">
-        <v>284.9054637236817</v>
+        <v>286.8283836045184</v>
       </c>
       <c r="O17" t="n">
-        <v>16.87914286104842</v>
+        <v>16.93600849092012</v>
       </c>
       <c r="P17" t="n">
-        <v>323.8319709915299</v>
+        <v>324.0167264508765</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -33372,28 +33518,28 @@
         <v>0.0293</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4669824141131204</v>
+        <v>0.4457182907359247</v>
       </c>
       <c r="J18" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K18" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L18" t="n">
-        <v>0.03850055150667142</v>
+        <v>0.03508492398586172</v>
       </c>
       <c r="M18" t="n">
-        <v>14.34113519075189</v>
+        <v>14.40841579719409</v>
       </c>
       <c r="N18" t="n">
-        <v>311.2923716493875</v>
+        <v>313.6548411687515</v>
       </c>
       <c r="O18" t="n">
-        <v>17.64347957885256</v>
+        <v>17.71030324892128</v>
       </c>
       <c r="P18" t="n">
-        <v>320.064193754165</v>
+        <v>320.2652130224666</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -33450,28 +33596,28 @@
         <v>0.0312</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4874785859405394</v>
+        <v>0.464557568729369</v>
       </c>
       <c r="J19" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K19" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L19" t="n">
-        <v>0.04354899028772197</v>
+        <v>0.03949156279504173</v>
       </c>
       <c r="M19" t="n">
-        <v>14.05526518600698</v>
+        <v>14.13187576530771</v>
       </c>
       <c r="N19" t="n">
-        <v>299.5410201879319</v>
+        <v>302.5415947809983</v>
       </c>
       <c r="O19" t="n">
-        <v>17.30725339815454</v>
+        <v>17.39372285570281</v>
       </c>
       <c r="P19" t="n">
-        <v>317.8976063229036</v>
+        <v>318.114168057547</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -33528,28 +33674,28 @@
         <v>0.0333</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5820968447397776</v>
+        <v>0.5610037767758476</v>
       </c>
       <c r="J20" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K20" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L20" t="n">
-        <v>0.05974219495861022</v>
+        <v>0.05554096544965259</v>
       </c>
       <c r="M20" t="n">
-        <v>13.96146515530537</v>
+        <v>14.01224316788388</v>
       </c>
       <c r="N20" t="n">
-        <v>302.4128927620629</v>
+        <v>304.788347746338</v>
       </c>
       <c r="O20" t="n">
-        <v>17.39002279360389</v>
+        <v>17.45818855856294</v>
       </c>
       <c r="P20" t="n">
-        <v>317.7182008134863</v>
+        <v>317.9188483203898</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -33606,28 +33752,28 @@
         <v>0.0342</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5107816511953183</v>
+        <v>0.4898219004697402</v>
       </c>
       <c r="J21" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K21" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L21" t="n">
-        <v>0.04985536179812677</v>
+        <v>0.0458558025552126</v>
       </c>
       <c r="M21" t="n">
-        <v>13.73966199762388</v>
+        <v>13.78489669461026</v>
       </c>
       <c r="N21" t="n">
-        <v>286.3823241265008</v>
+        <v>288.7115789780916</v>
       </c>
       <c r="O21" t="n">
-        <v>16.92283439990183</v>
+        <v>16.99151491121647</v>
       </c>
       <c r="P21" t="n">
-        <v>324.9445636847526</v>
+        <v>325.14575498978</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -33684,28 +33830,28 @@
         <v>0.0368</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5982891096982211</v>
+        <v>0.6114476173572913</v>
       </c>
       <c r="J22" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K22" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L22" t="n">
-        <v>0.07000225552099792</v>
+        <v>0.0730645873427973</v>
       </c>
       <c r="M22" t="n">
-        <v>13.46593841201796</v>
+        <v>13.48910922665591</v>
       </c>
       <c r="N22" t="n">
-        <v>275.3296830538515</v>
+        <v>275.6869794829098</v>
       </c>
       <c r="O22" t="n">
-        <v>16.59306129241532</v>
+        <v>16.60382424271318</v>
       </c>
       <c r="P22" t="n">
-        <v>332.9872043688172</v>
+        <v>332.8604743236433</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -33762,28 +33908,28 @@
         <v>0.0331</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4367308006088965</v>
+        <v>0.4486146747153461</v>
       </c>
       <c r="J23" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K23" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L23" t="n">
-        <v>0.03595451488425028</v>
+        <v>0.03801526056492566</v>
       </c>
       <c r="M23" t="n">
-        <v>13.73120774552888</v>
+        <v>13.74264996071861</v>
       </c>
       <c r="N23" t="n">
-        <v>294.4879448827113</v>
+        <v>294.4628280590485</v>
       </c>
       <c r="O23" t="n">
-        <v>17.1606510623202</v>
+        <v>17.15991923229968</v>
       </c>
       <c r="P23" t="n">
-        <v>341.9679217804802</v>
+        <v>341.8534254443073</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -33840,28 +33986,28 @@
         <v>0.0269</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5933140472401789</v>
+        <v>0.5604587403651711</v>
       </c>
       <c r="J24" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K24" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L24" t="n">
-        <v>0.04932375911402487</v>
+        <v>0.04449380094629685</v>
       </c>
       <c r="M24" t="n">
-        <v>16.00536769194479</v>
+        <v>16.04822719003252</v>
       </c>
       <c r="N24" t="n">
-        <v>382.6240228678161</v>
+        <v>383.9661101410838</v>
       </c>
       <c r="O24" t="n">
-        <v>19.56077766521096</v>
+        <v>19.5950532058753</v>
       </c>
       <c r="P24" t="n">
-        <v>347.5477964186211</v>
+        <v>347.8575180637701</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -33918,28 +34064,28 @@
         <v>0.0311</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6192816287932865</v>
+        <v>0.6060360778082039</v>
       </c>
       <c r="J25" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K25" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L25" t="n">
-        <v>0.06314364022111185</v>
+        <v>0.06083336898122804</v>
       </c>
       <c r="M25" t="n">
-        <v>14.75531711765791</v>
+        <v>14.76514268859004</v>
       </c>
       <c r="N25" t="n">
-        <v>327.3931953492516</v>
+        <v>327.6232172133638</v>
       </c>
       <c r="O25" t="n">
-        <v>18.09400993006392</v>
+        <v>18.10036511270874</v>
       </c>
       <c r="P25" t="n">
-        <v>346.1952371489976</v>
+        <v>346.3208628818059</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -33996,28 +34142,28 @@
         <v>0.0419</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5403315911959</v>
+        <v>0.5286593830773818</v>
       </c>
       <c r="J26" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K26" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L26" t="n">
-        <v>0.05052308297052177</v>
+        <v>0.0486631358518641</v>
       </c>
       <c r="M26" t="n">
-        <v>14.42922012359026</v>
+        <v>14.42962027424889</v>
       </c>
       <c r="N26" t="n">
-        <v>312.5844546513694</v>
+        <v>312.5921518082927</v>
       </c>
       <c r="O26" t="n">
-        <v>17.68005810656089</v>
+        <v>17.68027578428268</v>
       </c>
       <c r="P26" t="n">
-        <v>343.9286502979799</v>
+        <v>344.0396022837216</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -34055,7 +34201,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA346"/>
+  <dimension ref="A1:AA348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77073,6 +77219,184 @@
         </is>
       </c>
     </row>
+    <row r="347">
+      <c r="A347" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-03 21:53:26+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr"/>
+      <c r="C347" t="inlineStr"/>
+      <c r="D347" t="inlineStr"/>
+      <c r="E347" t="inlineStr"/>
+      <c r="F347" t="inlineStr"/>
+      <c r="G347" t="inlineStr"/>
+      <c r="H347" t="inlineStr"/>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
+      <c r="L347" t="inlineStr"/>
+      <c r="M347" t="inlineStr"/>
+      <c r="N347" t="inlineStr"/>
+      <c r="O347" t="inlineStr"/>
+      <c r="P347" t="inlineStr"/>
+      <c r="Q347" t="inlineStr"/>
+      <c r="R347" t="inlineStr"/>
+      <c r="S347" t="inlineStr"/>
+      <c r="T347" t="inlineStr"/>
+      <c r="U347" t="inlineStr"/>
+      <c r="V347" t="inlineStr">
+        <is>
+          <t>-37.720641908930894,178.52509011440836</t>
+        </is>
+      </c>
+      <c r="W347" t="inlineStr">
+        <is>
+          <t>-37.72127815902264,178.5246915143064</t>
+        </is>
+      </c>
+      <c r="X347" t="inlineStr">
+        <is>
+          <t>-37.72180884108541,178.52398139399713</t>
+        </is>
+      </c>
+      <c r="Y347" t="inlineStr"/>
+      <c r="Z347" t="inlineStr"/>
+      <c r="AA347" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-11 21:53:24+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>-37.708579611533956,178.53442557030488</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>-37.70907652105529,178.53376843822292</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>-37.7096446955183,178.533229843352</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>-37.71016670605106,178.53261447374695</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>-37.71069664836086,178.53201230334759</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>-37.71125726454861,178.53146115757127</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>-37.71180041346563,178.53088096639485</t>
+        </is>
+      </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>-37.71238207772315,178.5303549277061</t>
+        </is>
+      </c>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>-37.71294702610046,178.5297705896431</t>
+        </is>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>-37.7135690146556,178.5292964906563</t>
+        </is>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>-37.714165670303224,178.52880032773388</t>
+        </is>
+      </c>
+      <c r="M348" t="inlineStr">
+        <is>
+          <t>-37.7147597927047,178.52829795565884</t>
+        </is>
+      </c>
+      <c r="N348" t="inlineStr">
+        <is>
+          <t>-37.71536865300273,178.52783179270097</t>
+        </is>
+      </c>
+      <c r="O348" t="inlineStr">
+        <is>
+          <t>-37.715998975419595,178.527398627407</t>
+        </is>
+      </c>
+      <c r="P348" t="inlineStr">
+        <is>
+          <t>-37.71661484027432,178.52691030596597</t>
+        </is>
+      </c>
+      <c r="Q348" t="inlineStr">
+        <is>
+          <t>-37.7172311853656,178.52643851133965</t>
+        </is>
+      </c>
+      <c r="R348" t="inlineStr">
+        <is>
+          <t>-37.717858354960356,178.5260117015134</t>
+        </is>
+      </c>
+      <c r="S348" t="inlineStr">
+        <is>
+          <t>-37.71848138451998,178.52557304931722</t>
+        </is>
+      </c>
+      <c r="T348" t="inlineStr">
+        <is>
+          <t>-37.71913139854526,178.52523448415434</t>
+        </is>
+      </c>
+      <c r="U348" t="inlineStr">
+        <is>
+          <t>-37.71977874629746,178.5248926769783</t>
+        </is>
+      </c>
+      <c r="V348" t="inlineStr"/>
+      <c r="W348" t="inlineStr"/>
+      <c r="X348" t="inlineStr">
+        <is>
+          <t>-37.72178292561238,178.52389454463795</t>
+        </is>
+      </c>
+      <c r="Y348" t="inlineStr">
+        <is>
+          <t>-37.722496029383365,178.5236946707447</t>
+        </is>
+      </c>
+      <c r="Z348" t="inlineStr">
+        <is>
+          <t>-37.72317201922529,178.52341011502014</t>
+        </is>
+      </c>
+      <c r="AA348" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0218/nzd0218.xlsx
+++ b/data/nzd0218/nzd0218.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA348"/>
+  <dimension ref="A1:AA350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28501,8 +28501,12 @@
       <c r="U348" t="n">
         <v>307.1933333333333</v>
       </c>
-      <c r="V348" t="inlineStr"/>
-      <c r="W348" t="inlineStr"/>
+      <c r="V348" t="n">
+        <v>323.5185714285714</v>
+      </c>
+      <c r="W348" t="n">
+        <v>328.3933333333333</v>
+      </c>
       <c r="X348" t="n">
         <v>334.77</v>
       </c>
@@ -28513,6 +28517,180 @@
         <v>340.0985714285715</v>
       </c>
       <c r="AA348" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-12 21:53:43+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>350.8757142857143</v>
+      </c>
+      <c r="C349" t="n">
+        <v>346.2757142857143</v>
+      </c>
+      <c r="D349" t="n">
+        <v>358.66</v>
+      </c>
+      <c r="E349" t="n">
+        <v>349.48</v>
+      </c>
+      <c r="F349" t="n">
+        <v>338.9133333333333</v>
+      </c>
+      <c r="G349" t="n">
+        <v>330.6833333333333</v>
+      </c>
+      <c r="H349" t="n">
+        <v>315.0433333333333</v>
+      </c>
+      <c r="I349" t="n">
+        <v>322.2033333333333</v>
+      </c>
+      <c r="J349" t="n">
+        <v>324.0033333333333</v>
+      </c>
+      <c r="K349" t="n">
+        <v>338.08</v>
+      </c>
+      <c r="L349" t="n">
+        <v>334.2333333333333</v>
+      </c>
+      <c r="M349" t="n">
+        <v>325.16</v>
+      </c>
+      <c r="N349" t="n">
+        <v>327.2433333333333</v>
+      </c>
+      <c r="O349" t="n">
+        <v>324.4233333333333</v>
+      </c>
+      <c r="P349" t="n">
+        <v>316.4433333333333</v>
+      </c>
+      <c r="Q349" t="n">
+        <v>314.2933333333333</v>
+      </c>
+      <c r="R349" t="n">
+        <v>312.72</v>
+      </c>
+      <c r="S349" t="n">
+        <v>309.4033333333333</v>
+      </c>
+      <c r="T349" t="n">
+        <v>306.6333333333333</v>
+      </c>
+      <c r="U349" t="n">
+        <v>319.3633333333333</v>
+      </c>
+      <c r="V349" t="n">
+        <v>332.6057142857143</v>
+      </c>
+      <c r="W349" t="n">
+        <v>338.3633333333333</v>
+      </c>
+      <c r="X349" t="n">
+        <v>348.36</v>
+      </c>
+      <c r="Y349" t="n">
+        <v>350.6533333333333</v>
+      </c>
+      <c r="Z349" t="n">
+        <v>342.4757142857143</v>
+      </c>
+      <c r="AA349" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-28 21:53:47+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>355.4628571428572</v>
+      </c>
+      <c r="C350" t="n">
+        <v>357.0928571428572</v>
+      </c>
+      <c r="D350" t="n">
+        <v>360.18</v>
+      </c>
+      <c r="E350" t="n">
+        <v>352.55</v>
+      </c>
+      <c r="F350" t="n">
+        <v>336.11</v>
+      </c>
+      <c r="G350" t="n">
+        <v>336.51</v>
+      </c>
+      <c r="H350" t="n">
+        <v>330.68</v>
+      </c>
+      <c r="I350" t="n">
+        <v>342.91</v>
+      </c>
+      <c r="J350" t="n">
+        <v>338.24</v>
+      </c>
+      <c r="K350" t="n">
+        <v>337.28</v>
+      </c>
+      <c r="L350" t="n">
+        <v>323.39</v>
+      </c>
+      <c r="M350" t="n">
+        <v>316.3</v>
+      </c>
+      <c r="N350" t="n">
+        <v>319.2</v>
+      </c>
+      <c r="O350" t="n">
+        <v>314.79</v>
+      </c>
+      <c r="P350" t="n">
+        <v>319.66</v>
+      </c>
+      <c r="Q350" t="n">
+        <v>306.94</v>
+      </c>
+      <c r="R350" t="n">
+        <v>307.14</v>
+      </c>
+      <c r="S350" t="n">
+        <v>300.84</v>
+      </c>
+      <c r="T350" t="n">
+        <v>305.66</v>
+      </c>
+      <c r="U350" t="n">
+        <v>313.86</v>
+      </c>
+      <c r="V350" t="n">
+        <v>322.7928571428571</v>
+      </c>
+      <c r="W350" t="n">
+        <v>322.11</v>
+      </c>
+      <c r="X350" t="n">
+        <v>331.81</v>
+      </c>
+      <c r="Y350" t="n">
+        <v>346.95</v>
+      </c>
+      <c r="Z350" t="n">
+        <v>343.4228571428571</v>
+      </c>
+      <c r="AA350" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -28529,7 +28707,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B356"/>
+  <dimension ref="A1:B358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32097,6 +32275,26 @@
       </c>
       <c r="B356" t="n">
         <v>-0.02</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>2025-08-12 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>2025-08-28 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -32270,28 +32468,28 @@
         <v>0.0405</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1454189020057789</v>
+        <v>-0.1382168088806965</v>
       </c>
       <c r="J2" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K2" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004441913162287592</v>
+        <v>0.004070886864761536</v>
       </c>
       <c r="M2" t="n">
-        <v>13.24916112289535</v>
+        <v>13.20216790553363</v>
       </c>
       <c r="N2" t="n">
-        <v>270.858867771835</v>
+        <v>269.3773735776513</v>
       </c>
       <c r="O2" t="n">
-        <v>16.45779048875744</v>
+        <v>16.41271987141837</v>
       </c>
       <c r="P2" t="n">
-        <v>351.2832758319581</v>
+        <v>351.2148212340475</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32348,28 +32546,28 @@
         <v>0.0374</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1450714956294238</v>
+        <v>-0.1343318073370504</v>
       </c>
       <c r="J3" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K3" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003718669823638665</v>
+        <v>0.003232044407386114</v>
       </c>
       <c r="M3" t="n">
-        <v>14.39862768167118</v>
+        <v>14.35993063613887</v>
       </c>
       <c r="N3" t="n">
-        <v>325.0040365217475</v>
+        <v>323.5499907424061</v>
       </c>
       <c r="O3" t="n">
-        <v>18.0278683299426</v>
+        <v>17.98749539937137</v>
       </c>
       <c r="P3" t="n">
-        <v>347.0728345332943</v>
+        <v>346.9714663329886</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32426,28 +32624,28 @@
         <v>0.0304</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1406232739403399</v>
+        <v>-0.1186118978474757</v>
       </c>
       <c r="J4" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K4" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003365839572446738</v>
+        <v>0.002419641542656281</v>
       </c>
       <c r="M4" t="n">
-        <v>14.80648502782606</v>
+        <v>14.81066858791051</v>
       </c>
       <c r="N4" t="n">
-        <v>343.4519613120394</v>
+        <v>343.0846007038454</v>
       </c>
       <c r="O4" t="n">
-        <v>18.53245696911339</v>
+        <v>18.52254304095</v>
       </c>
       <c r="P4" t="n">
-        <v>345.9505224919961</v>
+        <v>345.7437799818956</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32504,28 +32702,28 @@
         <v>0.0309</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1846290298822584</v>
+        <v>-0.1664374748394583</v>
       </c>
       <c r="J5" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K5" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005486877328153339</v>
+        <v>0.004516780785267405</v>
       </c>
       <c r="M5" t="n">
-        <v>15.02343378421248</v>
+        <v>15.00173982113115</v>
       </c>
       <c r="N5" t="n">
-        <v>369.9434493954884</v>
+        <v>368.6912109927057</v>
       </c>
       <c r="O5" t="n">
-        <v>19.23391404253145</v>
+        <v>19.20133357328875</v>
       </c>
       <c r="P5" t="n">
-        <v>342.0315335682104</v>
+        <v>341.8629616145749</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32582,28 +32780,28 @@
         <v>0.0345</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2675529867504005</v>
+        <v>-0.2672392000957742</v>
       </c>
       <c r="J6" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K6" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01397423567403699</v>
+        <v>0.01414599245896564</v>
       </c>
       <c r="M6" t="n">
-        <v>13.4052129182395</v>
+        <v>13.32556688630909</v>
       </c>
       <c r="N6" t="n">
-        <v>295.9423129373442</v>
+        <v>293.9957318103332</v>
       </c>
       <c r="O6" t="n">
-        <v>17.20297395618979</v>
+        <v>17.14630373609231</v>
       </c>
       <c r="P6" t="n">
-        <v>344.2312594028253</v>
+        <v>344.2283088579723</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32660,28 +32858,28 @@
         <v>0.0327</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2953391347327703</v>
+        <v>-0.3012083984553653</v>
       </c>
       <c r="J7" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K7" t="n">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01588703943638148</v>
+        <v>0.016740852399728</v>
       </c>
       <c r="M7" t="n">
-        <v>13.75501309205462</v>
+        <v>13.69624772835596</v>
       </c>
       <c r="N7" t="n">
-        <v>308.759755348468</v>
+        <v>306.9653484011717</v>
       </c>
       <c r="O7" t="n">
-        <v>17.57156098212302</v>
+        <v>17.52042660442866</v>
       </c>
       <c r="P7" t="n">
-        <v>345.9411935535587</v>
+        <v>345.9977236799592</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32738,28 +32936,28 @@
         <v>0.0319</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1667019735982237</v>
+        <v>-0.1873484656005183</v>
       </c>
       <c r="J8" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K8" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004658639189414227</v>
+        <v>0.005925978223815687</v>
       </c>
       <c r="M8" t="n">
-        <v>14.53061634204478</v>
+        <v>14.54248631638409</v>
       </c>
       <c r="N8" t="n">
-        <v>342.1310054118871</v>
+        <v>342.0035950352226</v>
       </c>
       <c r="O8" t="n">
-        <v>18.49678365045899</v>
+        <v>18.49333920727197</v>
       </c>
       <c r="P8" t="n">
-        <v>343.5392238443067</v>
+        <v>343.7371955205536</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32816,28 +33014,28 @@
         <v>0.0324</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1317733897298095</v>
+        <v>-0.1501920944854246</v>
       </c>
       <c r="J9" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K9" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003405000125278335</v>
+        <v>0.004451579911683212</v>
       </c>
       <c r="M9" t="n">
-        <v>13.51448424169548</v>
+        <v>13.51546277885191</v>
       </c>
       <c r="N9" t="n">
-        <v>291.8777830816938</v>
+        <v>292.036784431087</v>
       </c>
       <c r="O9" t="n">
-        <v>17.08443101428004</v>
+        <v>17.08908377974334</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6037345710494</v>
+        <v>350.7809165421722</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32894,28 +33092,28 @@
         <v>0.0323</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2032224789730763</v>
+        <v>-0.2227797719282202</v>
       </c>
       <c r="J10" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K10" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L10" t="n">
-        <v>0.007895198768865908</v>
+        <v>0.009555662298084799</v>
       </c>
       <c r="M10" t="n">
-        <v>13.70468324471092</v>
+        <v>13.71285980336902</v>
       </c>
       <c r="N10" t="n">
-        <v>298.8664716214694</v>
+        <v>298.7340839318232</v>
       </c>
       <c r="O10" t="n">
-        <v>17.28775496186447</v>
+        <v>17.28392559379446</v>
       </c>
       <c r="P10" t="n">
-        <v>351.6697821815517</v>
+        <v>351.8560263352368</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32972,28 +33170,28 @@
         <v>0.0286</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1259074689464363</v>
+        <v>-0.1338284288782915</v>
       </c>
       <c r="J11" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K11" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003210842602119346</v>
+        <v>0.003676600900997307</v>
       </c>
       <c r="M11" t="n">
-        <v>13.45772416685177</v>
+        <v>13.40726333275227</v>
       </c>
       <c r="N11" t="n">
-        <v>283.654757873173</v>
+        <v>282.0647803853503</v>
       </c>
       <c r="O11" t="n">
-        <v>16.84205325585847</v>
+        <v>16.7947843208941</v>
       </c>
       <c r="P11" t="n">
-        <v>347.1765742997035</v>
+        <v>347.252016864401</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33050,28 +33248,28 @@
         <v>0.0354</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.111530408685425</v>
+        <v>-0.1239332275723518</v>
       </c>
       <c r="J12" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K12" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002862551480739439</v>
+        <v>0.003573306559745304</v>
       </c>
       <c r="M12" t="n">
-        <v>12.58270746686962</v>
+        <v>12.56007219540525</v>
       </c>
       <c r="N12" t="n">
-        <v>252.3089546065075</v>
+        <v>251.4474429383052</v>
       </c>
       <c r="O12" t="n">
-        <v>15.88423604100957</v>
+        <v>15.85709440402955</v>
       </c>
       <c r="P12" t="n">
-        <v>341.4106327589507</v>
+        <v>341.5284066687196</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33128,28 +33326,28 @@
         <v>0.0423</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.0492265930380151</v>
+        <v>-0.06645165151496853</v>
       </c>
       <c r="J13" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K13" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0006170194676360374</v>
+        <v>0.00113382396167816</v>
       </c>
       <c r="M13" t="n">
-        <v>11.6694349533978</v>
+        <v>11.67380216176823</v>
       </c>
       <c r="N13" t="n">
-        <v>223.9844322875527</v>
+        <v>223.8223428047487</v>
       </c>
       <c r="O13" t="n">
-        <v>14.96610945728892</v>
+        <v>14.96069325949666</v>
       </c>
       <c r="P13" t="n">
-        <v>335.5424011907136</v>
+        <v>335.708257753785</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -33206,28 +33404,28 @@
         <v>0.035</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.06760955371600579</v>
+        <v>-0.07986269770797071</v>
       </c>
       <c r="J14" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K14" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001297308724761415</v>
+        <v>0.001829634320219764</v>
       </c>
       <c r="M14" t="n">
-        <v>10.98871252571243</v>
+        <v>10.98458648195647</v>
       </c>
       <c r="N14" t="n">
-        <v>196.3153303102804</v>
+        <v>195.7562556824406</v>
       </c>
       <c r="O14" t="n">
-        <v>14.0112572708619</v>
+        <v>13.9912921376991</v>
       </c>
       <c r="P14" t="n">
-        <v>334.6214079963351</v>
+        <v>334.7404201713193</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -33284,28 +33482,28 @@
         <v>0.0319</v>
       </c>
       <c r="I15" t="n">
-        <v>0.06483173508145959</v>
+        <v>0.04624617046127085</v>
       </c>
       <c r="J15" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K15" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0009357568332076793</v>
+        <v>0.0004808628146183436</v>
       </c>
       <c r="M15" t="n">
-        <v>12.67464939394281</v>
+        <v>12.68644872455473</v>
       </c>
       <c r="N15" t="n">
-        <v>253.251482515192</v>
+        <v>253.0719223905116</v>
       </c>
       <c r="O15" t="n">
-        <v>15.91387704222928</v>
+        <v>15.90823442090641</v>
       </c>
       <c r="P15" t="n">
-        <v>332.2825588892248</v>
+        <v>332.4606822475145</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -33362,28 +33560,28 @@
         <v>0.0319</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1654162920819577</v>
+        <v>0.1446784182309876</v>
       </c>
       <c r="J16" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K16" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L16" t="n">
-        <v>0.005807552944934513</v>
+        <v>0.004485940936193589</v>
       </c>
       <c r="M16" t="n">
-        <v>12.91865878008325</v>
+        <v>12.93938867745664</v>
       </c>
       <c r="N16" t="n">
-        <v>267.3900665730144</v>
+        <v>267.3701783910922</v>
       </c>
       <c r="O16" t="n">
-        <v>16.35206612550886</v>
+        <v>16.3514579897663</v>
       </c>
       <c r="P16" t="n">
-        <v>330.0926554727474</v>
+        <v>330.2912542916776</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -33440,28 +33638,28 @@
         <v>0.0313</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3271886366801167</v>
+        <v>0.2988595865230894</v>
       </c>
       <c r="J17" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K17" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02090295826071187</v>
+        <v>0.01756777144713939</v>
       </c>
       <c r="M17" t="n">
-        <v>13.40796823976719</v>
+        <v>13.46486481417991</v>
       </c>
       <c r="N17" t="n">
-        <v>286.8283836045184</v>
+        <v>288.1162425971249</v>
       </c>
       <c r="O17" t="n">
-        <v>16.93600849092012</v>
+        <v>16.97398723332632</v>
       </c>
       <c r="P17" t="n">
-        <v>324.0167264508765</v>
+        <v>324.2882083290244</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -33518,28 +33716,28 @@
         <v>0.0293</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4457182907359247</v>
+        <v>0.4171064080908549</v>
       </c>
       <c r="J18" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K18" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L18" t="n">
-        <v>0.03508492398586172</v>
+        <v>0.03101531833900539</v>
       </c>
       <c r="M18" t="n">
-        <v>14.40841579719409</v>
+        <v>14.46772500577359</v>
       </c>
       <c r="N18" t="n">
-        <v>313.6548411687515</v>
+        <v>314.7386717041619</v>
       </c>
       <c r="O18" t="n">
-        <v>17.71030324892128</v>
+        <v>17.74087573103881</v>
       </c>
       <c r="P18" t="n">
-        <v>320.2652130224666</v>
+        <v>320.5370813133432</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -33596,28 +33794,28 @@
         <v>0.0312</v>
       </c>
       <c r="I19" t="n">
-        <v>0.464557568729369</v>
+        <v>0.4320399529828229</v>
       </c>
       <c r="J19" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K19" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L19" t="n">
-        <v>0.03949156279504173</v>
+        <v>0.0343842857689578</v>
       </c>
       <c r="M19" t="n">
-        <v>14.13187576530771</v>
+        <v>14.21193908721376</v>
       </c>
       <c r="N19" t="n">
-        <v>302.5415947809983</v>
+        <v>304.7181210518582</v>
       </c>
       <c r="O19" t="n">
-        <v>17.39372285570281</v>
+        <v>17.45617716030226</v>
       </c>
       <c r="P19" t="n">
-        <v>318.114168057547</v>
+        <v>318.423004150737</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -33674,28 +33872,28 @@
         <v>0.0333</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5610037767758476</v>
+        <v>0.5269871322748376</v>
       </c>
       <c r="J20" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K20" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L20" t="n">
-        <v>0.05554096544965259</v>
+        <v>0.04935975354516453</v>
       </c>
       <c r="M20" t="n">
-        <v>14.01224316788388</v>
+        <v>14.0802818608577</v>
       </c>
       <c r="N20" t="n">
-        <v>304.788347746338</v>
+        <v>307.2185591609335</v>
       </c>
       <c r="O20" t="n">
-        <v>17.45818855856294</v>
+        <v>17.52765127337184</v>
       </c>
       <c r="P20" t="n">
-        <v>317.9188483203898</v>
+        <v>318.2440418997032</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -33752,28 +33950,28 @@
         <v>0.0342</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4898219004697402</v>
+        <v>0.4613763224896875</v>
       </c>
       <c r="J21" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K21" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0458558025552126</v>
+        <v>0.04106277968036087</v>
       </c>
       <c r="M21" t="n">
-        <v>13.78489669461026</v>
+        <v>13.81568992262094</v>
       </c>
       <c r="N21" t="n">
-        <v>288.7115789780916</v>
+        <v>289.8423455507537</v>
       </c>
       <c r="O21" t="n">
-        <v>16.99151491121647</v>
+        <v>17.02475684263225</v>
       </c>
       <c r="P21" t="n">
-        <v>325.14575498978</v>
+        <v>325.4202763228544</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -33830,28 +34028,28 @@
         <v>0.0368</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6114476173572913</v>
+        <v>0.5670402770917377</v>
       </c>
       <c r="J22" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K22" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0730645873427973</v>
+        <v>0.0636427328456276</v>
       </c>
       <c r="M22" t="n">
-        <v>13.48910922665591</v>
+        <v>13.57167109426448</v>
       </c>
       <c r="N22" t="n">
-        <v>275.6869794829098</v>
+        <v>278.1484604022912</v>
       </c>
       <c r="O22" t="n">
-        <v>16.60382424271318</v>
+        <v>16.67778343792397</v>
       </c>
       <c r="P22" t="n">
-        <v>332.8604743236433</v>
+        <v>333.2901456343938</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -33908,28 +34106,28 @@
         <v>0.0331</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4486146747153461</v>
+        <v>0.3998946788378593</v>
       </c>
       <c r="J23" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K23" t="n">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L23" t="n">
-        <v>0.03801526056492566</v>
+        <v>0.0304738729478351</v>
       </c>
       <c r="M23" t="n">
-        <v>13.74264996071861</v>
+        <v>13.85479344598213</v>
       </c>
       <c r="N23" t="n">
-        <v>294.4628280590485</v>
+        <v>297.7388225378943</v>
       </c>
       <c r="O23" t="n">
-        <v>17.15991923229968</v>
+        <v>17.25511004131513</v>
       </c>
       <c r="P23" t="n">
-        <v>341.8534254443073</v>
+        <v>342.3250722817701</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -33986,28 +34184,28 @@
         <v>0.0269</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5604587403651711</v>
+        <v>0.530266409377925</v>
       </c>
       <c r="J24" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K24" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L24" t="n">
-        <v>0.04449380094629685</v>
+        <v>0.04025484234826249</v>
       </c>
       <c r="M24" t="n">
-        <v>16.04822719003252</v>
+        <v>16.08226512830535</v>
       </c>
       <c r="N24" t="n">
-        <v>383.9661101410838</v>
+        <v>385.1251745959469</v>
       </c>
       <c r="O24" t="n">
-        <v>19.5950532058753</v>
+        <v>19.62460635518448</v>
       </c>
       <c r="P24" t="n">
-        <v>347.8575180637701</v>
+        <v>348.1437441847492</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -34064,28 +34262,28 @@
         <v>0.0311</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6060360778082039</v>
+        <v>0.5886282647778922</v>
       </c>
       <c r="J25" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K25" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L25" t="n">
-        <v>0.06083336898122804</v>
+        <v>0.0582145690862812</v>
       </c>
       <c r="M25" t="n">
-        <v>14.76514268859004</v>
+        <v>14.74405014443189</v>
       </c>
       <c r="N25" t="n">
-        <v>327.6232172133638</v>
+        <v>326.6129883614528</v>
       </c>
       <c r="O25" t="n">
-        <v>18.10036511270874</v>
+        <v>18.07243725570662</v>
       </c>
       <c r="P25" t="n">
-        <v>346.3208628818059</v>
+        <v>346.4868338216436</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -34142,28 +34340,28 @@
         <v>0.0419</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5286593830773818</v>
+        <v>0.509452864521355</v>
       </c>
       <c r="J26" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K26" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0486631358518641</v>
+        <v>0.04580495537099682</v>
       </c>
       <c r="M26" t="n">
-        <v>14.42962027424889</v>
+        <v>14.41279842292623</v>
       </c>
       <c r="N26" t="n">
-        <v>312.5921518082927</v>
+        <v>311.9646140575151</v>
       </c>
       <c r="O26" t="n">
-        <v>17.68027578428268</v>
+        <v>17.66252003700251</v>
       </c>
       <c r="P26" t="n">
-        <v>344.0396022837216</v>
+        <v>344.2230817740179</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -34201,7 +34399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA348"/>
+  <dimension ref="A1:AA350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77374,8 +77572,16 @@
           <t>-37.71977874629746,178.5248926769783</t>
         </is>
       </c>
-      <c r="V348" t="inlineStr"/>
-      <c r="W348" t="inlineStr"/>
+      <c r="V348" t="inlineStr">
+        <is>
+          <t>-37.72046789290886,178.52463740023532</t>
+        </is>
+      </c>
+      <c r="W348" t="inlineStr">
+        <is>
+          <t>-37.72111395307919,178.52426432004668</t>
+        </is>
+      </c>
       <c r="X348" t="inlineStr">
         <is>
           <t>-37.72178292561238,178.52389454463795</t>
@@ -77392,6 +77598,280 @@
         </is>
       </c>
       <c r="AA348" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-12 21:53:43+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>-37.70861208106894,178.53447957494</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>-37.70913648663501,178.53386817521198</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>-37.70975299811835,178.5334099767522</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>-37.710252556861484,178.53275726414873</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>-37.710744590610936,178.5320920426233</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>-37.71124929220717,178.5314478976934</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>-37.711713801834094,178.53073691119297</t>
+        </is>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>-37.712307893381904,178.53022519408793</t>
+        </is>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>-37.71290737497231,178.52968668477072</t>
+        </is>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>-37.71360061865846,178.52937411069547</t>
+        </is>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>-37.714204038049736,178.52889455973443</t>
+        </is>
+      </c>
+      <c r="M349" t="inlineStr">
+        <is>
+          <t>-37.71478602724398,178.52836238823394</t>
+        </is>
+      </c>
+      <c r="N349" t="inlineStr">
+        <is>
+          <t>-37.71541374385379,178.5279425370264</t>
+        </is>
+      </c>
+      <c r="O349" t="inlineStr">
+        <is>
+          <t>-37.71602645987245,178.52746948417126</t>
+        </is>
+      </c>
+      <c r="P349" t="inlineStr">
+        <is>
+          <t>-37.71663686174339,178.52697164644619</t>
+        </is>
+      </c>
+      <c r="Q349" t="inlineStr">
+        <is>
+          <t>-37.717271395737804,178.526553682679</t>
+        </is>
+      </c>
+      <c r="R349" t="inlineStr">
+        <is>
+          <t>-37.71790453206736,178.52614396317233</t>
+        </is>
+      </c>
+      <c r="S349" t="inlineStr">
+        <is>
+          <t>-37.718531358801265,178.52571618716868</t>
+        </is>
+      </c>
+      <c r="T349" t="inlineStr">
+        <is>
+          <t>-37.71915434312473,178.52529778423303</t>
+        </is>
+      </c>
+      <c r="U349" t="inlineStr">
+        <is>
+          <t>-37.71982596318701,178.52501687359887</t>
+        </is>
+      </c>
+      <c r="V349" t="inlineStr">
+        <is>
+          <t>-37.72050346577157,178.52472994482136</t>
+        </is>
+      </c>
+      <c r="W349" t="inlineStr">
+        <is>
+          <t>-37.72115298215769,178.52436585660394</t>
+        </is>
+      </c>
+      <c r="X349" t="inlineStr">
+        <is>
+          <t>-37.72182587573062,178.52403848159318</t>
+        </is>
+      </c>
+      <c r="Y349" t="inlineStr">
+        <is>
+          <t>-37.72251554919151,178.5237864777024</t>
+        </is>
+      </c>
+      <c r="Z349" t="inlineStr">
+        <is>
+          <t>-37.72317741180665,178.5234361397229</t>
+        </is>
+      </c>
+      <c r="AA349" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-28 21:53:47+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>-37.70863695809007,178.5345209514645</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>-37.70919515054157,178.53396574751923</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>-37.70976124146792,178.5334236874777</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>-37.710269206363705,178.53278495632333</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>-37.71072938721186,178.53206675576064</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>-37.7112808923168,178.53150045613728</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>-37.71179860566911,178.5308779596037</t>
+        </is>
+      </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>-37.71241660602405,178.53041531100226</t>
+        </is>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>-37.712972786279785,178.52982510030878</t>
+        </is>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>-37.71359733938713,178.52936605673264</t>
+        </is>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>-37.71415958993686,178.5287853942521</t>
+        </is>
+      </c>
+      <c r="M350" t="inlineStr">
+        <is>
+          <t>-37.714749708793256,178.52827318939907</t>
+        </is>
+      </c>
+      <c r="N350" t="inlineStr">
+        <is>
+          <t>-37.71538077288827,178.52786155942098</t>
+        </is>
+      </c>
+      <c r="O350" t="inlineStr">
+        <is>
+          <t>-37.71598847321786,178.5273715520709</t>
+        </is>
+      </c>
+      <c r="P350" t="inlineStr">
+        <is>
+          <t>-37.71664876689277,178.52700480812027</t>
+        </is>
+      </c>
+      <c r="Q350" t="inlineStr">
+        <is>
+          <t>-37.717244805799226,178.52647752320144</t>
+        </is>
+      </c>
+      <c r="R350" t="inlineStr">
+        <is>
+          <t>-37.71788435446344,178.52608616988394</t>
+        </is>
+      </c>
+      <c r="S350" t="inlineStr">
+        <is>
+          <t>-37.71850039309078,178.525627494157</t>
+        </is>
+      </c>
+      <c r="T350" t="inlineStr">
+        <is>
+          <t>-37.71915071178998,178.5252877660068</t>
+        </is>
+      </c>
+      <c r="U350" t="inlineStr">
+        <is>
+          <t>-37.71980461149721,178.52496071126345</t>
+        </is>
+      </c>
+      <c r="V350" t="inlineStr">
+        <is>
+          <t>-37.72046505199763,178.5246300094749</t>
+        </is>
+      </c>
+      <c r="W350" t="inlineStr">
+        <is>
+          <t>-37.72108935596745,178.52420032932167</t>
+        </is>
+      </c>
+      <c r="X350" t="inlineStr">
+        <is>
+          <t>-37.72177357074172,178.52386319415083</t>
+        </is>
+      </c>
+      <c r="Y350" t="inlineStr">
+        <is>
+          <t>-37.72250694344416,178.52374600248712</t>
+        </is>
+      </c>
+      <c r="Z350" t="inlineStr">
+        <is>
+          <t>-37.723179560411594,178.52344650894128</t>
+        </is>
+      </c>
+      <c r="AA350" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0218/nzd0218.xlsx
+++ b/data/nzd0218/nzd0218.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA350"/>
+  <dimension ref="A1:AA351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28696,6 +28696,85 @@
         </is>
       </c>
     </row>
+    <row r="351">
+      <c r="A351" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-15 21:54:03+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>389.9157142857143</v>
+      </c>
+      <c r="C351" t="n">
+        <v>394.4457142857143</v>
+      </c>
+      <c r="D351" t="n">
+        <v>380.69</v>
+      </c>
+      <c r="E351" t="n">
+        <v>376.27</v>
+      </c>
+      <c r="F351" t="inlineStr"/>
+      <c r="G351" t="inlineStr"/>
+      <c r="H351" t="inlineStr"/>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>371.8033333333333</v>
+      </c>
+      <c r="K351" t="n">
+        <v>359.63</v>
+      </c>
+      <c r="L351" t="n">
+        <v>356.3833333333333</v>
+      </c>
+      <c r="M351" t="n">
+        <v>341.99</v>
+      </c>
+      <c r="N351" t="n">
+        <v>318.9133333333333</v>
+      </c>
+      <c r="O351" t="n">
+        <v>324.7433333333333</v>
+      </c>
+      <c r="P351" t="n">
+        <v>322.2833333333333</v>
+      </c>
+      <c r="Q351" t="n">
+        <v>313.7533333333333</v>
+      </c>
+      <c r="R351" t="n">
+        <v>315.93</v>
+      </c>
+      <c r="S351" t="n">
+        <v>317.4333333333333</v>
+      </c>
+      <c r="T351" t="n">
+        <v>326.5433333333333</v>
+      </c>
+      <c r="U351" t="n">
+        <v>347.3833333333333</v>
+      </c>
+      <c r="V351" t="n">
+        <v>348.1057142857143</v>
+      </c>
+      <c r="W351" t="n">
+        <v>344.0733333333333</v>
+      </c>
+      <c r="X351" t="n">
+        <v>354.73</v>
+      </c>
+      <c r="Y351" t="n">
+        <v>355.1133333333333</v>
+      </c>
+      <c r="Z351" t="n">
+        <v>348.9857142857143</v>
+      </c>
+      <c r="AA351" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28707,7 +28786,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B358"/>
+  <dimension ref="A1:B359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32295,6 +32374,16 @@
       </c>
       <c r="B358" t="n">
         <v>0.6</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>2025-10-15 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>-0.2</v>
       </c>
     </row>
   </sheetData>
@@ -34399,7 +34488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA350"/>
+  <dimension ref="A1:AA351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77877,6 +77966,127 @@
         </is>
       </c>
     </row>
+    <row r="351">
+      <c r="A351" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-15 21:54:03+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>-37.70882380249678,178.53483172082505</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>-37.70939772313955,178.53430267724403</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>-37.709872472273815,178.5336086923599</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>-37.71039784656312,178.53299891711669</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr"/>
+      <c r="G351" t="inlineStr"/>
+      <c r="H351" t="inlineStr"/>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>-37.71312699451235,178.53015141966466</t>
+        </is>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>-37.7136889538003,178.52959106456896</t>
+        </is>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>-37.71429483318551,178.5291175556958</t>
+        </is>
+      </c>
+      <c r="M351" t="inlineStr">
+        <is>
+          <t>-37.71485501569763,178.528531825974</t>
+        </is>
+      </c>
+      <c r="N351" t="inlineStr">
+        <is>
+          <t>-37.715379597792634,178.52785867335754</t>
+        </is>
+      </c>
+      <c r="O351" t="inlineStr">
+        <is>
+          <t>-37.71602772171134,178.52747273728068</t>
+        </is>
+      </c>
+      <c r="P351" t="inlineStr">
+        <is>
+          <t>-37.71665847605882,178.52703185293316</t>
+        </is>
+      </c>
+      <c r="Q351" t="inlineStr">
+        <is>
+          <t>-37.7172694430787,178.52654808982356</t>
+        </is>
+      </c>
+      <c r="R351" t="inlineStr">
+        <is>
+          <t>-37.717916139599645,178.52617720986203</t>
+        </is>
+      </c>
+      <c r="S351" t="inlineStr">
+        <is>
+          <t>-37.71856039586866,178.52579935634844</t>
+        </is>
+      </c>
+      <c r="T351" t="inlineStr">
+        <is>
+          <t>-37.71922862361316,178.52550271205124</t>
+        </is>
+      </c>
+      <c r="U351" t="inlineStr">
+        <is>
+          <t>-37.7199346739983,178.52530282233045</t>
+        </is>
+      </c>
+      <c r="V351" t="inlineStr">
+        <is>
+          <t>-37.720564142455125,178.5248877989266</t>
+        </is>
+      </c>
+      <c r="W351" t="inlineStr">
+        <is>
+          <t>-37.721175334776056,178.52442400847812</t>
+        </is>
+      </c>
+      <c r="X351" t="inlineStr">
+        <is>
+          <t>-37.72184600754553,178.52410594878222</t>
+        </is>
+      </c>
+      <c r="Y351" t="inlineStr">
+        <is>
+          <t>-37.722525913249335,178.5238352228415</t>
+        </is>
+      </c>
+      <c r="Z351" t="inlineStr">
+        <is>
+          <t>-37.72319217980034,178.52350741051444</t>
+        </is>
+      </c>
+      <c r="AA351" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0218/nzd0218.xlsx
+++ b/data/nzd0218/nzd0218.xlsx
@@ -32557,28 +32557,28 @@
         <v>0.0405</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1382168088806965</v>
+        <v>-0.1113046718105854</v>
       </c>
       <c r="J2" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K2" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004070886864761536</v>
+        <v>0.002609317996797311</v>
       </c>
       <c r="M2" t="n">
-        <v>13.20216790553363</v>
+        <v>13.29668057014926</v>
       </c>
       <c r="N2" t="n">
-        <v>269.3773735776513</v>
+        <v>274.1180645391267</v>
       </c>
       <c r="O2" t="n">
-        <v>16.41271987141837</v>
+        <v>16.55651124298615</v>
       </c>
       <c r="P2" t="n">
-        <v>351.2148212340475</v>
+        <v>350.9573705068898</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32635,28 +32635,28 @@
         <v>0.0374</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1343318073370504</v>
+        <v>-0.101654756624137</v>
       </c>
       <c r="J3" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K3" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003232044407386114</v>
+        <v>0.001821138702319702</v>
       </c>
       <c r="M3" t="n">
-        <v>14.35993063613887</v>
+        <v>14.47627523507975</v>
       </c>
       <c r="N3" t="n">
-        <v>323.5499907424061</v>
+        <v>330.7350702988369</v>
       </c>
       <c r="O3" t="n">
-        <v>17.98749539937137</v>
+        <v>18.18612301450853</v>
       </c>
       <c r="P3" t="n">
-        <v>346.9714663329886</v>
+        <v>346.6611005444279</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32713,28 +32713,28 @@
         <v>0.0304</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1186118978474757</v>
+        <v>-0.09410918884500621</v>
       </c>
       <c r="J4" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K4" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002419641542656281</v>
+        <v>0.001515246163605877</v>
       </c>
       <c r="M4" t="n">
-        <v>14.81066858791051</v>
+        <v>14.87347015604094</v>
       </c>
       <c r="N4" t="n">
-        <v>343.0846007038454</v>
+        <v>346.6680473444599</v>
       </c>
       <c r="O4" t="n">
-        <v>18.52254304095</v>
+        <v>18.61902380213474</v>
       </c>
       <c r="P4" t="n">
-        <v>345.7437799818956</v>
+        <v>345.5119937046082</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32791,28 +32791,28 @@
         <v>0.0309</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1664374748394583</v>
+        <v>-0.1408247009115232</v>
       </c>
       <c r="J5" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K5" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004516780785267405</v>
+        <v>0.003218296347603178</v>
       </c>
       <c r="M5" t="n">
-        <v>15.00173982113115</v>
+        <v>15.06475144700753</v>
       </c>
       <c r="N5" t="n">
-        <v>368.6912109927057</v>
+        <v>372.5312315202806</v>
       </c>
       <c r="O5" t="n">
-        <v>19.20133357328875</v>
+        <v>19.30106814454269</v>
       </c>
       <c r="P5" t="n">
-        <v>341.8629616145749</v>
+        <v>341.6238941800295</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32872,7 +32872,7 @@
         <v>-0.2672392000957742</v>
       </c>
       <c r="J6" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K6" t="n">
         <v>302</v>
@@ -32950,7 +32950,7 @@
         <v>-0.3012083984553653</v>
       </c>
       <c r="J7" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K7" t="n">
         <v>311</v>
@@ -33028,7 +33028,7 @@
         <v>-0.1873484656005183</v>
       </c>
       <c r="J8" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K8" t="n">
         <v>308</v>
@@ -33106,7 +33106,7 @@
         <v>-0.1501920944854246</v>
       </c>
       <c r="J9" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K9" t="n">
         <v>309</v>
@@ -33181,28 +33181,28 @@
         <v>0.0323</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2227797719282202</v>
+        <v>-0.2061956619671276</v>
       </c>
       <c r="J10" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K10" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L10" t="n">
-        <v>0.009555662298084799</v>
+        <v>0.00819991093739425</v>
       </c>
       <c r="M10" t="n">
-        <v>13.71285980336902</v>
+        <v>13.75273129658638</v>
       </c>
       <c r="N10" t="n">
-        <v>298.7340839318232</v>
+        <v>299.8994749103287</v>
       </c>
       <c r="O10" t="n">
-        <v>17.28392559379446</v>
+        <v>17.31760592317335</v>
       </c>
       <c r="P10" t="n">
-        <v>351.8560263352368</v>
+        <v>351.6969066879572</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33259,28 +33259,28 @@
         <v>0.0286</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1338284288782915</v>
+        <v>-0.1236852294316238</v>
       </c>
       <c r="J11" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K11" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003676600900997307</v>
+        <v>0.003156432740885728</v>
       </c>
       <c r="M11" t="n">
-        <v>13.40726333275227</v>
+        <v>13.41927465601125</v>
       </c>
       <c r="N11" t="n">
-        <v>282.0647803853503</v>
+        <v>281.9601112348525</v>
       </c>
       <c r="O11" t="n">
-        <v>16.7947843208941</v>
+        <v>16.79166791104602</v>
       </c>
       <c r="P11" t="n">
-        <v>347.252016864401</v>
+        <v>347.1547332913501</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33337,28 +33337,28 @@
         <v>0.0354</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1239332275723518</v>
+        <v>-0.1123358297712199</v>
       </c>
       <c r="J12" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K12" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L12" t="n">
-        <v>0.003573306559745304</v>
+        <v>0.002947095377177522</v>
       </c>
       <c r="M12" t="n">
-        <v>12.56007219540525</v>
+        <v>12.58098014463281</v>
       </c>
       <c r="N12" t="n">
-        <v>251.4474429383052</v>
+        <v>251.6858771759363</v>
       </c>
       <c r="O12" t="n">
-        <v>15.85709440402955</v>
+        <v>15.86461084224685</v>
       </c>
       <c r="P12" t="n">
-        <v>341.5284066687196</v>
+        <v>341.4175528773127</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33415,28 +33415,28 @@
         <v>0.0423</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.06645165151496853</v>
+        <v>-0.06133380134469252</v>
       </c>
       <c r="J13" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K13" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00113382396167816</v>
+        <v>0.0009723066489356613</v>
       </c>
       <c r="M13" t="n">
-        <v>11.67380216176823</v>
+        <v>11.66348412686627</v>
       </c>
       <c r="N13" t="n">
-        <v>223.8223428047487</v>
+        <v>223.3074247951151</v>
       </c>
       <c r="O13" t="n">
-        <v>14.96069325949666</v>
+        <v>14.94347432142589</v>
       </c>
       <c r="P13" t="n">
-        <v>335.708257753785</v>
+        <v>335.6586493821948</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -33493,28 +33493,28 @@
         <v>0.035</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.07986269770797071</v>
+        <v>-0.08861058006980803</v>
       </c>
       <c r="J14" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K14" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001829634320219764</v>
+        <v>0.002261362148036072</v>
       </c>
       <c r="M14" t="n">
-        <v>10.98458648195647</v>
+        <v>10.99580006203637</v>
       </c>
       <c r="N14" t="n">
-        <v>195.7562556824406</v>
+        <v>195.7278854707939</v>
       </c>
       <c r="O14" t="n">
-        <v>13.9912921376991</v>
+        <v>13.99027824851221</v>
       </c>
       <c r="P14" t="n">
-        <v>334.7404201713193</v>
+        <v>334.8259250409317</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -33571,28 +33571,28 @@
         <v>0.0319</v>
       </c>
       <c r="I15" t="n">
-        <v>0.04624617046127085</v>
+        <v>0.04045938978667203</v>
       </c>
       <c r="J15" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K15" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0004808628146183436</v>
+        <v>0.0003705289862856453</v>
       </c>
       <c r="M15" t="n">
-        <v>12.68644872455473</v>
+        <v>12.67473259048066</v>
       </c>
       <c r="N15" t="n">
-        <v>253.0719223905116</v>
+        <v>252.5171340602874</v>
       </c>
       <c r="O15" t="n">
-        <v>15.90823442090641</v>
+        <v>15.89078771050345</v>
       </c>
       <c r="P15" t="n">
-        <v>332.4606822475145</v>
+        <v>332.5164999000513</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -33649,28 +33649,28 @@
         <v>0.0319</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1446784182309876</v>
+        <v>0.1371738754856968</v>
       </c>
       <c r="J16" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K16" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L16" t="n">
-        <v>0.004485940936193589</v>
+        <v>0.004057633760166213</v>
       </c>
       <c r="M16" t="n">
-        <v>12.93938867745664</v>
+        <v>12.93494044780062</v>
       </c>
       <c r="N16" t="n">
-        <v>267.3701783910922</v>
+        <v>266.9572943075759</v>
       </c>
       <c r="O16" t="n">
-        <v>16.3514579897663</v>
+        <v>16.33882781314425</v>
       </c>
       <c r="P16" t="n">
-        <v>330.2912542916776</v>
+        <v>330.3636299388214</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -33727,28 +33727,28 @@
         <v>0.0313</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2988595865230894</v>
+        <v>0.2869667031258477</v>
       </c>
       <c r="J17" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K17" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01756777144713939</v>
+        <v>0.01627932750132732</v>
       </c>
       <c r="M17" t="n">
-        <v>13.46486481417991</v>
+        <v>13.48174795870258</v>
       </c>
       <c r="N17" t="n">
-        <v>288.1162425971249</v>
+        <v>288.2644393778976</v>
       </c>
       <c r="O17" t="n">
-        <v>16.97398723332632</v>
+        <v>16.9783520807497</v>
       </c>
       <c r="P17" t="n">
-        <v>324.2882083290244</v>
+        <v>324.4029586745812</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -33805,28 +33805,28 @@
         <v>0.0293</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4171064080908549</v>
+        <v>0.4069581771956775</v>
       </c>
       <c r="J18" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K18" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L18" t="n">
-        <v>0.03101531833900539</v>
+        <v>0.02971716961605164</v>
       </c>
       <c r="M18" t="n">
-        <v>14.46772500577359</v>
+        <v>14.47525895355005</v>
       </c>
       <c r="N18" t="n">
-        <v>314.7386717041619</v>
+        <v>314.4900755637522</v>
       </c>
       <c r="O18" t="n">
-        <v>17.74087573103881</v>
+        <v>17.73386803728257</v>
       </c>
       <c r="P18" t="n">
-        <v>320.5370813133432</v>
+        <v>320.6341677167832</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -33883,28 +33883,28 @@
         <v>0.0312</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4320399529828229</v>
+        <v>0.4240482518997994</v>
       </c>
       <c r="J19" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K19" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0343842857689578</v>
+        <v>0.03335793415534172</v>
       </c>
       <c r="M19" t="n">
-        <v>14.21193908721376</v>
+        <v>14.20788130182631</v>
       </c>
       <c r="N19" t="n">
-        <v>304.7181210518582</v>
+        <v>304.2119613847028</v>
       </c>
       <c r="O19" t="n">
-        <v>17.45617716030226</v>
+        <v>17.44167312458019</v>
       </c>
       <c r="P19" t="n">
-        <v>318.423004150737</v>
+        <v>318.4994249994626</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -33961,28 +33961,28 @@
         <v>0.0333</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5269871322748376</v>
+        <v>0.5234289963539867</v>
       </c>
       <c r="J20" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K20" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L20" t="n">
-        <v>0.04935975354516453</v>
+        <v>0.04906412767942436</v>
       </c>
       <c r="M20" t="n">
-        <v>14.0802818608577</v>
+        <v>14.05141977546925</v>
       </c>
       <c r="N20" t="n">
-        <v>307.2185591609335</v>
+        <v>306.3271371588407</v>
       </c>
       <c r="O20" t="n">
-        <v>17.52765127337184</v>
+        <v>17.50220378006269</v>
       </c>
       <c r="P20" t="n">
-        <v>318.2440418997032</v>
+        <v>318.2782911266882</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -34039,28 +34039,28 @@
         <v>0.0342</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4613763224896875</v>
+        <v>0.4679895987933913</v>
       </c>
       <c r="J21" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K21" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L21" t="n">
-        <v>0.04106277968036087</v>
+        <v>0.04246004535431513</v>
       </c>
       <c r="M21" t="n">
-        <v>13.81568992262094</v>
+        <v>13.80595099853603</v>
       </c>
       <c r="N21" t="n">
-        <v>289.8423455507537</v>
+        <v>289.1709418071748</v>
       </c>
       <c r="O21" t="n">
-        <v>17.02475684263225</v>
+        <v>17.00502695696701</v>
       </c>
       <c r="P21" t="n">
-        <v>325.4202763228544</v>
+        <v>325.3559950642704</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -34117,28 +34117,28 @@
         <v>0.0368</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5670402770917377</v>
+        <v>0.5670147512047653</v>
       </c>
       <c r="J22" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K22" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0636427328456276</v>
+        <v>0.06408155140671712</v>
       </c>
       <c r="M22" t="n">
-        <v>13.57167109426448</v>
+        <v>13.52401072172397</v>
       </c>
       <c r="N22" t="n">
-        <v>278.1484604022912</v>
+        <v>277.1690695719844</v>
       </c>
       <c r="O22" t="n">
-        <v>16.67778343792397</v>
+        <v>16.64839540532313</v>
       </c>
       <c r="P22" t="n">
-        <v>333.2901456343938</v>
+        <v>333.290394957767</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -34195,28 +34195,28 @@
         <v>0.0331</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3998946788378593</v>
+        <v>0.3939311676331396</v>
       </c>
       <c r="J23" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K23" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0304738729478351</v>
+        <v>0.0297935738988393</v>
       </c>
       <c r="M23" t="n">
-        <v>13.85479344598213</v>
+        <v>13.83733953441993</v>
       </c>
       <c r="N23" t="n">
-        <v>297.7388225378943</v>
+        <v>296.9387208045059</v>
       </c>
       <c r="O23" t="n">
-        <v>17.25511004131513</v>
+        <v>17.23190995811277</v>
       </c>
       <c r="P23" t="n">
-        <v>342.3250722817701</v>
+        <v>342.3833315618669</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -34273,28 +34273,28 @@
         <v>0.0269</v>
       </c>
       <c r="I24" t="n">
-        <v>0.530266409377925</v>
+        <v>0.52533129175621</v>
       </c>
       <c r="J24" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K24" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L24" t="n">
-        <v>0.04025484234826249</v>
+        <v>0.03982554596559729</v>
       </c>
       <c r="M24" t="n">
-        <v>16.08226512830535</v>
+        <v>16.05204504691623</v>
       </c>
       <c r="N24" t="n">
-        <v>385.1251745959469</v>
+        <v>384.0209546131384</v>
       </c>
       <c r="O24" t="n">
-        <v>19.62460635518448</v>
+        <v>19.59645260278345</v>
       </c>
       <c r="P24" t="n">
-        <v>348.1437441847492</v>
+        <v>348.1908301010238</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -34351,28 +34351,28 @@
         <v>0.0311</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5886282647778922</v>
+        <v>0.584173730658941</v>
       </c>
       <c r="J25" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K25" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0582145690862812</v>
+        <v>0.05777439306415266</v>
       </c>
       <c r="M25" t="n">
-        <v>14.74405014443189</v>
+        <v>14.71444001538598</v>
       </c>
       <c r="N25" t="n">
-        <v>326.6129883614528</v>
+        <v>325.6764235429413</v>
       </c>
       <c r="O25" t="n">
-        <v>18.07243725570662</v>
+        <v>18.04650723943393</v>
       </c>
       <c r="P25" t="n">
-        <v>346.4868338216436</v>
+        <v>346.5296007668018</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -34429,28 +34429,28 @@
         <v>0.0419</v>
       </c>
       <c r="I26" t="n">
-        <v>0.509452864521355</v>
+        <v>0.5038911771343043</v>
       </c>
       <c r="J26" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K26" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L26" t="n">
-        <v>0.04580495537099682</v>
+        <v>0.0451465833138549</v>
       </c>
       <c r="M26" t="n">
-        <v>14.41279842292623</v>
+        <v>14.38801245344785</v>
       </c>
       <c r="N26" t="n">
-        <v>311.9646140575151</v>
+        <v>311.1883471725957</v>
       </c>
       <c r="O26" t="n">
-        <v>17.66252003700251</v>
+        <v>17.64053137443982</v>
       </c>
       <c r="P26" t="n">
-        <v>344.2230817740179</v>
+        <v>344.2765844730094</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">

--- a/data/nzd0218/nzd0218.xlsx
+++ b/data/nzd0218/nzd0218.xlsx
@@ -32548,13 +32548,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0337</v>
+        <v>0.0361</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0405</v>
+        <v>0.0521</v>
       </c>
       <c r="I2" t="n">
         <v>-0.1112756476332404</v>
@@ -32626,13 +32626,13 @@
         <v>0.04167487254342666</v>
       </c>
       <c r="F3" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0319</v>
+        <v>0.0342</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0374</v>
+        <v>0.0449</v>
       </c>
       <c r="I3" t="n">
         <v>-0.1016350636743185</v>
@@ -32704,13 +32704,13 @@
         <v>0.08334974508783828</v>
       </c>
       <c r="F4" t="n">
-        <v>0.025</v>
+        <v>0.035</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0248</v>
+        <v>0.0293</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0304</v>
+        <v>0.0372</v>
       </c>
       <c r="I4" t="n">
         <v>-0.09410918884500628</v>
@@ -32782,13 +32782,13 @@
         <v>0.1250246176322499</v>
       </c>
       <c r="F5" t="n">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0247</v>
+        <v>0.029</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0309</v>
+        <v>0.0369</v>
       </c>
       <c r="I5" t="n">
         <v>-0.1408247009115232</v>
@@ -32860,13 +32860,13 @@
         <v>0.1666994901769616</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0291</v>
+        <v>0.0311</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0345</v>
+        <v>0.0385</v>
       </c>
       <c r="I6" t="n">
         <v>-0.2672404692431253</v>
@@ -32938,13 +32938,13 @@
         <v>0.2083743627216732</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0292</v>
+        <v>0.0332</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0327</v>
+        <v>0.0422</v>
       </c>
       <c r="I7" t="n">
         <v>-0.3012112689028015</v>
@@ -33019,10 +33019,10 @@
         <v>0.03</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0255</v>
+        <v>0.0286</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0319</v>
+        <v>0.0328</v>
       </c>
       <c r="I8" t="n">
         <v>-0.1873588970330698</v>
@@ -33097,10 +33097,10 @@
         <v>0.03</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0277</v>
+        <v>0.0286</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0324</v>
+        <v>0.0328</v>
       </c>
       <c r="I9" t="n">
         <v>-0.1502005654874816</v>
@@ -33175,10 +33175,10 @@
         <v>0.03</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0292</v>
+        <v>0.0269</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0323</v>
+        <v>0.0306</v>
       </c>
       <c r="I10" t="n">
         <v>-0.2062066115001907</v>
@@ -33250,13 +33250,13 @@
         <v>0.374947453920642</v>
       </c>
       <c r="F11" t="n">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0247</v>
+        <v>0.0293</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0286</v>
+        <v>0.0306</v>
       </c>
       <c r="I11" t="n">
         <v>-0.1236852294316239</v>
@@ -33331,10 +33331,10 @@
         <v>0.03</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0295</v>
+        <v>0.0284</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0354</v>
+        <v>0.0329</v>
       </c>
       <c r="I12" t="n">
         <v>-0.1123381912914305</v>
@@ -33406,13 +33406,13 @@
         <v>0.458297199009663</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0351</v>
+        <v>0.0294</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0423</v>
+        <v>0.0372</v>
       </c>
       <c r="I13" t="n">
         <v>-0.06133380134469252</v>
@@ -33484,13 +33484,13 @@
         <v>0.4999720715541735</v>
       </c>
       <c r="F14" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0294</v>
+        <v>0.0296</v>
       </c>
       <c r="H14" t="n">
-        <v>0.035</v>
+        <v>0.0363</v>
       </c>
       <c r="I14" t="n">
         <v>-0.0886189484430915</v>
@@ -33565,10 +33565,10 @@
         <v>0.03</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0294</v>
+        <v>0.0297</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0319</v>
+        <v>0.035</v>
       </c>
       <c r="I15" t="n">
         <v>0.04045422120088888</v>
@@ -33643,10 +33643,10 @@
         <v>0.03</v>
       </c>
       <c r="G16" t="n">
-        <v>0.029</v>
+        <v>0.0295</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0319</v>
+        <v>0.0363</v>
       </c>
       <c r="I16" t="n">
         <v>0.1371682562393216</v>
@@ -33721,10 +33721,10 @@
         <v>0.03</v>
       </c>
       <c r="G17" t="n">
-        <v>0.028</v>
+        <v>0.0285</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0313</v>
+        <v>0.0367</v>
       </c>
       <c r="I17" t="n">
         <v>0.286953859070433</v>
@@ -33796,13 +33796,13 @@
         <v>0.6666547659364399</v>
       </c>
       <c r="F18" t="n">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0247</v>
+        <v>0.0283</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0293</v>
+        <v>0.0331</v>
       </c>
       <c r="I18" t="n">
         <v>0.4069581771956777</v>
@@ -33877,10 +33877,10 @@
         <v>0.03</v>
       </c>
       <c r="G19" t="n">
-        <v>0.025</v>
+        <v>0.0294</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0312</v>
+        <v>0.0365</v>
       </c>
       <c r="I19" t="n">
         <v>0.4240462838934244</v>
@@ -33952,13 +33952,13 @@
         <v>0.7500045110251767</v>
       </c>
       <c r="F20" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0289</v>
+        <v>0.0324</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0333</v>
+        <v>0.041</v>
       </c>
       <c r="I20" t="n">
         <v>0.5234224967919324</v>
@@ -34030,13 +34030,13 @@
         <v>0.7916743561244654</v>
       </c>
       <c r="F21" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G21" t="n">
-        <v>0.029</v>
+        <v>0.0297</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0342</v>
+        <v>0.0381</v>
       </c>
       <c r="I21" t="n">
         <v>0.4679783912073881</v>
@@ -34111,10 +34111,10 @@
         <v>0.035</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03</v>
+        <v>0.0334</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0368</v>
+        <v>0.0375</v>
       </c>
       <c r="I22" t="n">
         <v>0.5670437020716634</v>
@@ -34189,10 +34189,10 @@
         <v>0.03</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0289</v>
+        <v>0.0249</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0331</v>
+        <v>0.0309</v>
       </c>
       <c r="I23" t="n">
         <v>0.3939302904332372</v>
@@ -34267,10 +34267,10 @@
         <v>0.025</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0244</v>
+        <v>0.0247</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0269</v>
+        <v>0.026</v>
       </c>
       <c r="I24" t="n">
         <v>0.5253312917562099</v>
@@ -34342,13 +34342,13 @@
         <v>0.9583251274554329</v>
       </c>
       <c r="F25" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0285</v>
+        <v>0.0299</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0311</v>
+        <v>0.0386</v>
       </c>
       <c r="I25" t="n">
         <v>0.5841753722240846</v>
@@ -34420,13 +34420,13 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G26" t="n">
-        <v>0.034</v>
+        <v>0.0349</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0419</v>
+        <v>0.043</v>
       </c>
       <c r="I26" t="n">
         <v>0.5039086672427676</v>

--- a/data/nzd0218/nzd0218.xlsx
+++ b/data/nzd0218/nzd0218.xlsx
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>339.87</v>
+        <v>339.76</v>
       </c>
       <c r="C2" t="n">
         <v>336.55</v>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>344.92</v>
+        <v>343.86</v>
       </c>
       <c r="C3" t="n">
         <v>359.58</v>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>367.49</v>
+        <v>365.91</v>
       </c>
       <c r="C4" t="n">
         <v>368.78</v>
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>381.18</v>
+        <v>380.21</v>
       </c>
       <c r="C5" t="n">
         <v>384.68</v>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>364.69</v>
+        <v>363.13</v>
       </c>
       <c r="C6" t="n">
         <v>357.17</v>
@@ -1015,7 +1015,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>358.42</v>
+        <v>358.98</v>
       </c>
       <c r="C7" t="n">
         <v>360.62</v>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>341.19</v>
+        <v>342.66</v>
       </c>
       <c r="C8" t="n">
         <v>339.96</v>
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>355.38</v>
+        <v>357.3</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>339.95</v>
+        <v>339.81</v>
       </c>
       <c r="C10" t="n">
         <v>334.24</v>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>359.22</v>
+        <v>361.72</v>
       </c>
       <c r="C11" t="n">
         <v>363.81</v>
@@ -1400,7 +1400,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>347.61</v>
+        <v>345.5</v>
       </c>
       <c r="C12" t="n">
         <v>346.54</v>
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>343.51</v>
+        <v>342.07</v>
       </c>
       <c r="C13" t="n">
         <v>345.89</v>
@@ -1574,7 +1574,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>341.86</v>
+        <v>341.14</v>
       </c>
       <c r="C14" t="n">
         <v>329.42</v>
@@ -1661,7 +1661,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>341.33</v>
+        <v>343.27</v>
       </c>
       <c r="C15" t="n">
         <v>335.35</v>
@@ -1744,7 +1744,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>346.57</v>
+        <v>347.65</v>
       </c>
       <c r="C16" t="n">
         <v>345.59</v>
@@ -1831,7 +1831,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>348.42</v>
+        <v>348.28</v>
       </c>
       <c r="C17" t="n">
         <v>344.14</v>
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>361.52</v>
+        <v>361.55</v>
       </c>
       <c r="C18" t="n">
         <v>354.68</v>
@@ -2143,7 +2143,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>364.97</v>
+        <v>363.75</v>
       </c>
       <c r="C21" t="n">
         <v>371.57</v>
@@ -2230,7 +2230,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>354.37</v>
+        <v>355.68</v>
       </c>
       <c r="C22" t="n">
         <v>353.37</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>370.06</v>
+        <v>368.56</v>
       </c>
       <c r="C23" t="n">
         <v>364.37</v>
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>368.94</v>
+        <v>368.88</v>
       </c>
       <c r="C24" t="n">
         <v>361.02</v>
@@ -2491,7 +2491,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>421.57</v>
+        <v>419.71</v>
       </c>
       <c r="C25" t="n">
         <v>417.16</v>
@@ -2578,7 +2578,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>386.17</v>
+        <v>388.09</v>
       </c>
       <c r="C26" t="n">
         <v>381.89</v>
@@ -2665,7 +2665,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>380.51</v>
+        <v>382.68</v>
       </c>
       <c r="C27" t="n">
         <v>373.41</v>
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>364.07</v>
+        <v>366.46</v>
       </c>
       <c r="C28" t="n">
         <v>363.5</v>
@@ -2839,7 +2839,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>327.28</v>
+        <v>325.61</v>
       </c>
       <c r="C29" t="n">
         <v>321.87</v>
@@ -2975,7 +2975,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>333.81</v>
+        <v>334.87</v>
       </c>
       <c r="C31" t="n">
         <v>326.66</v>
@@ -3050,7 +3050,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.2</v>
+        <v>336.98</v>
       </c>
       <c r="C32" t="n">
         <v>332.03</v>
@@ -3129,7 +3129,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>333.04</v>
+        <v>332.21</v>
       </c>
       <c r="C33" t="n">
         <v>321.08</v>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>333.99</v>
+        <v>332.55</v>
       </c>
       <c r="C34" t="n">
         <v>328.45</v>
@@ -3295,7 +3295,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>329.57</v>
+        <v>327.88</v>
       </c>
       <c r="C35" t="n">
         <v>322.45</v>
@@ -3374,7 +3374,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>343.81</v>
+        <v>342.81</v>
       </c>
       <c r="C36" t="n">
         <v>338.72</v>
@@ -3449,7 +3449,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>355.79</v>
+        <v>357.54</v>
       </c>
       <c r="C37" t="n">
         <v>337.89</v>
@@ -3536,7 +3536,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>334.35</v>
+        <v>334.63</v>
       </c>
       <c r="C38" t="n">
         <v>339.15</v>
@@ -3623,7 +3623,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>347.63</v>
+        <v>347.82</v>
       </c>
       <c r="C39" t="n">
         <v>350.92</v>
@@ -3785,7 +3785,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>345.29</v>
+        <v>347.46</v>
       </c>
       <c r="C41" t="n">
         <v>342.53</v>
@@ -3864,7 +3864,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>346.39</v>
+        <v>347.17</v>
       </c>
       <c r="C42" t="n">
         <v>346.65</v>
@@ -3943,7 +3943,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>339.82</v>
+        <v>339.18</v>
       </c>
       <c r="C43" t="n">
         <v>332.8</v>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>336.69</v>
+        <v>338.19</v>
       </c>
       <c r="C44" t="n">
         <v>330.14</v>
@@ -4115,7 +4115,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>333.65</v>
+        <v>334.96</v>
       </c>
       <c r="C45" t="n">
         <v>320.24</v>
@@ -4259,7 +4259,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>335.94</v>
+        <v>337.69</v>
       </c>
       <c r="C47" t="n">
         <v>324.39</v>
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>325.1</v>
+        <v>326.13</v>
       </c>
       <c r="C48" t="n">
         <v>316.54</v>
@@ -4433,7 +4433,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>340.88</v>
+        <v>340.96</v>
       </c>
       <c r="C49" t="n">
         <v>339.84</v>
@@ -4490,7 +4490,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>332.6</v>
+        <v>333.82</v>
       </c>
       <c r="C50" t="n">
         <v>326.02</v>
@@ -4569,7 +4569,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>309.65</v>
+        <v>307.79</v>
       </c>
       <c r="C51" t="n">
         <v>301.15</v>
@@ -4640,7 +4640,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>350.34</v>
+        <v>352.34</v>
       </c>
       <c r="C52" t="n">
         <v>344.16</v>
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>354.01</v>
+        <v>356.12</v>
       </c>
       <c r="C53" t="n">
         <v>348.61</v>
@@ -4802,7 +4802,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>357.42</v>
+        <v>358.39</v>
       </c>
       <c r="C54" t="n">
         <v>354.87</v>
@@ -4889,7 +4889,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>359.22</v>
+        <v>359</v>
       </c>
       <c r="C55" t="n">
         <v>351.42</v>
@@ -4968,7 +4968,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>377.9</v>
+        <v>376.34</v>
       </c>
       <c r="C56" t="n">
         <v>366.43</v>
@@ -5045,7 +5045,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>368.11</v>
+        <v>366.61</v>
       </c>
       <c r="C57" t="n">
         <v>363.87</v>
@@ -5124,7 +5124,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>356.13</v>
+        <v>357.96</v>
       </c>
       <c r="C58" t="n">
         <v>358.63</v>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>355.72</v>
+        <v>354.61</v>
       </c>
       <c r="C59" t="n">
         <v>348.69</v>
@@ -5290,7 +5290,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>345.82</v>
+        <v>344.51</v>
       </c>
       <c r="C60" t="n">
         <v>348.18</v>
@@ -5377,7 +5377,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>356.3</v>
+        <v>358.13</v>
       </c>
       <c r="C61" t="n">
         <v>351.43</v>
@@ -5456,7 +5456,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>332.99</v>
+        <v>333.66</v>
       </c>
       <c r="C62" t="n">
         <v>330.27</v>
@@ -5543,7 +5543,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>338.39</v>
+        <v>336.45</v>
       </c>
       <c r="C63" t="n">
         <v>320.39</v>
@@ -5616,7 +5616,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>334.64</v>
+        <v>335.97</v>
       </c>
       <c r="C64" t="n">
         <v>326.22</v>
@@ -5703,7 +5703,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>334.32</v>
+        <v>336.21</v>
       </c>
       <c r="C65" t="n">
         <v>327.02</v>
@@ -5790,7 +5790,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>343.88</v>
+        <v>344.85</v>
       </c>
       <c r="C66" t="n">
         <v>332.53</v>
@@ -5964,7 +5964,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>341.72</v>
+        <v>340.5</v>
       </c>
       <c r="C68" t="n">
         <v>333.51</v>
@@ -6051,7 +6051,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>341.89</v>
+        <v>343.92</v>
       </c>
       <c r="C69" t="n">
         <v>339.26</v>
@@ -6130,7 +6130,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>339.01</v>
+        <v>339.9</v>
       </c>
       <c r="C70" t="n">
         <v>334.77</v>
@@ -6209,7 +6209,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>345.32</v>
+        <v>344.88</v>
       </c>
       <c r="C71" t="n">
         <v>329.65</v>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>344.05</v>
+        <v>344.49</v>
       </c>
       <c r="C72" t="n">
         <v>341.49</v>
@@ -6373,7 +6373,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>354.81</v>
+        <v>356.28</v>
       </c>
       <c r="C73" t="n">
         <v>353.37</v>
@@ -6456,7 +6456,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>330.69</v>
+        <v>330.97</v>
       </c>
       <c r="C74" t="n">
         <v>334.33</v>
@@ -6543,7 +6543,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>340.61</v>
+        <v>341.22</v>
       </c>
       <c r="C75" t="n">
         <v>341.82</v>
@@ -6622,7 +6622,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>346.63</v>
+        <v>345.21</v>
       </c>
       <c r="C76" t="n">
         <v>343.7</v>
@@ -6709,7 +6709,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>347.5</v>
+        <v>348.97</v>
       </c>
       <c r="C77" t="n">
         <v>338.59</v>
@@ -6792,7 +6792,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>320.85</v>
+        <v>319.85</v>
       </c>
       <c r="C78" t="n">
         <v>303.39</v>
@@ -6863,7 +6863,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>326.05</v>
+        <v>326.83</v>
       </c>
       <c r="C79" t="n">
         <v>316.93</v>
@@ -6950,7 +6950,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>330.37</v>
+        <v>328.4</v>
       </c>
       <c r="C80" t="n">
         <v>312.61</v>
@@ -7023,7 +7023,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>329.23</v>
+        <v>330.67</v>
       </c>
       <c r="C81" t="n">
         <v>323.44</v>
@@ -7110,7 +7110,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>319.17</v>
+        <v>317.56</v>
       </c>
       <c r="C82" t="n">
         <v>302.42</v>
@@ -7238,7 +7238,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>325.91</v>
+        <v>326.99</v>
       </c>
       <c r="C84" t="n">
         <v>302.31</v>
@@ -7303,7 +7303,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>336.31</v>
+        <v>336.62</v>
       </c>
       <c r="C85" t="n">
         <v>330.85</v>
@@ -7390,7 +7390,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>339.49</v>
+        <v>338.27</v>
       </c>
       <c r="C86" t="n">
         <v>337.99</v>
@@ -7477,7 +7477,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>356.38</v>
+        <v>357.88</v>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
@@ -7556,7 +7556,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>344.32</v>
+        <v>342.79</v>
       </c>
       <c r="C88" t="n">
         <v>348.34</v>
@@ -7643,7 +7643,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>348.13</v>
+        <v>350.05</v>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
@@ -7797,7 +7797,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>360.31</v>
+        <v>360.92</v>
       </c>
       <c r="C91" t="n">
         <v>363.55</v>
@@ -7874,7 +7874,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>341.63</v>
+        <v>341.02</v>
       </c>
       <c r="C92" t="n">
         <v>341.18</v>
@@ -7949,7 +7949,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>329.11</v>
+        <v>331.33</v>
       </c>
       <c r="C93" t="n">
         <v>328.13</v>
@@ -8107,7 +8107,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>357.49</v>
+        <v>359.52</v>
       </c>
       <c r="C95" t="n">
         <v>354.38</v>
@@ -8188,7 +8188,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>335.96</v>
+        <v>336.07</v>
       </c>
       <c r="C96" t="n">
         <v>337.88</v>
@@ -8265,7 +8265,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>328.99</v>
+        <v>327.85</v>
       </c>
       <c r="C97" t="n">
         <v>324.01</v>
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>367.35</v>
+        <v>365.85</v>
       </c>
       <c r="C98" t="n">
         <v>349.97</v>
@@ -8391,7 +8391,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>364.21</v>
+        <v>366.85</v>
       </c>
       <c r="C99" t="n">
         <v>361.47</v>
@@ -8472,7 +8472,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>394.6</v>
+        <v>393.79</v>
       </c>
       <c r="C100" t="n">
         <v>378.77</v>
@@ -8549,7 +8549,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>337.39</v>
+        <v>337.5</v>
       </c>
       <c r="C101" t="n">
         <v>323.72</v>
@@ -8606,7 +8606,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>361.49</v>
+        <v>360.3</v>
       </c>
       <c r="C102" t="n">
         <v>349.08</v>
@@ -8744,7 +8744,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>375.45</v>
+        <v>374.51</v>
       </c>
       <c r="C104" t="n">
         <v>375.46</v>
@@ -8823,7 +8823,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>363.59</v>
+        <v>364.26</v>
       </c>
       <c r="C105" t="n">
         <v>363.69</v>
@@ -8904,7 +8904,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>364.44</v>
+        <v>367.19</v>
       </c>
       <c r="C106" t="n">
         <v>363.47</v>
@@ -8961,7 +8961,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>368.88</v>
+        <v>369.55</v>
       </c>
       <c r="C107" t="n">
         <v>372.26</v>
@@ -9036,7 +9036,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>345.98</v>
+        <v>345.01</v>
       </c>
       <c r="C108" t="n">
         <v>345.01</v>
@@ -9192,7 +9192,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>347.97</v>
+        <v>348.55</v>
       </c>
       <c r="C110" t="n">
         <v>340.57</v>
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>335.21</v>
+        <v>336.63</v>
       </c>
       <c r="C111" t="n">
         <v>331.28</v>
@@ -9429,7 +9429,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>334.05</v>
+        <v>335.05</v>
       </c>
       <c r="C113" t="n">
         <v>325.56</v>
@@ -9498,7 +9498,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>345.83</v>
+        <v>344.58</v>
       </c>
       <c r="C114" t="n">
         <v>348.27</v>
@@ -9577,7 +9577,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>360.01</v>
+        <v>358.62</v>
       </c>
       <c r="C115" t="n">
         <v>360.86</v>
@@ -9656,7 +9656,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>365.96</v>
+        <v>364.27</v>
       </c>
       <c r="C116" t="n">
         <v>366.67</v>
@@ -9737,7 +9737,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>346.18</v>
+        <v>347.04</v>
       </c>
       <c r="C117" t="n">
         <v>347.4</v>
@@ -9818,7 +9818,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>373.67</v>
+        <v>375.78</v>
       </c>
       <c r="C118" t="n">
         <v>365.59</v>
@@ -9897,7 +9897,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>373.53</v>
+        <v>376.31</v>
       </c>
       <c r="C119" t="n">
         <v>369.97</v>
@@ -9978,7 +9978,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>373.67</v>
+        <v>372.56</v>
       </c>
       <c r="C120" t="n">
         <v>363.54</v>
@@ -10059,7 +10059,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>364.41</v>
+        <v>363.02</v>
       </c>
       <c r="C121" t="n">
         <v>356.63</v>
@@ -10138,7 +10138,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>355.44</v>
+        <v>355.83</v>
       </c>
       <c r="C122" t="n">
         <v>354.99</v>
@@ -10217,7 +10217,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>348.6</v>
+        <v>350.63</v>
       </c>
       <c r="C123" t="n">
         <v>335.9</v>
@@ -10298,7 +10298,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>346.8</v>
+        <v>347.91</v>
       </c>
       <c r="C124" t="n">
         <v>335.85</v>
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>329.42</v>
+        <v>330.03</v>
       </c>
       <c r="C125" t="n">
         <v>328.44</v>
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>338.17</v>
+        <v>336.92</v>
       </c>
       <c r="C126" t="n">
         <v>349.26</v>
@@ -10525,7 +10525,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>373.34</v>
+        <v>371.98</v>
       </c>
       <c r="C127" t="n">
         <v>368.68</v>
@@ -10766,7 +10766,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>370.2</v>
+        <v>372.87</v>
       </c>
       <c r="C130" t="n">
         <v>367.17</v>
@@ -10847,7 +10847,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>371.58</v>
+        <v>372.5</v>
       </c>
       <c r="C131" t="n">
         <v>370.6</v>
@@ -10926,7 +10926,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>354.49</v>
+        <v>353.16</v>
       </c>
       <c r="C132" t="n">
         <v>354.44</v>
@@ -11005,7 +11005,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>354.41</v>
+        <v>355.99</v>
       </c>
       <c r="C133" t="n">
         <v>354.12</v>
@@ -11092,7 +11092,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>353.13</v>
+        <v>351.63</v>
       </c>
       <c r="C134" t="n">
         <v>347.17</v>
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>348.21</v>
+        <v>348.57</v>
       </c>
       <c r="C135" t="n">
         <v>339.17</v>
@@ -11252,7 +11252,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>314.11</v>
+        <v>316.08</v>
       </c>
       <c r="C136" t="n">
         <v>317.83</v>
@@ -11327,7 +11327,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>357.43</v>
+        <v>357.6</v>
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr"/>
@@ -11382,7 +11382,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>369.63</v>
+        <v>368.3</v>
       </c>
       <c r="C138" t="n">
         <v>358.22</v>
@@ -11459,7 +11459,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>407.74</v>
+        <v>405.77</v>
       </c>
       <c r="C139" t="n">
         <v>388.89</v>
@@ -11530,7 +11530,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>360.68</v>
+        <v>361.57</v>
       </c>
       <c r="C140" t="n">
         <v>351.86</v>
@@ -11609,7 +11609,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>347.27</v>
+        <v>346.71</v>
       </c>
       <c r="C141" t="n">
         <v>342.14</v>
@@ -11737,7 +11737,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>344.57</v>
+        <v>346.57</v>
       </c>
       <c r="C143" t="n">
         <v>341.13</v>
@@ -11812,7 +11812,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>359.1</v>
+        <v>360.16</v>
       </c>
       <c r="C144" t="n">
         <v>356.07</v>
@@ -11893,7 +11893,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>363.78</v>
+        <v>363.75</v>
       </c>
       <c r="C145" t="n">
         <v>357.13</v>
@@ -11972,7 +11972,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>364.95</v>
+        <v>363.7</v>
       </c>
       <c r="C146" t="n">
         <v>372.81</v>
@@ -12047,7 +12047,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>353.27</v>
+        <v>353.21</v>
       </c>
       <c r="C147" t="n">
         <v>354.43</v>
@@ -12122,7 +12122,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>377.1</v>
+        <v>378.02</v>
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr"/>
@@ -12203,7 +12203,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>369.93</v>
+        <v>371.32</v>
       </c>
       <c r="C149" t="n">
         <v>372.73</v>
@@ -12282,7 +12282,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>322.96</v>
+        <v>320.9</v>
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr"/>
@@ -12329,7 +12329,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>348.66</v>
+        <v>349.44</v>
       </c>
       <c r="C151" t="n">
         <v>343.71</v>
@@ -12416,7 +12416,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>338.95</v>
+        <v>339.48</v>
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr"/>
@@ -12526,7 +12526,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>353.46</v>
+        <v>355.74</v>
       </c>
       <c r="C154" t="n">
         <v>346.88</v>
@@ -12607,7 +12607,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>352.53</v>
+        <v>353.75</v>
       </c>
       <c r="C155" t="n">
         <v>347.67</v>
@@ -12686,7 +12686,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>348.52</v>
+        <v>347.49</v>
       </c>
       <c r="C156" t="n">
         <v>348.99</v>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>335.96</v>
+        <v>335.71</v>
       </c>
       <c r="C157" t="n">
         <v>344.63</v>
@@ -12842,7 +12842,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>329.95</v>
+        <v>330.53</v>
       </c>
       <c r="C158" t="n">
         <v>335.8</v>
@@ -12929,7 +12929,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>346.5</v>
+        <v>346.61</v>
       </c>
       <c r="C159" t="n">
         <v>347.27</v>
@@ -13091,7 +13091,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>354.37</v>
+        <v>353.31</v>
       </c>
       <c r="C161" t="n">
         <v>342.43</v>
@@ -13253,7 +13253,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>333.31</v>
+        <v>331.89</v>
       </c>
       <c r="C163" t="n">
         <v>334.1</v>
@@ -13340,7 +13340,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>344.46</v>
+        <v>345.6</v>
       </c>
       <c r="C164" t="n">
         <v>342.21</v>
@@ -13419,7 +13419,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>341.92</v>
+        <v>342.86</v>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr"/>
@@ -13500,7 +13500,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>343.87</v>
+        <v>344.29</v>
       </c>
       <c r="C166" t="n">
         <v>340.86</v>
@@ -13587,7 +13587,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>325.99</v>
+        <v>324.41</v>
       </c>
       <c r="C167" t="n">
         <v>317.19</v>
@@ -13662,7 +13662,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>338.16</v>
+        <v>340.27</v>
       </c>
       <c r="C168" t="n">
         <v>335.22</v>
@@ -13749,7 +13749,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>333.26</v>
+        <v>334.01</v>
       </c>
       <c r="C169" t="n">
         <v>326.19</v>
@@ -13836,7 +13836,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>328.72</v>
+        <v>328.41</v>
       </c>
       <c r="C170" t="n">
         <v>323.4</v>
@@ -13889,7 +13889,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>325.21</v>
+        <v>323.85</v>
       </c>
       <c r="C171" t="n">
         <v>313.95</v>
@@ -13976,7 +13976,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>335.77</v>
+        <v>334.46</v>
       </c>
       <c r="C172" t="n">
         <v>325.93</v>
@@ -14063,7 +14063,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>335.36</v>
+        <v>337.86</v>
       </c>
       <c r="C173" t="n">
         <v>332.12</v>
@@ -14144,7 +14144,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>333.6</v>
+        <v>331.41</v>
       </c>
       <c r="C174" t="n">
         <v>336.5</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>340.89</v>
+        <v>340.22</v>
       </c>
       <c r="C175" t="n">
         <v>341.41</v>
@@ -14377,7 +14377,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>342.3</v>
+        <v>343.19</v>
       </c>
       <c r="C177" t="n">
         <v>345.44</v>
@@ -14464,7 +14464,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>352.39</v>
+        <v>354.67</v>
       </c>
       <c r="C178" t="n">
         <v>353.5</v>
@@ -14551,7 +14551,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>374.84</v>
+        <v>375.09</v>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr"/>
@@ -14709,7 +14709,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>351.7</v>
+        <v>352.53</v>
       </c>
       <c r="C181" t="n">
         <v>348.38</v>
@@ -14790,7 +14790,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>356.35</v>
+        <v>355.13</v>
       </c>
       <c r="C182" t="n">
         <v>356.01</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>348.99</v>
+        <v>350.66</v>
       </c>
       <c r="C183" t="n">
         <v>350.88</v>
@@ -14958,7 +14958,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>345.39</v>
+        <v>347.11</v>
       </c>
       <c r="C184" t="n">
         <v>341.1</v>
@@ -15037,7 +15037,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>344.21</v>
+        <v>345.21</v>
       </c>
       <c r="C185" t="n">
         <v>338.21</v>
@@ -15116,7 +15116,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>332.54</v>
+        <v>331.96</v>
       </c>
       <c r="C186" t="n">
         <v>323.83</v>
@@ -15203,7 +15203,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>331.28</v>
+        <v>330.36</v>
       </c>
       <c r="C187" t="n">
         <v>316.9</v>
@@ -15282,7 +15282,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>335.88</v>
+        <v>337.77</v>
       </c>
       <c r="C188" t="n">
         <v>333.25</v>
@@ -15369,7 +15369,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>324.02</v>
+        <v>321.94</v>
       </c>
       <c r="C189" t="n">
         <v>319.18</v>
@@ -15450,7 +15450,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>333.51</v>
+        <v>331.93</v>
       </c>
       <c r="C190" t="n">
         <v>322.55</v>
@@ -15523,7 +15523,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>331.36</v>
+        <v>332.25</v>
       </c>
       <c r="C191" t="n">
         <v>328.14</v>
@@ -15661,7 +15661,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>346.37</v>
+        <v>346.68</v>
       </c>
       <c r="C193" t="n">
         <v>335.94</v>
@@ -15819,7 +15819,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>372.91</v>
+        <v>371.66</v>
       </c>
       <c r="C195" t="n">
         <v>358.1</v>
@@ -15906,7 +15906,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>371.99</v>
+        <v>373.68</v>
       </c>
       <c r="C196" t="n">
         <v>367.03</v>
@@ -15985,7 +15985,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>373.01</v>
+        <v>372.57</v>
       </c>
       <c r="C197" t="n">
         <v>363.58</v>
@@ -16072,7 +16072,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>373.53</v>
+        <v>374.67</v>
       </c>
       <c r="C198" t="n">
         <v>363.19</v>
@@ -16151,7 +16151,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>362.01</v>
+        <v>363.09</v>
       </c>
       <c r="C199" t="n">
         <v>358.4</v>
@@ -16307,7 +16307,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>385.05</v>
+        <v>386.41</v>
       </c>
       <c r="C201" t="n">
         <v>379.37</v>
@@ -16394,7 +16394,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>372.09</v>
+        <v>372.23</v>
       </c>
       <c r="C202" t="n">
         <v>368.75</v>
@@ -16481,7 +16481,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>375.43</v>
+        <v>377.1</v>
       </c>
       <c r="C203" t="n">
         <v>374.62</v>
@@ -16560,7 +16560,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>372.57</v>
+        <v>371.35</v>
       </c>
       <c r="C204" t="n">
         <v>373.83</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>348.57</v>
+        <v>351.21</v>
       </c>
       <c r="C205" t="n">
         <v>345.87</v>
@@ -16724,7 +16724,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>352.26</v>
+        <v>353.01</v>
       </c>
       <c r="C206" t="inlineStr"/>
       <c r="D206" t="inlineStr"/>
@@ -16793,7 +16793,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>378.41</v>
+        <v>377.35</v>
       </c>
       <c r="C207" t="n">
         <v>368.74</v>
@@ -16874,7 +16874,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>361.26</v>
+        <v>359.57</v>
       </c>
       <c r="C208" t="n">
         <v>362.79</v>
@@ -16949,7 +16949,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>339</v>
+        <v>340.06</v>
       </c>
       <c r="C209" t="n">
         <v>341.3</v>
@@ -17036,7 +17036,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>343.99</v>
+        <v>343.8</v>
       </c>
       <c r="C210" t="n">
         <v>338.99</v>
@@ -17123,7 +17123,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>346.87</v>
+        <v>345.48</v>
       </c>
       <c r="C211" t="n">
         <v>341.55</v>
@@ -17210,7 +17210,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>341.96</v>
+        <v>340.74</v>
       </c>
       <c r="C212" t="n">
         <v>342.63</v>
@@ -17297,7 +17297,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>372.54</v>
+        <v>370.57</v>
       </c>
       <c r="C213" t="n">
         <v>372.95</v>
@@ -17376,7 +17376,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>343.09</v>
+        <v>342.84</v>
       </c>
       <c r="C214" t="n">
         <v>342.87</v>
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>353.59</v>
+        <v>356.34</v>
       </c>
       <c r="C216" t="n">
         <v>358.23</v>
@@ -17633,7 +17633,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>379.05</v>
+        <v>377.02</v>
       </c>
       <c r="C217" t="n">
         <v>377.46</v>
@@ -17714,7 +17714,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>361.81</v>
+        <v>360.89</v>
       </c>
       <c r="C218" t="n">
         <v>356.11</v>
@@ -17793,7 +17793,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>372.8</v>
+        <v>374.16</v>
       </c>
       <c r="C219" t="n">
         <v>369.91</v>
@@ -17880,7 +17880,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>366.62</v>
+        <v>367.18</v>
       </c>
       <c r="C220" t="n">
         <v>365.76</v>
@@ -17943,7 +17943,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>353.88</v>
+        <v>356.3</v>
       </c>
       <c r="C221" t="n">
         <v>353.95</v>
@@ -18107,7 +18107,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>337.63</v>
+        <v>338.63</v>
       </c>
       <c r="C223" t="inlineStr"/>
       <c r="D223" t="inlineStr"/>
@@ -18188,7 +18188,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>336.1</v>
+        <v>336.99</v>
       </c>
       <c r="C224" t="n">
         <v>327.77</v>
@@ -18275,7 +18275,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>333.46</v>
+        <v>334.6</v>
       </c>
       <c r="C225" t="n">
         <v>327.22</v>
@@ -18409,7 +18409,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>343.99</v>
+        <v>345.13</v>
       </c>
       <c r="C227" t="n">
         <v>342.1</v>
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>333.47</v>
+        <v>333.36</v>
       </c>
       <c r="C228" t="n">
         <v>325.67</v>
@@ -18577,7 +18577,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>347.32</v>
+        <v>347.65</v>
       </c>
       <c r="C229" t="n">
         <v>342.61</v>
@@ -18656,7 +18656,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>343.64</v>
+        <v>345.47</v>
       </c>
       <c r="C230" t="n">
         <v>343.04</v>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>341.46</v>
+        <v>340.21</v>
       </c>
       <c r="C231" t="n">
         <v>334.46</v>
@@ -18826,7 +18826,7 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>364.38</v>
+        <v>362.66</v>
       </c>
       <c r="C232" t="n">
         <v>340.93</v>
@@ -18913,7 +18913,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>349.01</v>
+        <v>349.54</v>
       </c>
       <c r="C233" t="n">
         <v>350.3</v>
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>329.45</v>
+        <v>328.62</v>
       </c>
       <c r="C234" t="n">
         <v>323.48</v>
@@ -19193,7 +19193,7 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>354.46</v>
+        <v>356.4</v>
       </c>
       <c r="C237" t="n">
         <v>350.49</v>
@@ -19268,7 +19268,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>323.16</v>
+        <v>321.69</v>
       </c>
       <c r="C238" t="n">
         <v>311.81</v>
@@ -19349,7 +19349,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>348.09</v>
+        <v>350.23</v>
       </c>
       <c r="C239" t="n">
         <v>341.76</v>
@@ -19430,7 +19430,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>325.29</v>
+        <v>324.9</v>
       </c>
       <c r="C240" t="n">
         <v>316.03</v>
@@ -19513,7 +19513,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>333.13</v>
+        <v>334.16</v>
       </c>
       <c r="C241" t="n">
         <v>327.79</v>
@@ -19600,7 +19600,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>338.2</v>
+        <v>340.48</v>
       </c>
       <c r="C242" t="n">
         <v>331.01</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>347.04</v>
+        <v>344.76</v>
       </c>
       <c r="C243" t="n">
         <v>345.37</v>
@@ -19768,7 +19768,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>344.8</v>
+        <v>345.97</v>
       </c>
       <c r="C244" t="n">
         <v>347.55</v>
@@ -19855,7 +19855,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>340.03</v>
+        <v>339.25</v>
       </c>
       <c r="C245" t="n">
         <v>333.71</v>
@@ -19938,7 +19938,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>370.55</v>
+        <v>369.44</v>
       </c>
       <c r="C246" t="n">
         <v>347.92</v>
@@ -20023,7 +20023,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>356.9</v>
+        <v>355.59</v>
       </c>
       <c r="C247" t="n">
         <v>360.66</v>
@@ -20185,7 +20185,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>366.34</v>
+        <v>368.09</v>
       </c>
       <c r="C249" t="n">
         <v>364.58</v>
@@ -20266,7 +20266,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>353.56</v>
+        <v>353.64</v>
       </c>
       <c r="C250" t="n">
         <v>351.44</v>
@@ -20353,7 +20353,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>365.72</v>
+        <v>366.25</v>
       </c>
       <c r="C251" t="n">
         <v>362.01</v>
@@ -20436,7 +20436,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>334.63</v>
+        <v>332.49</v>
       </c>
       <c r="C252" t="n">
         <v>338.61</v>
@@ -20523,7 +20523,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>355.22</v>
+        <v>354.89</v>
       </c>
       <c r="C253" t="n">
         <v>332.26</v>
@@ -20610,7 +20610,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>346.45</v>
+        <v>348.76</v>
       </c>
       <c r="C254" t="n">
         <v>344.08</v>
@@ -20697,7 +20697,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>359.85</v>
+        <v>358.91</v>
       </c>
       <c r="C255" t="n">
         <v>365.14</v>
@@ -20784,7 +20784,7 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>364.17</v>
+        <v>364.36</v>
       </c>
       <c r="C256" t="n">
         <v>362.32</v>
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>371.71</v>
+        <v>372.32</v>
       </c>
       <c r="C257" t="n">
         <v>370.23</v>
@@ -20958,7 +20958,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>367.42</v>
+        <v>369.28</v>
       </c>
       <c r="C258" t="n">
         <v>367.13</v>
@@ -21045,7 +21045,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>360.26</v>
+        <v>363.04</v>
       </c>
       <c r="C259" t="n">
         <v>363.52</v>
@@ -21132,7 +21132,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>356.61</v>
+        <v>357.39</v>
       </c>
       <c r="C260" t="n">
         <v>353.9</v>
@@ -21219,7 +21219,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>340.26</v>
+        <v>337.95</v>
       </c>
       <c r="C261" t="n">
         <v>342.13</v>
@@ -21306,7 +21306,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>353.7</v>
+        <v>352.98</v>
       </c>
       <c r="C262" t="n">
         <v>364.53</v>
@@ -21393,7 +21393,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>340.99</v>
+        <v>339.66</v>
       </c>
       <c r="C263" t="n">
         <v>348.32</v>
@@ -21480,7 +21480,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>363.3</v>
+        <v>361.27</v>
       </c>
       <c r="C264" t="n">
         <v>364.33</v>
@@ -21565,7 +21565,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>347.71</v>
+        <v>350.21</v>
       </c>
       <c r="C265" t="n">
         <v>348.04</v>
@@ -21642,7 +21642,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>347.98</v>
+        <v>349.17</v>
       </c>
       <c r="C266" t="n">
         <v>356.21</v>
@@ -21729,7 +21729,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>355.09</v>
+        <v>353.87</v>
       </c>
       <c r="C267" t="n">
         <v>348.51</v>
@@ -21816,7 +21816,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>320.84</v>
+        <v>318.48</v>
       </c>
       <c r="C268" t="n">
         <v>316.62</v>
@@ -21901,7 +21901,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>324.96</v>
+        <v>323.85</v>
       </c>
       <c r="C269" t="n">
         <v>315.45</v>
@@ -21960,7 +21960,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>317.27</v>
+        <v>317.49</v>
       </c>
       <c r="C270" t="n">
         <v>313.64</v>
@@ -22043,7 +22043,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>340.32</v>
+        <v>341.99</v>
       </c>
       <c r="C271" t="n">
         <v>333.62</v>
@@ -22130,7 +22130,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>337.34</v>
+        <v>339.51</v>
       </c>
       <c r="C272" t="n">
         <v>338.5</v>
@@ -22217,7 +22217,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>340.09</v>
+        <v>341.7</v>
       </c>
       <c r="C273" t="n">
         <v>342.33</v>
@@ -22304,7 +22304,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>342.59</v>
+        <v>340.62</v>
       </c>
       <c r="C274" t="n">
         <v>353.32</v>
@@ -22387,7 +22387,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>344.04</v>
+        <v>345.73</v>
       </c>
       <c r="C275" t="n">
         <v>340.52</v>
@@ -22547,7 +22547,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>334.43</v>
+        <v>335.57</v>
       </c>
       <c r="C277" t="n">
         <v>333.61</v>
@@ -22634,7 +22634,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>348.83</v>
+        <v>348.61</v>
       </c>
       <c r="C278" t="n">
         <v>348.42</v>
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>340.53</v>
+        <v>339.22</v>
       </c>
       <c r="C279" t="n">
         <v>335.15</v>
@@ -22808,7 +22808,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>357.62</v>
+        <v>355.84</v>
       </c>
       <c r="C280" t="n">
         <v>353.78</v>
@@ -22895,7 +22895,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>353.29</v>
+        <v>354.54</v>
       </c>
       <c r="C281" t="n">
         <v>350.96</v>
@@ -22982,7 +22982,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>352.86</v>
+        <v>354.08</v>
       </c>
       <c r="C282" t="inlineStr"/>
       <c r="D282" t="inlineStr"/>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>369.94</v>
+        <v>371.02</v>
       </c>
       <c r="C283" t="n">
         <v>365.12</v>
@@ -23134,7 +23134,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>361.1</v>
+        <v>360.79</v>
       </c>
       <c r="C284" t="n">
         <v>351.33</v>
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>360.89</v>
+        <v>360.45</v>
       </c>
       <c r="C285" t="n">
         <v>358.85</v>
@@ -23306,7 +23306,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>335.06</v>
+        <v>334.28</v>
       </c>
       <c r="C286" t="n">
         <v>327.61</v>
@@ -23387,7 +23387,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>346.82</v>
+        <v>348.76</v>
       </c>
       <c r="C287" t="n">
         <v>350.17</v>
@@ -23474,7 +23474,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>335.69</v>
+        <v>335.52</v>
       </c>
       <c r="C288" t="n">
         <v>343.8</v>
@@ -23545,7 +23545,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>363.94</v>
+        <v>362.58</v>
       </c>
       <c r="C289" t="n">
         <v>366.34</v>
@@ -23632,7 +23632,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>350.66</v>
+        <v>351.27</v>
       </c>
       <c r="C290" t="n">
         <v>351.39</v>
@@ -23719,7 +23719,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>355.25</v>
+        <v>355.39</v>
       </c>
       <c r="C291" t="n">
         <v>367.76</v>
@@ -23806,7 +23806,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>357.12</v>
+        <v>356.29</v>
       </c>
       <c r="C292" t="n">
         <v>355.8</v>
@@ -23893,7 +23893,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>357.83</v>
+        <v>360.58</v>
       </c>
       <c r="C293" t="n">
         <v>364.5</v>
@@ -23978,7 +23978,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>331.22</v>
+        <v>329.36</v>
       </c>
       <c r="C294" t="n">
         <v>332.4</v>
@@ -24132,7 +24132,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>319.76</v>
+        <v>319.29</v>
       </c>
       <c r="C296" t="n">
         <v>314.88</v>
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>326.2</v>
+        <v>327.01</v>
       </c>
       <c r="C298" t="n">
         <v>321.22</v>
@@ -24369,7 +24369,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>331.19</v>
+        <v>333.27</v>
       </c>
       <c r="C299" t="n">
         <v>327.27</v>
@@ -24456,7 +24456,7 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>331.75</v>
+        <v>331.97</v>
       </c>
       <c r="C300" t="n">
         <v>319.52</v>
@@ -24505,7 +24505,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>323.25</v>
+        <v>324.36</v>
       </c>
       <c r="C301" t="n">
         <v>320.36</v>
@@ -24649,7 +24649,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>322.94</v>
+        <v>321.16</v>
       </c>
       <c r="C303" t="n">
         <v>313.74</v>
@@ -24736,7 +24736,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>319.2</v>
+        <v>317.12</v>
       </c>
       <c r="C304" t="n">
         <v>306.41</v>
@@ -24823,7 +24823,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>331.82</v>
+        <v>333.21</v>
       </c>
       <c r="C305" t="n">
         <v>325.2</v>
@@ -24910,7 +24910,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>321.01</v>
+        <v>322.07</v>
       </c>
       <c r="C306" t="n">
         <v>318.47</v>
@@ -24997,7 +24997,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>342.49</v>
+        <v>340.66</v>
       </c>
       <c r="C307" t="n">
         <v>312.49</v>
@@ -25064,7 +25064,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>325.4</v>
+        <v>325.07</v>
       </c>
       <c r="C308" t="n">
         <v>316.58</v>
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>332.46</v>
+        <v>333.13</v>
       </c>
       <c r="C309" t="n">
         <v>325.25</v>
@@ -25238,7 +25238,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>335.68</v>
+        <v>334.4</v>
       </c>
       <c r="C310" t="n">
         <v>326.39</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>344.99</v>
+        <v>346.91</v>
       </c>
       <c r="C311" t="n">
         <v>343.77</v>
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>336.64</v>
+        <v>335.56</v>
       </c>
       <c r="C312" t="n">
         <v>329.46</v>
@@ -25483,7 +25483,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>338.1</v>
+        <v>337.96</v>
       </c>
       <c r="C313" t="n">
         <v>335.59</v>
@@ -25570,7 +25570,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>345.33</v>
+        <v>345.61</v>
       </c>
       <c r="C314" t="n">
         <v>335.56</v>
@@ -25657,7 +25657,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>348.21</v>
+        <v>346.71</v>
       </c>
       <c r="C315" t="n">
         <v>340.01</v>
@@ -25744,7 +25744,7 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>349.02</v>
+        <v>347.33</v>
       </c>
       <c r="C316" t="n">
         <v>348.62</v>
@@ -25831,7 +25831,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>355.65</v>
+        <v>355.26</v>
       </c>
       <c r="C317" t="n">
         <v>352.57</v>
@@ -25918,7 +25918,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>344.87</v>
+        <v>344.81</v>
       </c>
       <c r="C318" t="n">
         <v>349.63</v>
@@ -26005,7 +26005,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>336.21</v>
+        <v>335.49</v>
       </c>
       <c r="C319" t="n">
         <v>341.3</v>
@@ -26092,7 +26092,7 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>351.6</v>
+        <v>352.41</v>
       </c>
       <c r="C320" t="n">
         <v>347.24</v>
@@ -26179,7 +26179,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>343.13</v>
+        <v>342.3</v>
       </c>
       <c r="C321" t="n">
         <v>334.01</v>
@@ -26266,7 +26266,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>341.67</v>
+        <v>343.06</v>
       </c>
       <c r="C322" t="n">
         <v>337.82</v>
@@ -26353,7 +26353,7 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>341.35</v>
+        <v>342.54</v>
       </c>
       <c r="C323" t="n">
         <v>331.95</v>
@@ -26440,7 +26440,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>338.34</v>
+        <v>337.03</v>
       </c>
       <c r="C324" t="n">
         <v>328.98</v>
@@ -26527,7 +26527,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>333.09</v>
+        <v>334.17</v>
       </c>
       <c r="C325" t="n">
         <v>326.31</v>
@@ -26614,7 +26614,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>340.78</v>
+        <v>340.14</v>
       </c>
       <c r="C326" t="n">
         <v>320.58</v>
@@ -26701,7 +26701,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>344.69</v>
+        <v>345.86</v>
       </c>
       <c r="C327" t="n">
         <v>327.97</v>
@@ -26788,7 +26788,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>335.44</v>
+        <v>337.3</v>
       </c>
       <c r="C328" t="n">
         <v>326.58</v>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>335.15</v>
+        <v>336.62</v>
       </c>
       <c r="C329" t="n">
         <v>329.71</v>
@@ -26960,7 +26960,7 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>357.9</v>
+        <v>358.87</v>
       </c>
       <c r="C330" t="n">
         <v>352.5</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>355.47</v>
+        <v>355.08</v>
       </c>
       <c r="C331" t="n">
         <v>341.03</v>
@@ -27122,7 +27122,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>372.14</v>
+        <v>371.67</v>
       </c>
       <c r="C332" t="n">
         <v>366.78</v>
@@ -27209,7 +27209,7 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>358.54</v>
+        <v>360.93</v>
       </c>
       <c r="C333" t="n">
         <v>355.72</v>
@@ -27296,7 +27296,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>387.99</v>
+        <v>386.66</v>
       </c>
       <c r="C334" t="n">
         <v>383.48</v>
@@ -27383,7 +27383,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>372.56</v>
+        <v>374.37</v>
       </c>
       <c r="C335" t="n">
         <v>362.12</v>
@@ -27468,7 +27468,7 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>354.65</v>
+        <v>354.87</v>
       </c>
       <c r="C336" t="n">
         <v>358.85</v>
@@ -27555,7 +27555,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>345.86</v>
+        <v>346.33</v>
       </c>
       <c r="C337" t="n">
         <v>341.92</v>
@@ -27642,7 +27642,7 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>375.14</v>
+        <v>373.5</v>
       </c>
       <c r="C338" t="n">
         <v>381.64</v>
@@ -27729,7 +27729,7 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>377.98</v>
+        <v>376.45</v>
       </c>
       <c r="C339" t="n">
         <v>388.11</v>
@@ -27816,7 +27816,7 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>332.39</v>
+        <v>334.06</v>
       </c>
       <c r="C340" t="n">
         <v>327.74</v>
@@ -27901,7 +27901,7 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>356.7</v>
+        <v>357.37</v>
       </c>
       <c r="C341" t="n">
         <v>353.42</v>
@@ -27988,7 +27988,7 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>364.79</v>
+        <v>364.48</v>
       </c>
       <c r="C342" t="n">
         <v>360.93</v>
@@ -28075,7 +28075,7 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>365.74</v>
+        <v>364.82</v>
       </c>
       <c r="C343" t="n">
         <v>356.68</v>
@@ -28162,7 +28162,7 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>352.24</v>
+        <v>353.46</v>
       </c>
       <c r="C344" t="n">
         <v>346.68</v>
@@ -28249,7 +28249,7 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>337.72</v>
+        <v>338.91</v>
       </c>
       <c r="C345" t="n">
         <v>329.15</v>
@@ -28336,7 +28336,7 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>348.03</v>
+        <v>346.81</v>
       </c>
       <c r="C346" t="n">
         <v>337.35</v>
@@ -28466,7 +28466,7 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>345.02</v>
+        <v>344.96</v>
       </c>
       <c r="C348" t="n">
         <v>335.29</v>
@@ -28553,7 +28553,7 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>346.81</v>
+        <v>348.59</v>
       </c>
       <c r="C349" t="n">
         <v>343.99</v>
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>351.65</v>
+        <v>353.32</v>
       </c>
       <c r="C350" t="n">
         <v>354.95</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>391.19</v>
+        <v>390.63</v>
       </c>
       <c r="C351" t="n">
         <v>395.16</v>
@@ -28812,7 +28812,7 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>369.08</v>
+        <v>371.55</v>
       </c>
       <c r="C352" t="n">
         <v>369.91</v>
@@ -32682,7 +32682,7 @@
         <v>0.0512</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.08949068462693648</v>
+        <v>-0.09165552344262183</v>
       </c>
       <c r="J2" t="n">
         <v>351</v>
@@ -32691,19 +32691,19 @@
         <v>318</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001751221053831853</v>
+        <v>0.001823174493100765</v>
       </c>
       <c r="M2" t="n">
-        <v>12.99576660591646</v>
+        <v>13.1064567971932</v>
       </c>
       <c r="N2" t="n">
-        <v>265.3962117150514</v>
+        <v>267.3854499209998</v>
       </c>
       <c r="O2" t="n">
-        <v>16.29098559679713</v>
+        <v>16.35192496071945</v>
       </c>
       <c r="P2" t="n">
-        <v>350.2637578252319</v>
+        <v>350.4966074542789</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34766,7 +34766,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-37.70855239474343,178.5343803023177</t>
+          <t>-37.70855179818958,178.5343793101077</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -34903,7 +34903,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-37.70857978197777,178.53442585379366</t>
+          <t>-37.70857403337185,178.53441629249104</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -35040,7 +35040,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-37.70870218368461,178.5346294377217</t>
+          <t>-37.70869361503606,178.5346151859234</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -35177,7 +35177,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-37.70877642714417,178.53475292337416</t>
+          <t>-37.70877116665563,178.53474417383498</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -35314,7 +35314,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-37.70868699873648,178.5346041813725</t>
+          <t>-37.70867853854837,178.5345901099823</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -35451,7 +35451,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-37.70865299527632,178.53454762522708</t>
+          <t>-37.70865603226926,178.5345526764916</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -35588,7 +35588,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-37.70855955338883,178.53439220883894</t>
+          <t>-37.70856752551502,178.5344054683766</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -35713,7 +35713,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-37.70863650873885,178.53452020408386</t>
+          <t>-37.7086469212897,178.53453752269925</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -35766,7 +35766,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-37.708552828600766,178.534381023925</t>
+          <t>-37.708552069350425,178.53437976111223</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -35903,7 +35903,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-37.70865733383758,178.53455484131936</t>
+          <t>-37.70867089183821,178.53457739161308</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -36036,7 +36036,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-37.708594370417046,178.5344501178606</t>
+          <t>-37.708582927441,178.53443108545045</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -36173,7 +36173,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-37.70857213524707,178.53441313545747</t>
+          <t>-37.708564325818315,178.53440014652102</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -36310,7 +36310,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-37.708563186943145,178.53439825230134</t>
+          <t>-37.708559282228045,178.5343917578343</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -36447,7 +36447,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-37.708560312639015,178.53439347165195</t>
+          <t>-37.70857083367572,178.53441097063455</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -36576,7 +36576,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-37.70858873027763,178.5344407369563</t>
+          <t>-37.708594587345466,178.53445047866464</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -36713,7 +36713,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-37.70859876321733,178.5344574241428</t>
+          <t>-37.70859800396793,178.53445616132854</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -36850,7 +36850,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-37.708669807198355,178.5345755875893</t>
+          <t>-37.70866996989434,178.53457585819288</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -37189,7 +37189,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-37.70868851723158,178.53460670700696</t>
+          <t>-37.70868190093106,178.53459570245752</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -37326,7 +37326,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>-37.708631031302076,178.53451109377247</t>
+          <t>-37.70863813570013,178.5345229101172</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -37463,7 +37463,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>-37.70871612129217,178.53465261945107</t>
+          <t>-37.70870798650241,178.5346390892578</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -37600,7 +37600,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-37.70871004731599,178.5346425169065</t>
+          <t>-37.70870972192438,178.5346419756988</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -37737,7 +37737,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-37.70899546888007,178.5351172480436</t>
+          <t>-37.70898538181718,178.5351004704812</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -37874,7 +37874,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>-37.70880348882077,178.5347979339093</t>
+          <t>-37.70881390132429,178.53481525260068</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -38011,7 +38011,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-37.708772793610926,178.5347468798779</t>
+          <t>-37.70878456191879,178.53476645359177</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -38148,7 +38148,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>-37.70868363635426,178.53459858889653</t>
+          <t>-37.7086965977937,178.53462014699207</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -38285,7 +38285,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>-37.70848411638117,178.5342667394738</t>
+          <t>-37.70847505959126,178.53425167595063</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -38483,7 +38483,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-37.708519530035254,178.53432564058977</t>
+          <t>-37.708525278649695,178.53433520187872</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -38596,7 +38596,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>-37.7085270683125,178.5343381785067</t>
+          <t>-37.70853672164368,178.53435423426004</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -38717,7 +38717,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>-37.70851535415439,178.5343186951261</t>
+          <t>-37.70851085287968,178.5343112084583</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -38854,7 +38854,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>-37.708520506215116,178.5343272642048</t>
+          <t>-37.70851269677541,178.53431427528596</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -38975,7 +38975,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-37.70849653556849,178.5342873954485</t>
+          <t>-37.70848737031713,178.5342721515189</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -39096,7 +39096,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>-37.70857376221118,178.53441584148624</t>
+          <t>-37.708568338997196,178.53440682139083</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -39209,7 +39209,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>-37.70863873225257,178.53452390232945</t>
+          <t>-37.708648222858336,178.53453968752652</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -39346,7 +39346,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>-37.70852245857479,178.53433051143492</t>
+          <t>-37.70852397707668,178.53433303705845</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -39483,7 +39483,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>-37.70859447888127,178.5344502982626</t>
+          <t>-37.70859550929125,178.53445201208183</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -39733,7 +39733,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>-37.70858178856642,178.53442919122983</t>
+          <t>-37.70859355693546,178.53444876484545</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -39854,7 +39854,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>-37.70858775409958,178.53443911333838</t>
+          <t>-37.70859198420433,178.5344461490163</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -39975,7 +39975,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>-37.708552123582585,178.53437985131313</t>
+          <t>-37.708548652723685,178.53437407845522</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -40112,7 +40112,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>-37.70853514891013,178.53435161843478</t>
+          <t>-37.70854328373816,178.5343651485666</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -40245,7 +40245,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>-37.7085186623198,178.5343241973765</t>
+          <t>-37.708525766739555,178.53433601368636</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -40459,7 +40459,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-37.70853108149544,178.53434485336996</t>
+          <t>-37.70854057212902,178.53436063852237</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -40596,7 +40596,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>-37.7084722937448,178.53424707571372</t>
+          <t>-37.7084778796698,178.5342563663886</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -40733,7 +40733,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-37.708557872191925,178.53438941261027</t>
+          <t>-37.708558306049206,178.53439013421766</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -40810,7 +40810,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>-37.708512967936535,178.53431472629003</t>
+          <t>-37.70851958426747,178.5343257307906</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -40931,7 +40931,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>-37.70838850476791,178.53410771575446</t>
+          <t>-37.70837841753839,178.53409093845966</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -41036,7 +41036,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-37.70860917577887,178.53447474274103</t>
+          <t>-37.708620022194005,178.5344927829525</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -41161,7 +41161,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>-37.70862907894817,178.53450784653305</t>
+          <t>-37.70864052190984,178.53452687896632</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -41286,7 +41286,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>-37.708647572074014,178.53453860511286</t>
+          <t>-37.70865283258026,178.53454735462364</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -41423,7 +41423,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>-37.70865733383758,178.53455484131936</t>
+          <t>-37.70865614073328,178.5345528568939</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -41544,7 +41544,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>-37.708758639097404,178.5347233373084</t>
+          <t>-37.70875017892579,178.5347092658917</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -41661,7 +41661,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>-37.70870554606512,178.53463503020038</t>
+          <t>-37.70869741127301,178.53462150001084</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -41782,7 +41782,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>-37.708640576141875,178.53452696916742</t>
+          <t>-37.70865050060337,178.53454347597437</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -41903,7 +41903,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>-37.70863835262828,178.53452327092165</t>
+          <t>-37.70863233287129,178.53451325859882</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -42040,7 +42040,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>-37.70858466286888,178.53443397188195</t>
+          <t>-37.7085775584605,178.53442215555378</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -42177,7 +42177,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>-37.70864149808649,178.53452850258648</t>
+          <t>-37.70865142254775,178.53454500939384</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -42298,7 +42298,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>-37.70851508299328,178.53431824412198</t>
+          <t>-37.708518716552,178.5343242875773</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -42435,7 +42435,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>-37.70854436838176,178.5343669525844</t>
+          <t>-37.70853384733747,178.53434945361397</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -42544,7 +42544,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>-37.708524031308905,178.53433312725932</t>
+          <t>-37.708531244192024,178.53434512397254</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -42681,7 +42681,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>-37.70852229587816,178.5343302408324</t>
+          <t>-37.708532545764776,178.5343472887932</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -42818,7 +42818,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>-37.70857414183613,178.53441647289296</t>
+          <t>-37.70857940235289,178.53442522238686</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -43092,7 +43092,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>-37.70856242769303,178.53439698948827</t>
+          <t>-37.70855581136981,178.5343859849753</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -43229,7 +43229,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>-37.708563349639604,178.53439852290416</t>
+          <t>-37.70857435876467,178.5344168336968</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -43350,7 +43350,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>-37.708547730776715,178.5343725450399</t>
+          <t>-37.708552557439916,178.5343805729204</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -43471,7 +43471,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>-37.708581951262786,178.53442946183276</t>
+          <t>-37.70857956504927,178.53442549298978</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -43608,7 +43608,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>-37.70857506378242,178.53441800630932</t>
+          <t>-37.708577449996234,178.53442197515187</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -43725,7 +43725,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>-37.70863341751225,178.5345150626208</t>
+          <t>-37.70864138962243,178.5345283221842</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -43854,7 +43854,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>-37.70850260957998,178.5342974979364</t>
+          <t>-37.708504128082694,178.53430002355864</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -43991,7 +43991,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>-37.708556407923595,178.5343869771854</t>
+          <t>-37.708559716085304,178.53439247944172</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -44112,7 +44112,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>-37.70858905567033,178.53444127816226</t>
+          <t>-37.70858135470943,178.534428469622</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -44249,7 +44249,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>-37.708593773863896,178.5344491256495</t>
+          <t>-37.708601745982655,178.53446238519908</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -44378,7 +44378,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>-37.70844924501617,178.53420874041925</t>
+          <t>-37.708443821783796,178.53419972035334</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -44483,7 +44483,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>-37.70847744581158,178.53425564478272</t>
+          <t>-37.70848167592903,178.53426268044026</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -44620,7 +44620,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>-37.70850087414824,178.53429461151111</t>
+          <t>-37.70849019039471,178.5342768419584</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -44729,7 +44729,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>-37.70849469167196,178.53428432862214</t>
+          <t>-37.7085025011155,178.53429731753482</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -44866,7 +44866,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>-37.70844013398531,178.53419358670928</t>
+          <t>-37.70843140257866,178.53417906440725</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -45048,7 +45048,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>-37.70847668655968,178.5342543819725</t>
+          <t>-37.70848254364536,178.53426412365212</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -45141,7 +45141,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>-37.708533088086746,178.53434819080184</t>
+          <t>-37.708534769284775,178.5343509870287</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -45278,7 +45278,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>-37.708550333920996,178.53437687468318</t>
+          <t>-37.7085437175956,178.53436587017373</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -45415,7 +45415,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>-37.70864193194278,178.53452922419544</t>
+          <t>-37.70865006674717,178.53454275436525</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -45536,7 +45536,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>-37.70857652805002,178.5344204417354</t>
+          <t>-37.708568230532904,178.53440664098892</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -45673,7 +45673,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>-37.70859719048642,178.53445480831328</t>
+          <t>-37.70860760304839,178.53447212691077</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -45907,7 +45907,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>-37.70866324512648,178.53456467324645</t>
+          <t>-37.708666553278555,178.53457017551824</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -46024,7 +46024,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>-37.708561939603655,178.53439617767984</t>
+          <t>-37.70855863144215,178.5343906754232</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -46137,7 +46137,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>-37.708494040884915,178.53428324621288</t>
+          <t>-37.70850608044323,178.53430327078738</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -46379,7 +46379,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>-37.708647951698204,178.53453923652083</t>
+          <t>-37.708658960797926,178.53455754735418</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -46504,7 +46504,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>-37.70853118995983,178.53434503377167</t>
+          <t>-37.708531786514015,178.53434602598114</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -46621,7 +46621,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>-37.70849339009787,178.5342821638036</t>
+          <t>-37.70848720762032,178.53427188091663</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -46718,7 +46718,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>-37.70870142443735,178.534628174904</t>
+          <t>-37.708693289644316,178.53461464471593</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -46799,7 +46799,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>-37.708684395601885,178.53459985171364</t>
+          <t>-37.70869871283987,178.53462366484098</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -46924,7 +46924,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>-37.708849206197065,178.53487397382395</t>
+          <t>-37.708844813426715,178.5348666674937</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -47041,7 +47041,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>-37.708538945163426,178.53435793249596</t>
+          <t>-37.70853954171748,178.5343589247056</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -47118,7 +47118,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>-37.70866964450237,178.53457531698575</t>
+          <t>-37.70866319089448,178.5345645830453</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -47320,7 +47320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>-37.708745352288545,178.53470123796947</t>
+          <t>-37.708740254491225,178.5346927590415</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -47441,7 +47441,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>-37.70868103321943,178.53459425923808</t>
+          <t>-37.70868466676174,178.53460030271975</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -47566,7 +47566,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>-37.70868564293723,178.5346019263418</t>
+          <t>-37.70870055672618,178.5346267316838</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -47643,7 +47643,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>-37.70870972192438,178.5346419756988</t>
+          <t>-37.70871335546385,178.53464801918506</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -47756,7 +47756,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>-37.70858553058278,178.53443541509776</t>
+          <t>-37.70858027006691,178.53442666560244</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -47994,7 +47994,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>-37.70859632277279,178.53445336509702</t>
+          <t>-37.70859946823462,178.53445859675605</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -48115,7 +48115,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>-37.708527122544695,178.53433826870756</t>
+          <t>-37.70853482351696,178.5343510772296</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -48357,7 +48357,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>-37.70852083160842,178.5343278054098</t>
+          <t>-37.70852625482942,178.53433682549397</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -48458,7 +48458,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>-37.708584717101004,178.5344340620829</t>
+          <t>-37.708577938085405,178.5344227869606</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -48579,7 +48579,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>-37.708661618166325,178.53456196721132</t>
+          <t>-37.70865407991669,178.53454942925006</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -48700,7 +48700,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>-37.70869388619587,178.53461563692963</t>
+          <t>-37.70868472099372,178.53460039292096</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -48825,7 +48825,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>-37.708586615225144,178.53443721911754</t>
+          <t>-37.70859127918691,178.53444497640328</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -48950,7 +48950,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>-37.70873569901217,178.53468518212813</t>
+          <t>-37.70874714194064,178.5347042146147</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -49071,7 +49071,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>-37.708734939765606,178.5346839193093</t>
+          <t>-37.70875001623016,178.53470899528756</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -49196,7 +49196,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>-37.70873569901217,178.53468518212813</t>
+          <t>-37.70872967927113,178.53467516977966</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -49321,7 +49321,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>-37.70868548024132,178.53460165573813</t>
+          <t>-37.70867794199657,178.534589117769</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -49442,7 +49442,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>-37.70863683413111,178.53452074529054</t>
+          <t>-37.70863894918073,178.53452426313393</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -49563,7 +49563,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>-37.7085997393951,178.53445904776117</t>
+          <t>-37.70861074850925,178.53447735857137</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -49688,7 +49688,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>-37.708589977616235,178.53444281157923</t>
+          <t>-37.70859599738018,178.53445282389094</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -49797,7 +49797,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>-37.708495722084734,178.53428604243686</t>
+          <t>-37.70849903025191,178.5342915446844</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -49910,7 +49910,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>-37.708543175273796,178.53436496816482</t>
+          <t>-37.708536396250544,178.5343536930548</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -50031,7 +50031,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>-37.70873390935953,178.53468220548382</t>
+          <t>-37.70872653382045,178.5346699381027</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -50402,7 +50402,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>-37.70871688053913,178.53465388226928</t>
+          <t>-37.708731360460156,178.53467796602095</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -50527,7 +50527,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>-37.70872436454397,178.5346663300499</t>
+          <t>-37.70872935387969,178.53467462857168</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -50648,7 +50648,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>-37.70863168208669,178.53451217618561</t>
+          <t>-37.70862446922326,178.5345001794407</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -50769,7 +50769,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>-37.708631248230276,178.53451145457686</t>
+          <t>-37.708639816893346,178.5345257063518</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -50906,7 +50906,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>-37.70862430652709,178.5344999088375</t>
+          <t>-37.70861617171699,178.53448637867683</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -51027,7 +51027,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>-37.708597624343234,178.5344555299214</t>
+          <t>-37.708599576698816,178.5344587771581</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -51152,7 +51152,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>-37.70841269241451,178.53414794519986</t>
+          <t>-37.70842337619057,178.5341657147164</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -51265,7 +51265,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>-37.70864762630605,178.534538695314</t>
+          <t>-37.7086485482505,178.53454022873333</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -51338,7 +51338,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>-37.7087137893193,178.53464874079538</t>
+          <t>-37.70870657647199,178.5346367440246</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -51455,7 +51455,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>-37.708920466620356,178.53499249885533</t>
+          <t>-37.70890978298884,178.53497472910666</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -51560,7 +51560,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>-37.708665251710556,178.53456801068992</t>
+          <t>-37.70867007835832,178.53457603859525</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -51681,7 +51681,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>-37.708592526525415,178.53444705102635</t>
+          <t>-37.70858948952723,178.53444199977025</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -51863,7 +51863,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>-37.70857788385328,178.53442269675963</t>
+          <t>-37.70858873027763,178.5344407369563</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -51976,7 +51976,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>-37.70865668305343,178.53455375890547</t>
+          <t>-37.70866243164641,178.53456332022887</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -52101,7 +52101,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>-37.70868206362699,178.53459597306116</t>
+          <t>-37.70868190093106,178.53459570245752</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -52222,7 +52222,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>-37.70868840876765,178.5346065266045</t>
+          <t>-37.70868162977118,178.53459525145144</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -52335,7 +52335,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>-37.70862506577593,178.53450117165264</t>
+          <t>-37.70862474038357,178.53450063044613</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -52448,7 +52448,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>-37.708754300548094,178.53471612119688</t>
+          <t>-37.70875928987975,178.53472441972517</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -52573,7 +52573,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>-37.70871541627714,178.53465144683423</t>
+          <t>-37.708722954514194,178.5346639848157</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -52694,7 +52694,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>-37.70846068803384,178.53422777276256</t>
+          <t>-37.70844951617775,178.53420919142258</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -52751,7 +52751,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>-37.708600064787674,178.5344595889673</t>
+          <t>-37.70860429489102,178.5344666246475</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -52888,7 +52888,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>-37.70854740538367,178.5343720038345</t>
+          <t>-37.708550279688836,178.5343767844823</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -53034,7 +53034,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>-37.70862609618507,178.5345028854732</t>
+          <t>-37.70863846109237,178.53452345132388</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -53159,7 +53159,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>-37.70862105260326,178.53449449677288</t>
+          <t>-37.70862766891472,178.53450550130472</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -53280,7 +53280,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>-37.708599305538314,178.53445832615301</t>
+          <t>-37.70859371963177,178.5344490354485</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -53397,7 +53397,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>-37.70853118995983,178.53434503377167</t>
+          <t>-37.70852983415483,178.53434277875022</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -53518,7 +53518,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>-37.70849859639394,178.53429082307815</t>
+          <t>-37.70850174186411,178.53429605472374</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -53655,7 +53655,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>-37.708588350652846,178.53444010554932</t>
+          <t>-37.708588947206096,178.5344410977603</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -53905,7 +53905,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>-37.708631031302076,178.53451109377247</t>
+          <t>-37.708625282704176,178.53450153245694</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -54155,7 +54155,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>-37.708516818424364,178.53432113054834</t>
+          <t>-37.70850911744831,178.5343083220324</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -54292,7 +54292,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>-37.70857728729985,178.53442170454895</t>
+          <t>-37.708583469762225,178.53443198746027</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -54413,7 +54413,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>-37.70856351233606,178.53439879350697</t>
+          <t>-37.708568610157904,178.53440727239553</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -54538,7 +54538,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>-37.70857408760399,178.53441638269203</t>
+          <t>-37.708576365353615,178.5344201711325</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -54675,7 +54675,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>-37.708477120417896,178.53425510357835</t>
+          <t>-37.7084685517169,178.53424085186433</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -54788,7 +54788,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>-37.708543121041615,178.53436487796395</t>
+          <t>-37.70855456403005,178.5343839103542</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -54925,7 +54925,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>-37.70851654726325,178.5343206795442</t>
+          <t>-37.70852061467955,178.53432744460645</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -55062,7 +55062,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>-37.70849192582696,178.53427972838287</t>
+          <t>-37.708490244626965,178.53427693215914</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -55131,7 +55131,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>-37.70847289029994,178.53424806792165</t>
+          <t>-37.708465514708465,178.5342358006247</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -55268,7 +55268,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>-37.70853015954805,178.53434331995535</t>
+          <t>-37.70852305512913,178.53433150364415</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -55405,7 +55405,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>-37.70852793602777,178.53433962172033</t>
+          <t>-37.70854149407616,178.53436217193737</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -55530,7 +55530,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>-37.7085183911587,178.53432374637234</t>
+          <t>-37.708506514301114,178.53430399239377</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -55663,7 +55663,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>-37.708557926424085,178.5343895028112</t>
+          <t>-37.70855429286923,178.5343834593496</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -55885,7 +55885,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>-37.70856557315774,178.53440222114264</t>
+          <t>-37.7085703998186,178.53441024902693</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -56022,7 +56022,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>-37.708620293354336,178.53449323395785</t>
+          <t>-37.70863265826358,178.5345137998054</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -56159,7 +56159,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>-37.708742044143555,178.5346957356863</t>
+          <t>-37.70874339994073,178.53469799072036</t>
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -56401,7 +56401,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>-37.7086165513415,178.53448701008426</t>
+          <t>-37.70862105260326,178.53449449677288</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -56526,7 +56526,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>-37.70864176924668,178.5345289535921</t>
+          <t>-37.70863515293775,178.53451794905615</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -56663,7 +56663,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>-37.70860185444685,178.53446256560113</t>
+          <t>-37.70861091120551,178.53447762917452</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -56788,7 +56788,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>-37.70858233088766,178.53443009323965</t>
+          <t>-37.70859165881166,178.53444560781028</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -56909,7 +56909,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>-37.708575931496554,178.53441944952476</t>
+          <t>-37.70858135470943,178.534428469622</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -57030,7 +57030,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>-37.70851264254317,178.53431418508512</t>
+          <t>-37.70850949707393,178.53430895343803</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -57167,7 +57167,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>-37.70850580928205,178.53430281978336</t>
+          <t>-37.708500819915976,178.53429452131033</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -57288,7 +57288,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>-37.708530756102235,178.5343443121648</t>
+          <t>-37.70854100598649,178.5343613601294</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -57425,7 +57425,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>-37.708466436657474,178.53423733403667</t>
+          <t>-37.70845515633853,178.53421857229256</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -57550,7 +57550,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>-37.70851790306874,178.53432293456487</t>
+          <t>-37.708509334377254,178.5343086828356</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -57659,7 +57659,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>-37.708506243139944,178.53430354138976</t>
+          <t>-37.70851106980859,178.53431156926155</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -57861,7 +57861,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>-37.70858764563536,178.5344389329364</t>
+          <t>-37.7085893268309,178.53444172916727</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -58103,7 +58103,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>-37.70873157738778,178.53467832682628</t>
+          <t>-37.70872479839928,178.53466705166045</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -58240,7 +58240,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>-37.70872658805236,178.53467002830402</t>
+          <t>-37.70873575324406,178.53468527232945</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -58361,7 +58361,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>-37.708732119706795,178.53467922883965</t>
+          <t>-37.708729733503034,178.534675259981</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -58498,7 +58498,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>-37.708734939765606,178.5346839193093</t>
+          <t>-37.70874112220147,178.53469420226324</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -58619,7 +58619,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>-37.70867246456597,178.5345800074477</t>
+          <t>-37.70867832162045,178.53458974917746</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -58857,7 +58857,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>-37.70879741485902,178.5347878313415</t>
+          <t>-37.70880479038386,178.53480009874548</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -58994,7 +58994,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>-37.708727130371464,178.53467093031728</t>
+          <t>-37.70872788961819,178.5346721931358</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -59131,7 +59131,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>-37.70874524382478,178.53470105756674</t>
+          <t>-37.708754300548094,178.53471612119688</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -59252,7 +59252,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>-37.708729733503034,178.534675259981</t>
+          <t>-37.70872311720994,178.5346642554196</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -59389,7 +59389,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>-37.708599576698816,178.5344587771581</t>
+          <t>-37.70861389396984,178.5344825902324</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -59506,7 +59506,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>-37.70861958833744,178.53449206134397</t>
+          <t>-37.70862365574234,178.53449882642454</t>
         </is>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -59607,7 +59607,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>-37.708761404922306,178.5347279375799</t>
+          <t>-37.70875565634483,178.5347183762316</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -59732,7 +59732,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>-37.70866839716648,178.53457324235845</t>
+          <t>-37.70865923195797,178.53455799836001</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -59845,7 +59845,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>-37.70854767654455,178.53437245483897</t>
+          <t>-37.708553425154605,178.53438201613503</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -59982,7 +59982,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>-37.70857473838961,178.53441746510356</t>
+          <t>-37.70857370797905,178.53441575128528</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -60119,7 +60119,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>-37.70859035724102,178.53444344298626</t>
+          <t>-37.70858281897676,178.53443090504848</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -60256,7 +60256,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>-37.70856372926466,178.5343991543107</t>
+          <t>-37.70855711294169,178.53438814979734</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -60393,7 +60393,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>-37.708729570807314,178.534674989377</t>
+          <t>-37.708718887120284,178.53465721971745</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -60514,7 +60514,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>-37.708569857497196,178.5344093470174</t>
+          <t>-37.70856850169362,178.53440709199367</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -60780,7 +60780,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>-37.708626801201824,178.53450405808732</t>
+          <t>-37.70864171501465,178.53452886339096</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -60917,7 +60917,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>-37.70876487576112,178.5347337104701</t>
+          <t>-37.708753866693144,178.53471539958576</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -61042,7 +61042,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>-37.70867137992616,178.53457820342382</t>
+          <t>-37.708666390582565,178.5345699049147</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -61163,7 +61163,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>-37.70873098083684,178.53467733461162</t>
+          <t>-37.70873835637502,178.53468960199416</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -61300,7 +61300,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>-37.708697465504976,178.5346215902121</t>
+          <t>-37.708700502494224,178.53462664148256</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -61389,7 +61389,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>-37.708628373931454,178.53450667391888</t>
+          <t>-37.70864149808649,178.53452850258648</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -61643,7 +61643,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>-37.70854024673591,178.53436009731706</t>
+          <t>-37.708545669954056,178.53436911740584</t>
         </is>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -61768,7 +61768,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>-37.7085319492106,178.53434629658372</t>
+          <t>-37.708536775875885,178.53435432446094</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -61905,7 +61905,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>-37.70851763190764,178.53432248356074</t>
+          <t>-37.70852381438006,178.53433276645595</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -62099,7 +62099,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>-37.70857473838961,178.53441746510356</t>
+          <t>-37.70858092085243,178.5344277480142</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -62236,7 +62236,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>-37.70851768613988,178.53432257376156</t>
+          <t>-37.708517089585456,178.53432158155246</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -62361,7 +62361,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>-37.70859279768597,178.53444750203138</t>
+          <t>-37.708594587345466,178.53445047866464</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -62482,7 +62482,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>-37.708572840264864,178.53441430806993</t>
+          <t>-37.70858276474464,178.5344308148475</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -62611,7 +62611,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>-37.70856101765703,178.534394644264</t>
+          <t>-37.70855423863708,178.5343833691487</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -62748,7 +62748,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>-37.70868531754541,178.53460138513444</t>
+          <t>-37.70867598964517,178.53458587052563</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -62885,7 +62885,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>-37.70860196291104,178.5344627460032</t>
+          <t>-37.70860483721192,178.53446752665783</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -63014,7 +63014,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>-37.7084958847815,178.5342863130392</t>
+          <t>-37.7084913835044,178.5342788263752</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -63297,7 +63297,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>-37.70863151939052,178.53451190558232</t>
+          <t>-37.708642040406865,178.5345294045977</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -63410,7 +63410,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>-37.70846177267986,178.53422957677643</t>
+          <t>-37.70845380053073,178.53421631727562</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -63535,7 +63535,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>-37.70859697355802,178.5344544475092</t>
+          <t>-37.70860857922594,178.53447375052951</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -63660,7 +63660,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>-37.70847332415821,178.53424878952742</t>
+          <t>-37.708471209099066,178.53424527169935</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -63789,7 +63789,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>-37.70851584224439,178.53431950693349</t>
+          <t>-37.70852142816276,178.534328797619</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -63926,7 +63926,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>-37.70854333797035,178.5343652387675</t>
+          <t>-37.70855570290549,178.53438580457345</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -64063,7 +64063,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>-37.70859127918691,178.53444497640328</t>
+          <t>-37.70857891426374,178.53442441057808</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -64188,7 +64188,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>-37.70857913119225,178.534424771382</t>
+          <t>-37.70858547635067,178.53443532489675</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -64325,7 +64325,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>-37.70855326245809,178.53438174553224</t>
+          <t>-37.708549032348884,178.5343747098615</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -64454,7 +64454,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>-37.70871877865645,178.53465703931485</t>
+          <t>-37.70871275891261,178.53464702697084</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -64587,7 +64587,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>-37.70864475200851,178.53453391465396</t>
+          <t>-37.708637647611745,178.53452209830718</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -64837,7 +64837,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>-37.70869594701024,178.53461906457704</t>
+          <t>-37.70870543760124,178.53463484979784</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -64962,7 +64962,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>-37.70862663850565,178.53450378748406</t>
+          <t>-37.70862707236211,178.53450450909276</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -65099,7 +65099,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>-37.708692584628835,178.53461347209978</t>
+          <t>-37.708695458922634,178.5346182527658</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -65228,7 +65228,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>-37.70852397707668,178.53433303705845</t>
+          <t>-37.708512371382035,178.53431373408105</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -65365,7 +65365,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>-37.70863564102615,178.53451876086612</t>
+          <t>-37.70863385136864,178.53451578422965</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -65502,7 +65502,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>-37.70858807949227,178.53443965454434</t>
+          <t>-37.70860060710865,178.53446049097755</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -65639,7 +65639,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>-37.708660750454214,178.5345605239926</t>
+          <t>-37.708655652645156,178.5345520450835</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -65776,7 +65776,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>-37.708684178673984,178.53459949090876</t>
+          <t>-37.70868520908147,178.53460120473198</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -65913,7 +65913,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>-37.70872506955883,178.53466750266705</t>
+          <t>-37.70872837770538,178.53467300494776</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -66050,7 +66050,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>-37.70870180406097,178.53462880631284</t>
+          <t>-37.70871189120173,178.5346455837502</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -66187,7 +66187,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>-37.708662973966455,178.5345642222406</t>
+          <t>-37.70867805046055,178.53458929817143</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -66324,7 +66324,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>-37.70864317927957,178.5345312988213</t>
+          <t>-37.70864740937794,178.53453833450948</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -66461,7 +66461,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>-37.70855450979788,178.5343838201533</t>
+          <t>-37.70854198216579,178.53436298374532</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -66598,7 +66598,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>-37.70862739775446,178.53450505029926</t>
+          <t>-37.70862349304615,178.53449855582127</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -66735,7 +66735,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>-37.70855846874567,178.53439040482044</t>
+          <t>-37.70855125586789,178.5343784080986</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -66872,7 +66872,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>-37.70867946049205,178.53459164340288</t>
+          <t>-37.708668451398474,178.53457333255963</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -67005,7 +67005,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>-37.7085949127381,178.53445101987072</t>
+          <t>-37.708608470761774,178.53447357012743</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -67122,7 +67122,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>-37.70859637700491,178.53445345529803</t>
+          <t>-37.708602830624535,178.53446418921965</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -67259,7 +67259,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>-37.708634936009574,178.53451758825173</t>
+          <t>-37.70862831969941,178.53450658371779</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -67396,7 +67396,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>-37.708449190783845,178.5342086502186</t>
+          <t>-37.708436391954145,178.53418736286514</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -67529,7 +67529,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>-37.70847153449279,178.53424581290366</t>
+          <t>-37.708465514708465,178.5342358006247</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -67610,7 +67610,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>-37.70842982984059,178.53417644858925</t>
+          <t>-37.70843102295224,178.53417843300286</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -67739,7 +67739,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>-37.70855483519088,178.53438436135878</t>
+          <t>-37.70856389196112,178.53439942491352</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -67876,7 +67876,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>-37.7085386740025,178.53435748149155</t>
+          <t>-37.70855044238534,178.534377055085</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -68013,7 +68013,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>-37.7085535878511,178.53438228673775</t>
+          <t>-37.70856231922872,178.5343968090864</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -68150,7 +68150,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>-37.70856714589001,178.53440483697</t>
+          <t>-37.708556462155755,178.53438706738632</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -68279,7 +68279,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>-37.70857500955029,178.53441791610837</t>
+          <t>-37.7085841747798,178.5344331600731</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -68525,7 +68525,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>-37.708522892432484,178.53433123304163</t>
+          <t>-37.70852907490403,178.53434151593822</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -68662,7 +68662,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>-37.70860098673332,178.53446112238473</t>
+          <t>-37.708599793627194,178.5344591379622</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -68799,7 +68799,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>-37.708555974066286,178.53438625557803</t>
+          <t>-37.70854886965237,178.5343744392588</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -68936,7 +68936,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>-37.708648656714544,178.5345404091356</t>
+          <t>-37.70863900341277,178.53452435333503</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -69073,7 +69073,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>-37.708625174240055,178.53450135205478</t>
+          <t>-37.708631953246936,178.5345126271911</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -69210,7 +69210,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>-37.708622842261406,178.53449747340835</t>
+          <t>-37.70862945857255,178.5345084779407</t>
         </is>
       </c>
       <c r="C282" t="inlineStr"/>
@@ -69303,7 +69303,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>-37.70871547050905,178.53465153703553</t>
+          <t>-37.70872132755668,178.5346612787763</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -69440,7 +69440,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>-37.70866752945452,178.5345717991395</t>
+          <t>-37.70866584826258,178.53456900290288</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -69577,7 +69577,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>-37.708666390582565,178.5345699049147</t>
+          <t>-37.70866400437451,178.53456593606288</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -69710,7 +69710,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>-37.70852630906162,178.5343369156948</t>
+          <t>-37.708522078949315,178.53432988002905</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -69835,7 +69835,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>-37.70859008608047,178.53444299198122</t>
+          <t>-37.70860060710865,178.53446049097755</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -69972,7 +69972,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>-37.70852972569045,178.5343425983485</t>
+          <t>-37.708528803743015,178.53434106493398</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -70077,7 +70077,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>-37.70868293133859,178.53459741628066</t>
+          <t>-37.70867555578929,178.534585148916</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -70214,7 +70214,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>-37.70861091120551,178.53447762917452</t>
+          <t>-37.70861421936231,178.53448313143872</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -70351,7 +70351,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>-37.70863580372229,178.53451903146944</t>
+          <t>-37.7086365629709,178.53452029428496</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -70488,7 +70488,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>-37.70864594511319,178.53453589907886</t>
+          <t>-37.70864144385447,178.53452841238536</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -70625,7 +70625,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>-37.70864979558707,178.53454230335953</t>
+          <t>-37.70866470939053,178.53456710867817</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -70758,7 +70758,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>-37.708505483888636,178.53430227857856</t>
+          <t>-37.708495396691234,178.5342855012322</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -70992,7 +70992,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>-37.70844333369285,178.53419890854747</t>
+          <t>-37.70844078477331,178.53419466911697</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -71218,7 +71218,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>-37.70847825929573,178.53425699779373</t>
+          <t>-37.7084826521099,178.53426430405364</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -71355,7 +71355,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>-37.70850532119192,178.53430200797618</t>
+          <t>-37.708516601495475,178.53432076974505</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -71492,7 +71492,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>-37.70850835819707,178.53430705922108</t>
+          <t>-37.708509551306165,178.53430904363884</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -71553,7 +71553,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>-37.70846226077059,178.5342303885827</t>
+          <t>-37.70846828055543,178.5342404008608</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -71767,7 +71767,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>-37.70846057956923,178.53422759236116</t>
+          <t>-37.70845092621803,178.53421153663996</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -71904,7 +71904,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>-37.708440296682326,178.53419385731118</t>
+          <t>-37.70842901635535,178.53417509557994</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -72041,7 +72041,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>-37.7085087378227,178.53430769062675</t>
+          <t>-37.70851627610216,178.5343202285401</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -72178,7 +72178,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>-37.70845011273326,178.53421018362994</t>
+          <t>-37.708455861358566,178.5342197449014</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -72315,7 +72315,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>-37.70856660356855,178.53440393496055</t>
+          <t>-37.7085566790844,178.53438742819</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -72412,7 +72412,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>-37.70847392071333,178.5342497817354</t>
+          <t>-37.70847213104794,178.53424680511156</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -72549,7 +72549,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>-37.70851220868537,178.5343134634786</t>
+          <t>-37.70851584224439,178.53431950693349</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -72686,7 +72686,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>-37.70852967145823,178.53434250814766</t>
+          <t>-37.708522729735854,178.53433096243913</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -72791,7 +72791,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>-37.70858016160266,178.5344264852005</t>
+          <t>-37.70859057416947,178.53444380379023</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -72928,7 +72928,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>-37.70853487774916,178.53435116743046</t>
+          <t>-37.70852902067182,178.53434142573738</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -73065,7 +73065,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>-37.70854279564853,178.5343643367586</t>
+          <t>-37.708542036397986,178.5343630739462</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -73202,7 +73202,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>-37.70858200549492,178.53442955203377</t>
+          <t>-37.70858352399435,178.53443207766128</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -73339,7 +73339,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>-37.708597624343234,178.5344555299214</t>
+          <t>-37.70858948952723,178.53444199977025</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -73476,7 +73476,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>-37.70860201714312,178.53446283620423</t>
+          <t>-37.70859285191806,178.53444759223237</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -73613,7 +73613,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>-37.708637973003995,178.53452263951385</t>
+          <t>-37.70863585795432,178.53451912167054</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -73750,7 +73750,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>-37.70857951081714,178.5344254027888</t>
+          <t>-37.70857918542436,178.53442486158295</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -73887,7 +73887,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>-37.708532545764776,178.5343472887932</t>
+          <t>-37.7085286410464,178.53434079433143</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -74024,7 +74024,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>-37.708616009020766,178.53448610807365</t>
+          <t>-37.70862040181847,178.53449341436</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -74161,7 +74161,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>-37.708570074425765,178.53440970782123</t>
+          <t>-37.70856557315774,178.53440222114264</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -74298,7 +74298,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>-37.70856215653226,178.5343965384836</t>
+          <t>-37.70856969480077,178.53440907641456</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -74435,7 +74435,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>-37.70856042110332,178.53439365205378</t>
+          <t>-37.70856687472928,178.53440438596527</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -74572,7 +74572,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>-37.708544097220866,178.53436650157997</t>
+          <t>-37.708536992804646,178.5343546852644</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -74709,7 +74709,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>-37.7085156253155,178.5343191461302</t>
+          <t>-37.70852148239498,178.53432888781984</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -74846,7 +74846,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>-37.70855732987033,178.53438851060105</t>
+          <t>-37.708553859011914,178.5343827377423</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -74983,7 +74983,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>-37.70857853463884,178.53442377917128</t>
+          <t>-37.70858487979736,178.5344343326859</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -75120,7 +75120,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>-37.7085283698854,178.53434034332713</t>
+          <t>-37.70853845707374,178.53435712068804</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -75257,7 +75257,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>-37.70852679715147,178.53433772750245</t>
+          <t>-37.708534769284775,178.5343509870287</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -75390,7 +75390,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>-37.708650175211226,178.53454293476753</t>
+          <t>-37.70865543571709,178.53455168427888</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -75527,7 +75527,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>-37.708636996827245,178.53452101589386</t>
+          <t>-37.708634881777506,178.53451749805063</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -75640,7 +75640,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>-37.70872740153101,178.53467138132388</t>
+          <t>-37.708724852631185,178.53466714186177</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -75777,7 +75777,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>-37.70865364606055,178.53454870764085</t>
+          <t>-37.708666607510565,178.5345702657194</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -75914,7 +75914,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>-37.70881335900646,178.5348143505854</t>
+          <t>-37.708806146178716,178.53480235378322</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -76051,7 +76051,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>-37.70872967927113,178.53467516977966</t>
+          <t>-37.708739495244764,178.53469149622254</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -76184,7 +76184,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>-37.708632549799475,178.5345136194032</t>
+          <t>-37.70863374290454,178.53451560382746</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -76321,7 +76321,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>-37.70858487979736,178.5344343326859</t>
+          <t>-37.70858742870689,178.53443857213244</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -76458,7 +76458,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>-37.708743671100144,178.53469844172716</t>
+          <t>-37.70873477706991,178.53468364870528</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -76595,7 +76595,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>-37.7087590729523,178.53472405891958</t>
+          <t>-37.70875077547641,178.53471025810688</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -76732,7 +76732,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>-37.70851182905978,178.5343128320729</t>
+          <t>-37.70852088584062,178.53432789561063</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -76865,7 +76865,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>-37.70864366736788,178.5345321106314</t>
+          <t>-37.70864730091389,178.53453815410717</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -77002,7 +77002,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>-37.708687541056165,178.53460508338478</t>
+          <t>-37.70868585986511,178.5346022871467</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -77139,7 +77139,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>-37.70869269309276,178.53461365250226</t>
+          <t>-37.70868770375207,178.5346053539885</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -77276,7 +77276,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>-37.70861947987331,178.53449188094183</t>
+          <t>-37.70862609618507,178.5345028854732</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -77413,7 +77413,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>-37.70854073482558,178.53436090912498</t>
+          <t>-37.70854718845498,178.53437164303094</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -77550,7 +77550,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>-37.708596648165404,178.53445390630313</t>
+          <t>-37.70859003184835,178.53444290178024</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -77736,7 +77736,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>-37.708580324299035,178.53442675580342</t>
+          <t>-37.70857999890627,178.53442621459757</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -77873,7 +77873,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>-37.70859003184835,178.53444290178024</t>
+          <t>-37.708599685163,178.53445895756016</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -78010,7 +78010,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>-37.70861628018114,178.53448655907897</t>
+          <t>-37.70862533693624,178.53450162265804</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -78147,7 +78147,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>-37.708830713172695,178.53484321508117</t>
+          <t>-37.7088276761942,178.53483816379347</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -78280,7 +78280,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>-37.70871080656306,178.5346437797245</t>
+          <t>-37.70872420184823,178.53466605944593</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
